--- a/escenarios_montecarlo/escenario_007.xlsx
+++ b/escenarios_montecarlo/escenario_007.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>12.46898667529445</v>
+        <v>32.92423417150081</v>
       </c>
       <c r="D2" t="n">
-        <v>11.9654094407269</v>
+        <v>17.40090376157008</v>
       </c>
       <c r="E2" t="n">
-        <v>17.44988906050921</v>
+        <v>16.22441637778389</v>
       </c>
       <c r="F2" t="n">
-        <v>13.49792938351573</v>
+        <v>5.043447434020086</v>
       </c>
       <c r="G2" t="n">
-        <v>12.99999215527906</v>
+        <v>62.44167076100651</v>
       </c>
       <c r="H2" t="n">
-        <v>18.75479553128888</v>
+        <v>22.05181032552154</v>
       </c>
       <c r="I2" t="n">
-        <v>38.32669654605996</v>
+        <v>30.63203650266791</v>
       </c>
       <c r="J2" t="n">
-        <v>270.8429279682441</v>
+        <v>64.1148058542552</v>
       </c>
       <c r="K2" t="n">
-        <v>92.88978610297818</v>
+        <v>176.4196571502132</v>
       </c>
       <c r="L2" t="n">
-        <v>49.36013725268068</v>
+        <v>52.28452188402694</v>
       </c>
       <c r="M2" t="n">
-        <v>63.16705107279192</v>
+        <v>36.93555644673089</v>
       </c>
       <c r="N2" t="n">
-        <v>29.76606626542245</v>
+        <v>114.9301923333806</v>
       </c>
       <c r="O2" t="n">
-        <v>182.4525216242131</v>
+        <v>24.25891175266367</v>
       </c>
       <c r="P2" t="n">
-        <v>94.49444954641947</v>
+        <v>84.13780444919479</v>
       </c>
       <c r="Q2" t="n">
-        <v>49.43161381315907</v>
+        <v>74.67652740321545</v>
       </c>
       <c r="R2" t="n">
-        <v>26.48394146746844</v>
+        <v>76.24385728376939</v>
       </c>
       <c r="S2" t="n">
-        <v>74.08522293216538</v>
+        <v>50.48190293380404</v>
       </c>
       <c r="T2" t="n">
-        <v>34.74658515447813</v>
+        <v>80.271197521582</v>
       </c>
       <c r="U2" t="n">
-        <v>48.3976017745733</v>
+        <v>44.18591425711277</v>
       </c>
       <c r="V2" t="n">
-        <v>57.44957955706725</v>
+        <v>103.7390911094434</v>
       </c>
       <c r="W2" t="n">
-        <v>55.74812254418435</v>
+        <v>185.4091264903907</v>
       </c>
       <c r="X2" t="n">
-        <v>49.67387315920405</v>
+        <v>55.76089509480158</v>
       </c>
       <c r="Y2" t="n">
-        <v>61.86192263654618</v>
+        <v>88.51616351167768</v>
       </c>
       <c r="Z2" t="n">
-        <v>137.7927183252501</v>
+        <v>63.60304899521342</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.7533132238436</v>
+        <v>99.4425283638886</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.86263430782515</v>
+        <v>93.91784142481025</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.87956231974081</v>
+        <v>110.2855056690671</v>
       </c>
       <c r="AD2" t="n">
-        <v>106.628382749857</v>
+        <v>106.1916292414916</v>
       </c>
       <c r="AE2" t="n">
-        <v>147.9453264557133</v>
+        <v>71.82957860778033</v>
       </c>
       <c r="AF2" t="n">
-        <v>103.3355008558756</v>
+        <v>88.32340442488034</v>
       </c>
       <c r="AG2" t="n">
-        <v>118.9434063542356</v>
+        <v>59.20995560629664</v>
       </c>
       <c r="AH2" t="n">
-        <v>63.95879409764814</v>
+        <v>155.574842738212</v>
       </c>
       <c r="AI2" t="n">
-        <v>112.6497857825374</v>
+        <v>42.01911500206146</v>
       </c>
       <c r="AJ2" t="n">
-        <v>76.80018761529661</v>
+        <v>57.38087687911728</v>
       </c>
       <c r="AK2" t="n">
-        <v>35.09270039066865</v>
+        <v>35.24352858710485</v>
       </c>
       <c r="AL2" t="n">
-        <v>38.16534818370999</v>
+        <v>66.08129351672905</v>
       </c>
       <c r="AM2" t="n">
-        <v>32.91054542221485</v>
+        <v>56.52489431900477</v>
       </c>
       <c r="AN2" t="n">
-        <v>26.23321037740032</v>
+        <v>52.08117136254583</v>
       </c>
       <c r="AO2" t="n">
-        <v>29.82206301651447</v>
+        <v>27.27084087443227</v>
       </c>
       <c r="AP2" t="n">
-        <v>25.3276813231112</v>
+        <v>27.66450631207967</v>
       </c>
       <c r="AQ2" t="n">
-        <v>28.71454190535646</v>
+        <v>37.47422242999096</v>
       </c>
       <c r="AR2" t="n">
-        <v>30.06740732273178</v>
+        <v>29.55895658530257</v>
       </c>
       <c r="AS2" t="n">
-        <v>23.4469136417765</v>
+        <v>15.20913206402355</v>
       </c>
       <c r="AT2" t="n">
-        <v>11.81233475516924</v>
+        <v>10.90579417446351</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.993042957750674</v>
+        <v>16.52788411569084</v>
       </c>
       <c r="AV2" t="n">
-        <v>28.2230810718809</v>
+        <v>25.15322264879931</v>
       </c>
       <c r="AW2" t="n">
-        <v>19.63386710416184</v>
+        <v>17.23947109001932</v>
       </c>
       <c r="AX2" t="n">
-        <v>24.16616388352374</v>
+        <v>35.32135945051902</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2.119359412913543</v>
+        <v>3.08045865921362</v>
       </c>
       <c r="D3" t="n">
-        <v>2.451869553893998</v>
+        <v>2.953047177281342</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3332624000000001</v>
+        <v>4.637852277384281</v>
       </c>
       <c r="F3" t="n">
-        <v>3.20126100091948</v>
+        <v>0.7874734352064335</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8489373175720138</v>
+        <v>0.5386725144113711</v>
       </c>
       <c r="H3" t="n">
-        <v>2.663775103280789</v>
+        <v>0.0933728199359271</v>
       </c>
       <c r="I3" t="n">
-        <v>2.513010279001469</v>
+        <v>0.6025577700203035</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03040073587961816</v>
+        <v>0.334643795243826</v>
       </c>
       <c r="K3" t="n">
-        <v>5.046081405351565</v>
+        <v>1.378086695855465</v>
       </c>
       <c r="L3" t="n">
-        <v>9.768545486389273</v>
+        <v>2.220645268829347</v>
       </c>
       <c r="M3" t="n">
-        <v>3.975813600000001</v>
+        <v>2.27343713144953</v>
       </c>
       <c r="N3" t="n">
-        <v>4.657914641854297</v>
+        <v>16.64546656391303</v>
       </c>
       <c r="O3" t="n">
-        <v>3.71253745643781</v>
+        <v>5.148859311901431</v>
       </c>
       <c r="P3" t="n">
-        <v>9.638903039189197</v>
+        <v>10.05782363583983</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.559449521560151</v>
+        <v>5.31454442928109</v>
       </c>
       <c r="R3" t="n">
-        <v>2.674096681742274</v>
+        <v>2.313370415457809</v>
       </c>
       <c r="S3" t="n">
-        <v>2.112612859097127</v>
+        <v>6.332205488946717</v>
       </c>
       <c r="T3" t="n">
-        <v>4.215997496512923</v>
+        <v>3.228108634021363</v>
       </c>
       <c r="U3" t="n">
-        <v>4.42410039320499</v>
+        <v>2.552172637306747</v>
       </c>
       <c r="V3" t="n">
-        <v>2.204812000278521</v>
+        <v>3.868024682074549</v>
       </c>
       <c r="W3" t="n">
-        <v>6.814984280601111</v>
+        <v>9.057120943156928</v>
       </c>
       <c r="X3" t="n">
-        <v>2.204898866613418</v>
+        <v>5.297352824931562</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.156819789604741</v>
+        <v>2.803491388834418</v>
       </c>
       <c r="Z3" t="n">
-        <v>10.02124191078397</v>
+        <v>3.933381323617963</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.510173346680902</v>
+        <v>1.936366912209569</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.709348924784462</v>
+        <v>4.232015088894486</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.343040276559133</v>
+        <v>10.44908671636692</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.823680060838544</v>
+        <v>2.945534673992529</v>
       </c>
       <c r="AE3" t="n">
-        <v>9.176715942347201</v>
+        <v>8.651991625629435</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.933634252948245</v>
+        <v>5.510541610264008</v>
       </c>
       <c r="AG3" t="n">
-        <v>6.688373935378671</v>
+        <v>3.361881415115096</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.131175772992111</v>
+        <v>5.281097048209117</v>
       </c>
       <c r="AI3" t="n">
-        <v>8.701397869834498</v>
+        <v>7.32408751916833</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2.870881934569428</v>
+        <v>15.21754608578308</v>
       </c>
       <c r="AK3" t="n">
-        <v>5.267517557453879</v>
+        <v>5.173151351094155</v>
       </c>
       <c r="AL3" t="n">
-        <v>3.990204060876949</v>
+        <v>3.639406588668023</v>
       </c>
       <c r="AM3" t="n">
-        <v>5.591971444285791</v>
+        <v>9.082758281091397</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.628943937418514</v>
+        <v>1.34364484037755</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.605205562844867</v>
+        <v>2.869126132886017</v>
       </c>
       <c r="AP3" t="n">
-        <v>5.86237337183211</v>
+        <v>8.688853941403707</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.788343283459151</v>
+        <v>10.2323064935747</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.004435858439374</v>
+        <v>1.593313500489421</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.619321639854697</v>
+        <v>0.9425607578509758</v>
       </c>
       <c r="AT3" t="n">
-        <v>5.177000999892888</v>
+        <v>3.421971820178333</v>
       </c>
       <c r="AU3" t="n">
-        <v>2.809536146905752</v>
+        <v>7.361848926757338</v>
       </c>
       <c r="AV3" t="n">
-        <v>4.959223262870896</v>
+        <v>0.1636776392100424</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.026956958361545</v>
+        <v>2.788537303870069</v>
       </c>
       <c r="AX3" t="n">
-        <v>6.736579363369883</v>
+        <v>1.308101460748087</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6.418155717478463</v>
+        <v>17.80205543847746</v>
       </c>
       <c r="D4" t="n">
-        <v>8.726403840755767</v>
+        <v>6.52492359149679</v>
       </c>
       <c r="E4" t="n">
-        <v>15.66320171500816</v>
+        <v>12.99175247515225</v>
       </c>
       <c r="F4" t="n">
-        <v>16.21276833095887</v>
+        <v>4.851443585264534</v>
       </c>
       <c r="G4" t="n">
-        <v>8.87901749162635</v>
+        <v>16.75060169497488</v>
       </c>
       <c r="H4" t="n">
-        <v>25.06687398568986</v>
+        <v>31.74726642262207</v>
       </c>
       <c r="I4" t="n">
-        <v>20.52151958065353</v>
+        <v>4.086752752432831</v>
       </c>
       <c r="J4" t="n">
-        <v>15.60837517764093</v>
+        <v>115.1716042645922</v>
       </c>
       <c r="K4" t="n">
-        <v>9.546328009016548</v>
+        <v>4.809095275225456</v>
       </c>
       <c r="L4" t="n">
-        <v>11.36699081944917</v>
+        <v>6.840182053383714</v>
       </c>
       <c r="M4" t="n">
-        <v>63.78634176161681</v>
+        <v>26.24001195470555</v>
       </c>
       <c r="N4" t="n">
-        <v>40.92990876079525</v>
+        <v>114.1379558167563</v>
       </c>
       <c r="O4" t="n">
-        <v>38.95929693041885</v>
+        <v>38.08027888475608</v>
       </c>
       <c r="P4" t="n">
-        <v>19.06506651981197</v>
+        <v>53.80920082226583</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.76694237614566</v>
+        <v>34.19086157131753</v>
       </c>
       <c r="R4" t="n">
-        <v>42.35266040789899</v>
+        <v>33.22203496023091</v>
       </c>
       <c r="S4" t="n">
-        <v>149.9546195288914</v>
+        <v>51.14544869891404</v>
       </c>
       <c r="T4" t="n">
-        <v>86.2808909637881</v>
+        <v>44.85613527137305</v>
       </c>
       <c r="U4" t="n">
-        <v>42.8726373615638</v>
+        <v>27.06850922310533</v>
       </c>
       <c r="V4" t="n">
-        <v>31.77585633521782</v>
+        <v>108.2694952773455</v>
       </c>
       <c r="W4" t="n">
-        <v>51.38175560248045</v>
+        <v>52.58774715885254</v>
       </c>
       <c r="X4" t="n">
-        <v>186.1535306000001</v>
+        <v>66.83785954901342</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.13185304887483</v>
+        <v>101.0814552522801</v>
       </c>
       <c r="Z4" t="n">
-        <v>91.30571436645312</v>
+        <v>93.97081323474491</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.71012437353934</v>
+        <v>39.06148410471614</v>
       </c>
       <c r="AB4" t="n">
-        <v>42.32799019602248</v>
+        <v>60.79223066646905</v>
       </c>
       <c r="AC4" t="n">
-        <v>56.98286466282951</v>
+        <v>74.09519174189782</v>
       </c>
       <c r="AD4" t="n">
-        <v>86.11648459169085</v>
+        <v>34.97262662065145</v>
       </c>
       <c r="AE4" t="n">
-        <v>70.01296977974697</v>
+        <v>80.69370366436796</v>
       </c>
       <c r="AF4" t="n">
-        <v>96.39872930948</v>
+        <v>39.37889531813705</v>
       </c>
       <c r="AG4" t="n">
-        <v>95.5449358606165</v>
+        <v>28.18221978404123</v>
       </c>
       <c r="AH4" t="n">
-        <v>87.22964715101017</v>
+        <v>60.59998990051346</v>
       </c>
       <c r="AI4" t="n">
-        <v>107.7789336408175</v>
+        <v>82.93255704038725</v>
       </c>
       <c r="AJ4" t="n">
-        <v>36.47285322012114</v>
+        <v>35.758286355878</v>
       </c>
       <c r="AK4" t="n">
-        <v>49.12955474150506</v>
+        <v>44.40214553567088</v>
       </c>
       <c r="AL4" t="n">
-        <v>33.42018368574917</v>
+        <v>9.158968975447852</v>
       </c>
       <c r="AM4" t="n">
-        <v>21.66054894623952</v>
+        <v>40.11655376923688</v>
       </c>
       <c r="AN4" t="n">
-        <v>17.64150189272128</v>
+        <v>31.1613590699086</v>
       </c>
       <c r="AO4" t="n">
-        <v>11.01756373930926</v>
+        <v>26.40620080058806</v>
       </c>
       <c r="AP4" t="n">
-        <v>10.29264291734288</v>
+        <v>8.633895219340392</v>
       </c>
       <c r="AQ4" t="n">
-        <v>17.95714417596122</v>
+        <v>21.57873958144291</v>
       </c>
       <c r="AR4" t="n">
-        <v>37.58247136998498</v>
+        <v>17.83873339113406</v>
       </c>
       <c r="AS4" t="n">
-        <v>12.9524707570674</v>
+        <v>11.7017678265883</v>
       </c>
       <c r="AT4" t="n">
-        <v>7.708876080691643</v>
+        <v>21.95939891456799</v>
       </c>
       <c r="AU4" t="n">
-        <v>10.00697763310099</v>
+        <v>8.77173469742714</v>
       </c>
       <c r="AV4" t="n">
-        <v>6.6242793923706</v>
+        <v>26.17869490494728</v>
       </c>
       <c r="AW4" t="n">
-        <v>14.68925113861834</v>
+        <v>7.095772090747221</v>
       </c>
       <c r="AX4" t="n">
-        <v>4.818104470521179</v>
+        <v>7.262733152082376</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>20.16921628481221</v>
+        <v>14.51137024410172</v>
       </c>
       <c r="D5" t="n">
-        <v>17.23904350544666</v>
+        <v>15.81668430808526</v>
       </c>
       <c r="E5" t="n">
-        <v>17.56534646180068</v>
+        <v>50.59506583855683</v>
       </c>
       <c r="F5" t="n">
-        <v>18.57023928898199</v>
+        <v>47.93954639037938</v>
       </c>
       <c r="G5" t="n">
-        <v>15.48374008291824</v>
+        <v>15.82204981972927</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>8.160075714634468</v>
       </c>
       <c r="I5" t="n">
-        <v>32.89887056088912</v>
+        <v>11.11464537149427</v>
       </c>
       <c r="J5" t="n">
-        <v>17.87230185157242</v>
+        <v>10.69956207667543</v>
       </c>
       <c r="K5" t="n">
-        <v>88.91298097500054</v>
+        <v>32.05576268192922</v>
       </c>
       <c r="L5" t="n">
-        <v>26.02631906919091</v>
+        <v>39.56867190942251</v>
       </c>
       <c r="M5" t="n">
-        <v>37.03707980201791</v>
+        <v>15.51666421078381</v>
       </c>
       <c r="N5" t="n">
-        <v>21.75109254029126</v>
+        <v>49.40578621098627</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>26.63476612450766</v>
       </c>
       <c r="P5" t="n">
-        <v>19.19777231409333</v>
+        <v>53.02821738748311</v>
       </c>
       <c r="Q5" t="n">
-        <v>53.97150494625923</v>
+        <v>62.63756646334887</v>
       </c>
       <c r="R5" t="n">
-        <v>39.70554242451365</v>
+        <v>103.8661013525715</v>
       </c>
       <c r="S5" t="n">
-        <v>69.64676202476957</v>
+        <v>25.89030954928714</v>
       </c>
       <c r="T5" t="n">
-        <v>11.95755296946397</v>
+        <v>49.45938540796583</v>
       </c>
       <c r="U5" t="n">
-        <v>35.44733049723758</v>
+        <v>89.89851396525525</v>
       </c>
       <c r="V5" t="n">
-        <v>34.78798724215383</v>
+        <v>29.55536383112073</v>
       </c>
       <c r="W5" t="n">
-        <v>48.31021776240355</v>
+        <v>12.27326465357975</v>
       </c>
       <c r="X5" t="n">
-        <v>16.46445187618014</v>
+        <v>106.1852953082928</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.483271974450947</v>
+        <v>26.41245071058094</v>
       </c>
       <c r="Z5" t="n">
-        <v>101.1003565394803</v>
+        <v>41.11098804939341</v>
       </c>
       <c r="AA5" t="n">
-        <v>35.73534234048928</v>
+        <v>90.52933223991117</v>
       </c>
       <c r="AB5" t="n">
-        <v>62.5973627515928</v>
+        <v>63.32396358996128</v>
       </c>
       <c r="AC5" t="n">
-        <v>14.57559432147935</v>
+        <v>25.69218451888689</v>
       </c>
       <c r="AD5" t="n">
-        <v>77.57766466659426</v>
+        <v>14.74350801104232</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>18.64930953890322</v>
       </c>
       <c r="AF5" t="n">
-        <v>48.2244926996385</v>
+        <v>18.07132987483446</v>
       </c>
       <c r="AG5" t="n">
-        <v>22.40466336517865</v>
+        <v>19.87189283621229</v>
       </c>
       <c r="AH5" t="n">
-        <v>44.05561852511372</v>
+        <v>1.708333132577172</v>
       </c>
       <c r="AI5" t="n">
-        <v>75.25470466089766</v>
+        <v>87.10215188192113</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.512738711405736</v>
+        <v>15.64713062076003</v>
       </c>
       <c r="AK5" t="n">
-        <v>38.05816220348042</v>
+        <v>63.22416624811496</v>
       </c>
       <c r="AL5" t="n">
-        <v>61.47461137938348</v>
+        <v>32.63968391916005</v>
       </c>
       <c r="AM5" t="n">
-        <v>39.08271915987908</v>
+        <v>70.05290767738873</v>
       </c>
       <c r="AN5" t="n">
-        <v>30.57633824437766</v>
+        <v>50.75910894406948</v>
       </c>
       <c r="AO5" t="n">
-        <v>22.64228835474624</v>
+        <v>41.42138972545686</v>
       </c>
       <c r="AP5" t="n">
-        <v>20.24044897651693</v>
+        <v>58.12678806028289</v>
       </c>
       <c r="AQ5" t="n">
-        <v>14.22180616138765</v>
+        <v>61.93008554866383</v>
       </c>
       <c r="AR5" t="n">
-        <v>46.20937239602796</v>
+        <v>7.043554813591835</v>
       </c>
       <c r="AS5" t="n">
-        <v>45.47408607560449</v>
+        <v>53.91929513234589</v>
       </c>
       <c r="AT5" t="n">
-        <v>6.411003021477278</v>
+        <v>13.46084097554928</v>
       </c>
       <c r="AU5" t="n">
-        <v>5.695409747534881</v>
+        <v>8.765867070834332</v>
       </c>
       <c r="AV5" t="n">
-        <v>20.05107681968755</v>
+        <v>19.89382822660741</v>
       </c>
       <c r="AW5" t="n">
-        <v>21.04960868453895</v>
+        <v>29.58253452558654</v>
       </c>
       <c r="AX5" t="n">
-        <v>24.02500485057881</v>
+        <v>8.586416506895823</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4.697064443493755</v>
+        <v>2.108713366811786</v>
       </c>
       <c r="D6" t="n">
-        <v>2.59071138077044</v>
+        <v>3.404147129401205</v>
       </c>
       <c r="E6" t="n">
-        <v>1.014810588316861</v>
+        <v>3.40771059295048</v>
       </c>
       <c r="F6" t="n">
-        <v>0.583349504283377</v>
+        <v>2.308702843675458</v>
       </c>
       <c r="G6" t="n">
-        <v>3.653864073639059</v>
+        <v>5.648711664675669</v>
       </c>
       <c r="H6" t="n">
-        <v>9.466843493461454</v>
+        <v>9.923559141312561</v>
       </c>
       <c r="I6" t="n">
-        <v>7.182388626259806</v>
+        <v>2.864381240025401</v>
       </c>
       <c r="J6" t="n">
-        <v>9.991090079747289</v>
+        <v>73.28698386099791</v>
       </c>
       <c r="K6" t="n">
-        <v>4.858815550408591</v>
+        <v>13.51020356831451</v>
       </c>
       <c r="L6" t="n">
-        <v>29.72821642613385</v>
+        <v>15.3871661824305</v>
       </c>
       <c r="M6" t="n">
-        <v>16.8102560345256</v>
+        <v>23.11510081770184</v>
       </c>
       <c r="N6" t="n">
-        <v>39.74238694820936</v>
+        <v>17.09054175449339</v>
       </c>
       <c r="O6" t="n">
-        <v>58.35921850141646</v>
+        <v>19.24214627928752</v>
       </c>
       <c r="P6" t="n">
-        <v>9.714474475483726</v>
+        <v>20.095604638481</v>
       </c>
       <c r="Q6" t="n">
-        <v>24.13405693298105</v>
+        <v>8.169910094854243</v>
       </c>
       <c r="R6" t="n">
-        <v>13.29189696497705</v>
+        <v>7.768385444105495</v>
       </c>
       <c r="S6" t="n">
-        <v>16.97550951414877</v>
+        <v>10.64561275721515</v>
       </c>
       <c r="T6" t="n">
-        <v>10.18780960813988</v>
+        <v>10.91411642445155</v>
       </c>
       <c r="U6" t="n">
-        <v>27.53256395759781</v>
+        <v>23.47247222931495</v>
       </c>
       <c r="V6" t="n">
-        <v>17.66651050189236</v>
+        <v>29.8812597342002</v>
       </c>
       <c r="W6" t="n">
-        <v>10.35091672409951</v>
+        <v>30.95415414525162</v>
       </c>
       <c r="X6" t="n">
-        <v>19.96461912642</v>
+        <v>11.76403452219546</v>
       </c>
       <c r="Y6" t="n">
-        <v>29.47926418634415</v>
+        <v>11.4230331706046</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.45476260005125</v>
+        <v>14.64954120643201</v>
       </c>
       <c r="AA6" t="n">
-        <v>40.86313097660128</v>
+        <v>22.92979188881882</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.46073497679263</v>
+        <v>19.4089712304003</v>
       </c>
       <c r="AC6" t="n">
-        <v>24.73274125201068</v>
+        <v>26.53999191914981</v>
       </c>
       <c r="AD6" t="n">
-        <v>58.2348989862171</v>
+        <v>26.84819271378698</v>
       </c>
       <c r="AE6" t="n">
-        <v>7.736054725873197</v>
+        <v>43.4994472043395</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.287317943937408</v>
+        <v>8.187625107155529</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.87667567828844</v>
+        <v>8.913775086223763</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.10514208048336</v>
+        <v>8.313031487819041</v>
       </c>
       <c r="AI6" t="n">
-        <v>14.11898747762899</v>
+        <v>9.092450141603486</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14.07384259976392</v>
+        <v>4.090326236036575</v>
       </c>
       <c r="AK6" t="n">
-        <v>8.592560385985518</v>
+        <v>9.947152530356583</v>
       </c>
       <c r="AL6" t="n">
-        <v>9.639293315319032</v>
+        <v>10.02447561639567</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.022912303340558</v>
+        <v>3.883501747723263</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.480416005640754</v>
+        <v>1.446692494649397</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.62433853485756</v>
+        <v>1.068910069734138</v>
       </c>
       <c r="AP6" t="n">
-        <v>4.649237853149593</v>
+        <v>1.304337891847924</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.9448114710178518</v>
+        <v>2.847817800524804</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.684624087735866</v>
+        <v>3.942088544328306</v>
       </c>
       <c r="AS6" t="n">
-        <v>4.284698189134203</v>
+        <v>1.734441057369106</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.398571428571429</v>
+        <v>2.610033550376559</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.409177142857143</v>
+        <v>4.292373111550434</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.135785377872447</v>
+        <v>1.780200319419384</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.16375089281</v>
+        <v>1.830853292150196</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.408912722784631</v>
+        <v>3.208364469523</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15.1</v>
+        <v>1.452001738756935</v>
       </c>
       <c r="D7" t="n">
-        <v>8.77</v>
+        <v>2.619432056815736</v>
       </c>
       <c r="E7" t="n">
-        <v>16.16</v>
+        <v>18.42764196623306</v>
       </c>
       <c r="F7" t="n">
-        <v>8.68</v>
+        <v>14.10455205016178</v>
       </c>
       <c r="G7" t="n">
-        <v>65.59</v>
+        <v>6.189329271459015</v>
       </c>
       <c r="H7" t="n">
-        <v>27.09</v>
+        <v>57.9038016249428</v>
       </c>
       <c r="I7" t="n">
-        <v>11.49</v>
+        <v>54.79847391374402</v>
       </c>
       <c r="J7" t="n">
-        <v>61.16</v>
+        <v>190.726924737657</v>
       </c>
       <c r="K7" t="n">
-        <v>5.2</v>
+        <v>3.285192457274724</v>
       </c>
       <c r="L7" t="n">
-        <v>33.7</v>
+        <v>70.41777017234064</v>
       </c>
       <c r="M7" t="n">
-        <v>12.11474508724506</v>
+        <v>88.85000863627718</v>
       </c>
       <c r="N7" t="n">
-        <v>31.93</v>
+        <v>85.34593840510031</v>
       </c>
       <c r="O7" t="n">
-        <v>32.65</v>
+        <v>87.66736042582212</v>
       </c>
       <c r="P7" t="n">
-        <v>22.01</v>
+        <v>90.33939103793315</v>
       </c>
       <c r="Q7" t="n">
-        <v>32.23</v>
+        <v>68.56136209440611</v>
       </c>
       <c r="R7" t="n">
-        <v>77.84</v>
+        <v>17.66547191978123</v>
       </c>
       <c r="S7" t="n">
-        <v>39.03</v>
+        <v>32.49668168637935</v>
       </c>
       <c r="T7" t="n">
-        <v>10.68</v>
+        <v>10.29988669942654</v>
       </c>
       <c r="U7" t="n">
-        <v>3.45178522680766</v>
+        <v>25.16825285214543</v>
       </c>
       <c r="V7" t="n">
-        <v>56.58</v>
+        <v>14.3363902990336</v>
       </c>
       <c r="W7" t="n">
-        <v>71.51000000000001</v>
+        <v>13.72122794204019</v>
       </c>
       <c r="X7" t="n">
-        <v>17.57</v>
+        <v>18.78601534857366</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.57</v>
+        <v>80.31183344069933</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.43</v>
+        <v>13.15230426340316</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.9</v>
+        <v>34.2122679780686</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.04</v>
+        <v>2.024490315148104</v>
       </c>
       <c r="AC7" t="n">
-        <v>15.3</v>
+        <v>10.18062759071407</v>
       </c>
       <c r="AD7" t="n">
-        <v>19.03</v>
+        <v>3.077076639531817</v>
       </c>
       <c r="AE7" t="n">
-        <v>3.5</v>
+        <v>13.84905713286565</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.029999999999999</v>
+        <v>4.053194366156384</v>
       </c>
       <c r="AG7" t="n">
-        <v>4.320048457142858</v>
+        <v>11.25553378245216</v>
       </c>
       <c r="AH7" t="n">
-        <v>3.813403155500001</v>
+        <v>12.96044563275836</v>
       </c>
       <c r="AI7" t="n">
-        <v>5.9</v>
+        <v>2.047660940442292</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2.66</v>
+        <v>1.323218402804129</v>
       </c>
       <c r="AK7" t="n">
-        <v>35.75</v>
+        <v>6.817082248111968</v>
       </c>
       <c r="AL7" t="n">
-        <v>8.48</v>
+        <v>13.08832281259861</v>
       </c>
       <c r="AM7" t="n">
-        <v>14.85</v>
+        <v>11.47697928897887</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.12</v>
+        <v>1.002928720100503</v>
       </c>
       <c r="AO7" t="n">
-        <v>20.48</v>
+        <v>4.06988668203826</v>
       </c>
       <c r="AP7" t="n">
-        <v>8.77</v>
+        <v>1.876812588733191</v>
       </c>
       <c r="AQ7" t="n">
-        <v>10.71</v>
+        <v>1.75172838547796</v>
       </c>
       <c r="AR7" t="n">
-        <v>4.81</v>
+        <v>0.9581784803908588</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>1.524499327484425</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>20.92413045619174</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.33</v>
+        <v>15.08126335963764</v>
       </c>
       <c r="AV7" t="n">
-        <v>15.02</v>
+        <v>2.058463955363853</v>
       </c>
       <c r="AW7" t="n">
-        <v>14.83</v>
+        <v>2.736125287927955</v>
       </c>
       <c r="AX7" t="n">
-        <v>11.25</v>
+        <v>0.7747643969720455</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.11577095839642</v>
+        <v>20.11669930280303</v>
       </c>
       <c r="D8" t="n">
-        <v>11.29931541749339</v>
+        <v>11.75204334940369</v>
       </c>
       <c r="E8" t="n">
-        <v>35.06109766140746</v>
+        <v>26.10717684168887</v>
       </c>
       <c r="F8" t="n">
-        <v>74.79999390569169</v>
+        <v>38.67096082218981</v>
       </c>
       <c r="G8" t="n">
-        <v>11.89083892768179</v>
+        <v>18.97635368406688</v>
       </c>
       <c r="H8" t="n">
-        <v>17.81071246413225</v>
+        <v>18.70656194556736</v>
       </c>
       <c r="I8" t="n">
-        <v>29.24420960160794</v>
+        <v>23.9438958569035</v>
       </c>
       <c r="J8" t="n">
-        <v>168.9622448237927</v>
+        <v>69.79540970990783</v>
       </c>
       <c r="K8" t="n">
-        <v>34.87666723896989</v>
+        <v>22.57510360639305</v>
       </c>
       <c r="L8" t="n">
-        <v>79.84824946128721</v>
+        <v>140.8396071680989</v>
       </c>
       <c r="M8" t="n">
-        <v>58.79982812826128</v>
+        <v>39.06221766759504</v>
       </c>
       <c r="N8" t="n">
-        <v>65.64747223624279</v>
+        <v>117.3307026946344</v>
       </c>
       <c r="O8" t="n">
-        <v>83.48004764518873</v>
+        <v>32.84733269001923</v>
       </c>
       <c r="P8" t="n">
-        <v>36.64999886969547</v>
+        <v>50.7612978975617</v>
       </c>
       <c r="Q8" t="n">
-        <v>71.81008575054345</v>
+        <v>189.1076669182072</v>
       </c>
       <c r="R8" t="n">
-        <v>53.46797639940402</v>
+        <v>38.29059894448118</v>
       </c>
       <c r="S8" t="n">
-        <v>141.5065662256676</v>
+        <v>54.65026972459295</v>
       </c>
       <c r="T8" t="n">
-        <v>32.64066491706522</v>
+        <v>73.66063152259751</v>
       </c>
       <c r="U8" t="n">
-        <v>43.5213152773387</v>
+        <v>52.11931308164396</v>
       </c>
       <c r="V8" t="n">
-        <v>44.33781162696362</v>
+        <v>63.53390179057114</v>
       </c>
       <c r="W8" t="n">
-        <v>37.9204633272664</v>
+        <v>83.11685912751474</v>
       </c>
       <c r="X8" t="n">
-        <v>61.56452226963328</v>
+        <v>92.20144822771579</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.73460026775242</v>
+        <v>60.2305623053681</v>
       </c>
       <c r="Z8" t="n">
-        <v>111.7039186072078</v>
+        <v>64.50189243681029</v>
       </c>
       <c r="AA8" t="n">
-        <v>70.15653787976322</v>
+        <v>82.00675210930602</v>
       </c>
       <c r="AB8" t="n">
-        <v>58.95254272063302</v>
+        <v>87.98036272039521</v>
       </c>
       <c r="AC8" t="n">
-        <v>48.28208897934203</v>
+        <v>116.3341017581721</v>
       </c>
       <c r="AD8" t="n">
-        <v>92.3406486074246</v>
+        <v>139.6943081989722</v>
       </c>
       <c r="AE8" t="n">
-        <v>110.2219955590292</v>
+        <v>90.0002698444147</v>
       </c>
       <c r="AF8" t="n">
-        <v>174.9955142119645</v>
+        <v>152.6813359646391</v>
       </c>
       <c r="AG8" t="n">
-        <v>38.70339068400011</v>
+        <v>88.70227794539761</v>
       </c>
       <c r="AH8" t="n">
-        <v>145.6785205122881</v>
+        <v>120.6442568755365</v>
       </c>
       <c r="AI8" t="n">
-        <v>75.79818762087365</v>
+        <v>147.5956516645188</v>
       </c>
       <c r="AJ8" t="n">
-        <v>30.64415057490755</v>
+        <v>53.91546923386699</v>
       </c>
       <c r="AK8" t="n">
-        <v>95.15881621836616</v>
+        <v>35.54941452769979</v>
       </c>
       <c r="AL8" t="n">
-        <v>37.94210207307724</v>
+        <v>55.59360424019648</v>
       </c>
       <c r="AM8" t="n">
-        <v>46.72412026740364</v>
+        <v>35.65856798242483</v>
       </c>
       <c r="AN8" t="n">
-        <v>29.95003806511218</v>
+        <v>22.83457702754584</v>
       </c>
       <c r="AO8" t="n">
-        <v>15.30801951017953</v>
+        <v>56.07018704625573</v>
       </c>
       <c r="AP8" t="n">
-        <v>24.2997029872293</v>
+        <v>28.454099104401</v>
       </c>
       <c r="AQ8" t="n">
-        <v>30.61690748538518</v>
+        <v>18.8361339344109</v>
       </c>
       <c r="AR8" t="n">
-        <v>27.44771926664189</v>
+        <v>14.27612459538375</v>
       </c>
       <c r="AS8" t="n">
-        <v>11.63671168652355</v>
+        <v>25.98140321505899</v>
       </c>
       <c r="AT8" t="n">
-        <v>24.08874976484816</v>
+        <v>31.42824027722267</v>
       </c>
       <c r="AU8" t="n">
-        <v>28.87353969369264</v>
+        <v>13.10240234397171</v>
       </c>
       <c r="AV8" t="n">
-        <v>33.29988920555645</v>
+        <v>19.01186678174859</v>
       </c>
       <c r="AW8" t="n">
-        <v>63.84626727483965</v>
+        <v>23.59352488927181</v>
       </c>
       <c r="AX8" t="n">
-        <v>15.61087921809253</v>
+        <v>16.52977180240536</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1.561038532715246</v>
+        <v>0.9342158700478912</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8345692632444969</v>
+        <v>2.143011713278729</v>
       </c>
       <c r="E9" t="n">
-        <v>5.143777497036566</v>
+        <v>0.4289656925155385</v>
       </c>
       <c r="F9" t="n">
-        <v>1.870202522518312</v>
+        <v>1.605711662690484</v>
       </c>
       <c r="G9" t="n">
-        <v>3.307695526134904</v>
+        <v>18.22156179194544</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8655169531663557</v>
+        <v>8.162351278954429</v>
       </c>
       <c r="I9" t="n">
-        <v>3.229157002214412</v>
+        <v>3.627917189695152</v>
       </c>
       <c r="J9" t="n">
-        <v>2.29567249042505</v>
+        <v>11.55211240204203</v>
       </c>
       <c r="K9" t="n">
-        <v>1.326795080717075</v>
+        <v>0.5337966705659166</v>
       </c>
       <c r="L9" t="n">
-        <v>3.560305767226336</v>
+        <v>6.132335216631573</v>
       </c>
       <c r="M9" t="n">
-        <v>3.088997778794729</v>
+        <v>6.762570787131549</v>
       </c>
       <c r="N9" t="n">
-        <v>2.765336399436495</v>
+        <v>2.800304472850193</v>
       </c>
       <c r="O9" t="n">
-        <v>10.4476976005477</v>
+        <v>4.795992420003322</v>
       </c>
       <c r="P9" t="n">
-        <v>5.363034621822467</v>
+        <v>6.440548948999165</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.761331618902087</v>
+        <v>1.489904301957181</v>
       </c>
       <c r="R9" t="n">
-        <v>4.958965544729856</v>
+        <v>2.421029167674568</v>
       </c>
       <c r="S9" t="n">
-        <v>5.6965921175427</v>
+        <v>4.831530383649756</v>
       </c>
       <c r="T9" t="n">
-        <v>3.278354838714726</v>
+        <v>4.934148962004562</v>
       </c>
       <c r="U9" t="n">
-        <v>4.73855380758727</v>
+        <v>0.8709668778520396</v>
       </c>
       <c r="V9" t="n">
-        <v>4.968959800201665</v>
+        <v>18.6729432817849</v>
       </c>
       <c r="W9" t="n">
-        <v>4.75551819418411</v>
+        <v>5.45192127801071</v>
       </c>
       <c r="X9" t="n">
-        <v>3.405345300027798</v>
+        <v>12.26395975903438</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.069069572506288</v>
+        <v>3.921562265183449</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.781125995708755</v>
+        <v>5.559563433090142</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.554874352751714</v>
+        <v>3.122149461620538</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.948784034099253</v>
+        <v>4.734294234633139</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.708331249432795</v>
+        <v>3.356856235794081</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.413137470823195</v>
+        <v>12.83489172447753</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.262664682373837</v>
+        <v>3.734676792526099</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.16364708758</v>
+        <v>4.608143643320998</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.331196175238204</v>
+        <v>3.726060718313925</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.25200909724793</v>
+        <v>3.113686176323724</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.669239904923936</v>
+        <v>2.31302782554055</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3.292860419457238</v>
+        <v>1.974863758562579</v>
       </c>
       <c r="AK9" t="n">
-        <v>3.60731425656104</v>
+        <v>1.999211536388326</v>
       </c>
       <c r="AL9" t="n">
-        <v>6.240824055492735</v>
+        <v>4.051076670818916</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.826524217144684</v>
+        <v>14.13985378910197</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.893179474110872</v>
+        <v>15.09068553144708</v>
       </c>
       <c r="AO9" t="n">
-        <v>6.106440116476923</v>
+        <v>1.882695628811585</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.913387634867585</v>
+        <v>3.323207475567936</v>
       </c>
       <c r="AQ9" t="n">
-        <v>8.913141935592254</v>
+        <v>1.392709334652049</v>
       </c>
       <c r="AR9" t="n">
-        <v>5.248217486445384</v>
+        <v>3.019537994720468</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.431078904991948</v>
+        <v>2.489655558146851</v>
       </c>
       <c r="AT9" t="n">
-        <v>5.465643299920975</v>
+        <v>1.773111897287239</v>
       </c>
       <c r="AU9" t="n">
-        <v>5.761974443141699</v>
+        <v>2.098408420996034</v>
       </c>
       <c r="AV9" t="n">
-        <v>3.987568555758684</v>
+        <v>0.3193179041548662</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.026956958361545</v>
+        <v>0.7256231530778157</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.02147803183808438</v>
+        <v>42.31233830988896</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>9.960022154833608</v>
+        <v>9.847147283455715</v>
       </c>
       <c r="D10" t="n">
-        <v>12.52644161303034</v>
+        <v>24.05641886282637</v>
       </c>
       <c r="E10" t="n">
-        <v>33.57968472497245</v>
+        <v>7.034763337998343</v>
       </c>
       <c r="F10" t="n">
-        <v>6.809791559663664</v>
+        <v>7.245846348684947</v>
       </c>
       <c r="G10" t="n">
-        <v>33.07038472356247</v>
+        <v>11.72717729033783</v>
       </c>
       <c r="H10" t="n">
-        <v>6.317935206069306</v>
+        <v>72.02091734436222</v>
       </c>
       <c r="I10" t="n">
-        <v>28.13679766950267</v>
+        <v>53.62447251633776</v>
       </c>
       <c r="J10" t="n">
-        <v>19.25471224053858</v>
+        <v>5.920989397033988</v>
       </c>
       <c r="K10" t="n">
-        <v>15.35936305772669</v>
+        <v>57.96218497377405</v>
       </c>
       <c r="L10" t="n">
-        <v>51.59354808393823</v>
+        <v>60.49559279623529</v>
       </c>
       <c r="M10" t="n">
-        <v>65.76712864625199</v>
+        <v>75.14926535120769</v>
       </c>
       <c r="N10" t="n">
-        <v>89.04300329164101</v>
+        <v>182.2778559755714</v>
       </c>
       <c r="O10" t="n">
-        <v>74.10788133828865</v>
+        <v>145.2743589099564</v>
       </c>
       <c r="P10" t="n">
-        <v>47.34641417129221</v>
+        <v>68.45352615384803</v>
       </c>
       <c r="Q10" t="n">
-        <v>235.3805195964912</v>
+        <v>48.38430960503795</v>
       </c>
       <c r="R10" t="n">
-        <v>31.68678661081264</v>
+        <v>25.72850482672636</v>
       </c>
       <c r="S10" t="n">
-        <v>64.09322356733762</v>
+        <v>21.88946659821062</v>
       </c>
       <c r="T10" t="n">
-        <v>55.71086901655676</v>
+        <v>24.47491341796529</v>
       </c>
       <c r="U10" t="n">
-        <v>50.66161367010704</v>
+        <v>95.32034789331696</v>
       </c>
       <c r="V10" t="n">
-        <v>45.86283757296307</v>
+        <v>37.40551975666338</v>
       </c>
       <c r="W10" t="n">
-        <v>41.5288001715433</v>
+        <v>59.2827977376833</v>
       </c>
       <c r="X10" t="n">
-        <v>52.94432585228563</v>
+        <v>57.43379111161101</v>
       </c>
       <c r="Y10" t="n">
-        <v>28.61496806045777</v>
+        <v>112.9957864083748</v>
       </c>
       <c r="Z10" t="n">
-        <v>60.58923949308065</v>
+        <v>64.16723645541674</v>
       </c>
       <c r="AA10" t="n">
-        <v>94.99911126635062</v>
+        <v>98.9609118921919</v>
       </c>
       <c r="AB10" t="n">
-        <v>61.560160082027</v>
+        <v>40.23308799931478</v>
       </c>
       <c r="AC10" t="n">
-        <v>86.257959947107</v>
+        <v>61.9706135101002</v>
       </c>
       <c r="AD10" t="n">
-        <v>88.96889216630191</v>
+        <v>152.7535319838356</v>
       </c>
       <c r="AE10" t="n">
-        <v>102.561008</v>
+        <v>104.1062266142751</v>
       </c>
       <c r="AF10" t="n">
-        <v>42.91479884518618</v>
+        <v>59.31189329811399</v>
       </c>
       <c r="AG10" t="n">
-        <v>75.68617533877749</v>
+        <v>152.5743923024832</v>
       </c>
       <c r="AH10" t="n">
-        <v>97.1074637041603</v>
+        <v>60.77583869091146</v>
       </c>
       <c r="AI10" t="n">
-        <v>82.18146477827403</v>
+        <v>70.88855522962277</v>
       </c>
       <c r="AJ10" t="n">
-        <v>65.49804072438556</v>
+        <v>28.20320111560038</v>
       </c>
       <c r="AK10" t="n">
-        <v>32.79349272896457</v>
+        <v>52.41050282248573</v>
       </c>
       <c r="AL10" t="n">
-        <v>31.76675294766657</v>
+        <v>20.29603914765703</v>
       </c>
       <c r="AM10" t="n">
-        <v>18.09284148234735</v>
+        <v>13.865536100532</v>
       </c>
       <c r="AN10" t="n">
-        <v>43.42428690575479</v>
+        <v>39.06434340893905</v>
       </c>
       <c r="AO10" t="n">
-        <v>22.03816969413626</v>
+        <v>22.58141515450388</v>
       </c>
       <c r="AP10" t="n">
-        <v>19.26319591458126</v>
+        <v>17.67639564174297</v>
       </c>
       <c r="AQ10" t="n">
-        <v>14.29582335729626</v>
+        <v>9.692328683429961</v>
       </c>
       <c r="AR10" t="n">
-        <v>31.313901179941</v>
+        <v>9.459154881834337</v>
       </c>
       <c r="AS10" t="n">
-        <v>14.42871583290356</v>
+        <v>13.55403986193896</v>
       </c>
       <c r="AT10" t="n">
-        <v>11.18931502804842</v>
+        <v>25.19726789503932</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.826667058060956</v>
+        <v>11.24918423891181</v>
       </c>
       <c r="AV10" t="n">
-        <v>5.94405</v>
+        <v>6.619585551390589</v>
       </c>
       <c r="AW10" t="n">
-        <v>11.02592854493757</v>
+        <v>10.10517653860603</v>
       </c>
       <c r="AX10" t="n">
-        <v>16.319286637374</v>
+        <v>24.80954323409901</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>28.78527640414567</v>
+        <v>39.39210047355535</v>
       </c>
       <c r="D11" t="n">
-        <v>25.40945148893829</v>
+        <v>16.3870617626999</v>
       </c>
       <c r="E11" t="n">
-        <v>15.42158704035194</v>
+        <v>44.67825129642396</v>
       </c>
       <c r="F11" t="n">
-        <v>4.582511585149552</v>
+        <v>18.57692087817629</v>
       </c>
       <c r="G11" t="n">
-        <v>17.39598262329654</v>
+        <v>24.29434776025001</v>
       </c>
       <c r="H11" t="n">
-        <v>25.26158422241601</v>
+        <v>49.41878647335552</v>
       </c>
       <c r="I11" t="n">
-        <v>18.70376019253023</v>
+        <v>17.63281495212479</v>
       </c>
       <c r="J11" t="n">
-        <v>44.70095920652794</v>
+        <v>9.675541865640463</v>
       </c>
       <c r="K11" t="n">
-        <v>14.60630841663648</v>
+        <v>14.37708190851547</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>102.0940820095839</v>
       </c>
       <c r="M11" t="n">
-        <v>63.26003977660318</v>
+        <v>409.1900106332819</v>
       </c>
       <c r="N11" t="n">
-        <v>173.5124469744276</v>
+        <v>26.65282064282921</v>
       </c>
       <c r="O11" t="n">
-        <v>33.24608227138971</v>
+        <v>20.29164308209419</v>
       </c>
       <c r="P11" t="n">
-        <v>229.2689243021165</v>
+        <v>6.707623425101255</v>
       </c>
       <c r="Q11" t="n">
-        <v>30.87712874928799</v>
+        <v>70.20677331072197</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>12.70483096511437</v>
       </c>
       <c r="S11" t="n">
-        <v>48.12969992989484</v>
+        <v>104.1197103829254</v>
       </c>
       <c r="T11" t="n">
-        <v>36.93398557178844</v>
+        <v>19.48734216267838</v>
       </c>
       <c r="U11" t="n">
-        <v>49.32033082966727</v>
+        <v>119.4384962629967</v>
       </c>
       <c r="V11" t="n">
-        <v>37.23575889261014</v>
+        <v>12.35566210214938</v>
       </c>
       <c r="W11" t="n">
-        <v>36.21752184063013</v>
+        <v>108.5568150865195</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>65.98047436577791</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.4914643642737</v>
+        <v>11.43633701944892</v>
       </c>
       <c r="Z11" t="n">
-        <v>32.90855429917011</v>
+        <v>11.6517109797123</v>
       </c>
       <c r="AA11" t="n">
-        <v>40.95887862596691</v>
+        <v>20.48588937975954</v>
       </c>
       <c r="AB11" t="n">
-        <v>38.06745479499413</v>
+        <v>15.30070494295609</v>
       </c>
       <c r="AC11" t="n">
-        <v>28.30849778215694</v>
+        <v>42.1696388697233</v>
       </c>
       <c r="AD11" t="n">
-        <v>26.75445125406972</v>
+        <v>10.63938015622877</v>
       </c>
       <c r="AE11" t="n">
-        <v>25.25627561762784</v>
+        <v>39.35884397211023</v>
       </c>
       <c r="AF11" t="n">
-        <v>31.17787376480987</v>
+        <v>9.710790392904849</v>
       </c>
       <c r="AG11" t="n">
-        <v>26.61997010230279</v>
+        <v>22.6410759402902</v>
       </c>
       <c r="AH11" t="n">
-        <v>23.5368781734259</v>
+        <v>52.2525983051808</v>
       </c>
       <c r="AI11" t="n">
-        <v>35.52772069921559</v>
+        <v>89.34546903778026</v>
       </c>
       <c r="AJ11" t="n">
-        <v>70.33903265897027</v>
+        <v>13.7294385556491</v>
       </c>
       <c r="AK11" t="n">
-        <v>17.5173172859155</v>
+        <v>49.6702845960062</v>
       </c>
       <c r="AL11" t="n">
-        <v>30.71112690086315</v>
+        <v>52.79245004538787</v>
       </c>
       <c r="AM11" t="n">
-        <v>23.92633970118326</v>
+        <v>4.446882432770622</v>
       </c>
       <c r="AN11" t="n">
-        <v>18.62524672499678</v>
+        <v>43.28480317482656</v>
       </c>
       <c r="AO11" t="n">
-        <v>23.27827482186657</v>
+        <v>21.9704257259957</v>
       </c>
       <c r="AP11" t="n">
-        <v>22.69942476737129</v>
+        <v>18.5764082409661</v>
       </c>
       <c r="AQ11" t="n">
-        <v>20.63188596584642</v>
+        <v>11.76830536629953</v>
       </c>
       <c r="AR11" t="n">
-        <v>22.37232297781815</v>
+        <v>8.495649252220668</v>
       </c>
       <c r="AS11" t="n">
-        <v>20.13898895712875</v>
+        <v>7.169719857002654</v>
       </c>
       <c r="AT11" t="n">
-        <v>12.0143401699466</v>
+        <v>10.00769040118472</v>
       </c>
       <c r="AU11" t="n">
-        <v>39.10076149785716</v>
+        <v>18.51009371229829</v>
       </c>
       <c r="AV11" t="n">
-        <v>36.9002484940611</v>
+        <v>39.01780596571786</v>
       </c>
       <c r="AW11" t="n">
-        <v>20.14561723341214</v>
+        <v>9.597195875231179</v>
       </c>
       <c r="AX11" t="n">
-        <v>26.29870191924638</v>
+        <v>24.1800337789357</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>5.54501525232086</v>
+        <v>16.18828285465525</v>
       </c>
       <c r="D12" t="n">
-        <v>1.274756226927483</v>
+        <v>2.012554786708011</v>
       </c>
       <c r="E12" t="n">
-        <v>6.125054957531971</v>
+        <v>11.57016586821069</v>
       </c>
       <c r="F12" t="n">
-        <v>4.671696718811277</v>
+        <v>3.851736931179473</v>
       </c>
       <c r="G12" t="n">
-        <v>3.653864073639059</v>
+        <v>1.525015983700631</v>
       </c>
       <c r="H12" t="n">
-        <v>2.521884425883682</v>
+        <v>8.856245121826765</v>
       </c>
       <c r="I12" t="n">
-        <v>57.88241388448782</v>
+        <v>7.746191457332792</v>
       </c>
       <c r="J12" t="n">
-        <v>1.838337051216315</v>
+        <v>10.87514029211873</v>
       </c>
       <c r="K12" t="n">
-        <v>33.87055901807747</v>
+        <v>11.01564971882595</v>
       </c>
       <c r="L12" t="n">
-        <v>38.80041724692353</v>
+        <v>10.37544855063959</v>
       </c>
       <c r="M12" t="n">
-        <v>12.694968</v>
+        <v>33.53015193246801</v>
       </c>
       <c r="N12" t="n">
-        <v>33.01609486048964</v>
+        <v>4.510309544202554</v>
       </c>
       <c r="O12" t="n">
-        <v>10.8274136150004</v>
+        <v>41.25522023764405</v>
       </c>
       <c r="P12" t="n">
-        <v>12.61758225132727</v>
+        <v>26.21833587369882</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.03875</v>
+        <v>57.85610578511576</v>
       </c>
       <c r="R12" t="n">
-        <v>16.66437427147395</v>
+        <v>55.27600693429336</v>
       </c>
       <c r="S12" t="n">
-        <v>8.37475744544661</v>
+        <v>16.45375460939687</v>
       </c>
       <c r="T12" t="n">
-        <v>40.55973121183241</v>
+        <v>17.85880850040834</v>
       </c>
       <c r="U12" t="n">
-        <v>22.66974640222339</v>
+        <v>9.528480224776594</v>
       </c>
       <c r="V12" t="n">
-        <v>12.55162974734186</v>
+        <v>39.48305330056466</v>
       </c>
       <c r="W12" t="n">
-        <v>11.1021932804862</v>
+        <v>26.34200258828602</v>
       </c>
       <c r="X12" t="n">
-        <v>14.26316240587057</v>
+        <v>52.08706457923722</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.672</v>
+        <v>22.86604562348394</v>
       </c>
       <c r="Z12" t="n">
-        <v>35.43841056975278</v>
+        <v>21.31182146456133</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.4516922240517</v>
+        <v>10.37116946841549</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.47951953043906</v>
+        <v>16.29015496655674</v>
       </c>
       <c r="AC12" t="n">
-        <v>20.24758870599729</v>
+        <v>23.58734910871744</v>
       </c>
       <c r="AD12" t="n">
-        <v>18.78806112327357</v>
+        <v>14.74882106037628</v>
       </c>
       <c r="AE12" t="n">
-        <v>38.37872274301418</v>
+        <v>12.80009293181813</v>
       </c>
       <c r="AF12" t="n">
-        <v>7.2154392</v>
+        <v>12.34328781406444</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.63068184494876</v>
+        <v>7.81788168420104</v>
       </c>
       <c r="AH12" t="n">
-        <v>4.7622168</v>
+        <v>9.801225101859664</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.109399806404034</v>
+        <v>5.557916716270611</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7.27861010959631</v>
+        <v>9.950470503342801</v>
       </c>
       <c r="AK12" t="n">
-        <v>10.71914703646685</v>
+        <v>6.194705193106064</v>
       </c>
       <c r="AL12" t="n">
-        <v>6.502230478743672</v>
+        <v>6.076714678525665</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.738219687669169</v>
+        <v>7.07104017393392</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.576857288377129</v>
+        <v>1.517579736044453</v>
       </c>
       <c r="AO12" t="n">
-        <v>4.294189943457196</v>
+        <v>6.690093972852867</v>
       </c>
       <c r="AP12" t="n">
-        <v>4.58388832780805</v>
+        <v>2.465977312819352</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3.070697142857143</v>
+        <v>4.281689454596886</v>
       </c>
       <c r="AR12" t="n">
-        <v>3.398473916186165</v>
+        <v>5.234658785170108</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.81127347409539</v>
+        <v>0.378567356539114</v>
       </c>
       <c r="AT12" t="n">
-        <v>4.403939537344069</v>
+        <v>4.432640431852056</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.139006044349332</v>
+        <v>0.4584560849673218</v>
       </c>
       <c r="AV12" t="n">
-        <v>10.88375596849279</v>
+        <v>1.896789115202872</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.111778935853359</v>
+        <v>5.195384354903843</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.47775776676278</v>
+        <v>1.024767428803551</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>2.01</v>
+        <v>18.99234756112008</v>
       </c>
       <c r="D13" t="n">
-        <v>5.48</v>
+        <v>3.937884974331184</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>5.079647142671737</v>
       </c>
       <c r="F13" t="n">
-        <v>13.15</v>
+        <v>11.69625900507429</v>
       </c>
       <c r="G13" t="n">
-        <v>38.67</v>
+        <v>3.819160518967545</v>
       </c>
       <c r="H13" t="n">
-        <v>3.94</v>
+        <v>12.96595040532098</v>
       </c>
       <c r="I13" t="n">
-        <v>10.88</v>
+        <v>2.747765651521199</v>
       </c>
       <c r="J13" t="n">
-        <v>120.97</v>
+        <v>2.128184361499655</v>
       </c>
       <c r="K13" t="n">
-        <v>11.81</v>
+        <v>19.45976037036666</v>
       </c>
       <c r="L13" t="n">
-        <v>33.7</v>
+        <v>4.846904515867326</v>
       </c>
       <c r="M13" t="n">
-        <v>39.7</v>
+        <v>29.40276582693601</v>
       </c>
       <c r="N13" t="n">
-        <v>12.47</v>
+        <v>32.10331314423718</v>
       </c>
       <c r="O13" t="n">
-        <v>18</v>
+        <v>16.78034282684302</v>
       </c>
       <c r="P13" t="n">
-        <v>27.74</v>
+        <v>45.81686692688162</v>
       </c>
       <c r="Q13" t="n">
-        <v>30.73</v>
+        <v>150.1579331113524</v>
       </c>
       <c r="R13" t="n">
-        <v>67.03</v>
+        <v>38.85690529740701</v>
       </c>
       <c r="S13" t="n">
-        <v>16.23</v>
+        <v>17.47772156711591</v>
       </c>
       <c r="T13" t="n">
-        <v>37.39</v>
+        <v>2.927656266973608</v>
       </c>
       <c r="U13" t="n">
-        <v>7.315029256225505</v>
+        <v>19.17151892910863</v>
       </c>
       <c r="V13" t="n">
-        <v>44.01</v>
+        <v>27.2191130749541</v>
       </c>
       <c r="W13" t="n">
-        <v>9.869999999999999</v>
+        <v>56.8859000615995</v>
       </c>
       <c r="X13" t="n">
-        <v>8.605262771900051</v>
+        <v>49.59053456733147</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.97</v>
+        <v>14.14939936012948</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.869999999999999</v>
+        <v>3.9260523519004</v>
       </c>
       <c r="AA13" t="n">
-        <v>25.55</v>
+        <v>47.25977612274576</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.61</v>
+        <v>6.407024118652924</v>
       </c>
       <c r="AC13" t="n">
-        <v>72.67</v>
+        <v>6.862813755251814</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.0781975992058</v>
+        <v>10.46221451071745</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>12.25380948453603</v>
       </c>
       <c r="AF13" t="n">
-        <v>23.91</v>
+        <v>8.466506920769042</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.17</v>
+        <v>6.471390464375053</v>
       </c>
       <c r="AH13" t="n">
-        <v>45.35</v>
+        <v>5.002316976330752</v>
       </c>
       <c r="AI13" t="n">
-        <v>1</v>
+        <v>1.668791217518685</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5.9</v>
+        <v>22.42004757247008</v>
       </c>
       <c r="AK13" t="n">
-        <v>9.1</v>
+        <v>6.594194582388444</v>
       </c>
       <c r="AL13" t="n">
-        <v>3.82640434001122</v>
+        <v>3.038566981302801</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.12</v>
+        <v>1.756232545484242</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.06</v>
+        <v>4.370245726210483</v>
       </c>
       <c r="AO13" t="n">
-        <v>4.07</v>
+        <v>49.92954055924793</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.2984829409997843</v>
+        <v>1.755449526867414</v>
       </c>
       <c r="AQ13" t="n">
-        <v>11.84</v>
+        <v>2.864340009925134</v>
       </c>
       <c r="AR13" t="n">
-        <v>3.56</v>
+        <v>1.596640069545109</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.18</v>
+        <v>1.179426115112606</v>
       </c>
       <c r="AT13" t="n">
-        <v>13.7</v>
+        <v>1.432385126316925</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.33</v>
+        <v>24.19498280375785</v>
       </c>
       <c r="AV13" t="n">
-        <v>4.65</v>
+        <v>12.84954636955711</v>
       </c>
       <c r="AW13" t="n">
-        <v>12.27</v>
+        <v>30.8457121810223</v>
       </c>
       <c r="AX13" t="n">
-        <v>8.039999999999999</v>
+        <v>16.8342993389133</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>19.44798135013396</v>
+        <v>11.19603486903227</v>
       </c>
       <c r="D14" t="n">
-        <v>20.40620905423949</v>
+        <v>49.90881877976409</v>
       </c>
       <c r="E14" t="n">
-        <v>119.3942041882154</v>
+        <v>21.04791010766405</v>
       </c>
       <c r="F14" t="n">
-        <v>8.909643721973509</v>
+        <v>39.0418479854569</v>
       </c>
       <c r="G14" t="n">
-        <v>13.14869151828542</v>
+        <v>27.87349758811812</v>
       </c>
       <c r="H14" t="n">
-        <v>20.02891924235224</v>
+        <v>39.08757514181374</v>
       </c>
       <c r="I14" t="n">
-        <v>27.88987872373065</v>
+        <v>93.55788680693901</v>
       </c>
       <c r="J14" t="n">
-        <v>13.95047626635324</v>
+        <v>25.34448509623729</v>
       </c>
       <c r="K14" t="n">
-        <v>182.8110824173498</v>
+        <v>31.03558042635979</v>
       </c>
       <c r="L14" t="n">
-        <v>60.17137726531347</v>
+        <v>74.59915659036304</v>
       </c>
       <c r="M14" t="n">
-        <v>33.07251752503925</v>
+        <v>47.9463928524693</v>
       </c>
       <c r="N14" t="n">
-        <v>65.56412303767804</v>
+        <v>37.43009572870173</v>
       </c>
       <c r="O14" t="n">
-        <v>36.40895777096279</v>
+        <v>110.5725322300185</v>
       </c>
       <c r="P14" t="n">
-        <v>146.8401598140131</v>
+        <v>204.3820357919882</v>
       </c>
       <c r="Q14" t="n">
-        <v>32.69182938313293</v>
+        <v>93.1038852032848</v>
       </c>
       <c r="R14" t="n">
-        <v>283.473259977192</v>
+        <v>52.45314165747263</v>
       </c>
       <c r="S14" t="n">
-        <v>47.43832795083119</v>
+        <v>86.84805720419999</v>
       </c>
       <c r="T14" t="n">
-        <v>46.40845358705764</v>
+        <v>24.76721135980302</v>
       </c>
       <c r="U14" t="n">
-        <v>43.97228746480994</v>
+        <v>36.9489584954466</v>
       </c>
       <c r="V14" t="n">
-        <v>54.33764925132299</v>
+        <v>48.5064647836923</v>
       </c>
       <c r="W14" t="n">
-        <v>46.93742474361924</v>
+        <v>54.65108147444312</v>
       </c>
       <c r="X14" t="n">
-        <v>63.75429726727796</v>
+        <v>105.9996993791386</v>
       </c>
       <c r="Y14" t="n">
-        <v>49.49298618556897</v>
+        <v>71.35348057403571</v>
       </c>
       <c r="Z14" t="n">
-        <v>119.9791336070159</v>
+        <v>81.53190257765665</v>
       </c>
       <c r="AA14" t="n">
-        <v>93.40162533505804</v>
+        <v>108.2505176226304</v>
       </c>
       <c r="AB14" t="n">
-        <v>115.8544439975644</v>
+        <v>123.2924675464695</v>
       </c>
       <c r="AC14" t="n">
-        <v>143.6458490766138</v>
+        <v>51.32508743019473</v>
       </c>
       <c r="AD14" t="n">
-        <v>106.3887183909725</v>
+        <v>96.54381459531527</v>
       </c>
       <c r="AE14" t="n">
-        <v>190.8531974119643</v>
+        <v>80.76460720922474</v>
       </c>
       <c r="AF14" t="n">
-        <v>75.34158371661167</v>
+        <v>96.80273856788335</v>
       </c>
       <c r="AG14" t="n">
-        <v>126.4721469572554</v>
+        <v>44.09792319964647</v>
       </c>
       <c r="AH14" t="n">
-        <v>56.16453938600893</v>
+        <v>140.9784224449639</v>
       </c>
       <c r="AI14" t="n">
-        <v>116.3584659050854</v>
+        <v>90.83116268056899</v>
       </c>
       <c r="AJ14" t="n">
-        <v>81.56955061886501</v>
+        <v>184.7569588113286</v>
       </c>
       <c r="AK14" t="n">
-        <v>60.09027205649886</v>
+        <v>27.47666064061679</v>
       </c>
       <c r="AL14" t="n">
-        <v>45.81760056287704</v>
+        <v>44.01940565214273</v>
       </c>
       <c r="AM14" t="n">
-        <v>40.23543636067583</v>
+        <v>30.09056682777062</v>
       </c>
       <c r="AN14" t="n">
-        <v>37.84404813032473</v>
+        <v>27.45237260682606</v>
       </c>
       <c r="AO14" t="n">
-        <v>29.82206301651447</v>
+        <v>19.91313062605797</v>
       </c>
       <c r="AP14" t="n">
-        <v>17.7622965789562</v>
+        <v>29.4959434882498</v>
       </c>
       <c r="AQ14" t="n">
-        <v>22.36205726482657</v>
+        <v>21.75286272917197</v>
       </c>
       <c r="AR14" t="n">
-        <v>23.19013919016667</v>
+        <v>12.32715282048721</v>
       </c>
       <c r="AS14" t="n">
-        <v>18.69246566649561</v>
+        <v>15.45767241857004</v>
       </c>
       <c r="AT14" t="n">
-        <v>19.68022276351791</v>
+        <v>16.35708887600847</v>
       </c>
       <c r="AU14" t="n">
-        <v>17.29926922798146</v>
+        <v>20.81323026933537</v>
       </c>
       <c r="AV14" t="n">
-        <v>15.03207625790379</v>
+        <v>24.61965676579456</v>
       </c>
       <c r="AW14" t="n">
-        <v>27.26510334723295</v>
+        <v>8.778663309522614</v>
       </c>
       <c r="AX14" t="n">
-        <v>21.42765124707788</v>
+        <v>32.09466560591385</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>2.974376474795168</v>
+        <v>12.97076948802204</v>
       </c>
       <c r="D15" t="n">
-        <v>2.350623624358034</v>
+        <v>4.337320114461741</v>
       </c>
       <c r="E15" t="n">
-        <v>3.149407114624506</v>
+        <v>0.158046478990489</v>
       </c>
       <c r="F15" t="n">
-        <v>3.272057761732852</v>
+        <v>3.300597512895084</v>
       </c>
       <c r="G15" t="n">
-        <v>4.387381393482813</v>
+        <v>5.720183491629909</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9955302000000001</v>
+        <v>2.171635008893605</v>
       </c>
       <c r="I15" t="n">
-        <v>3.527272973027769</v>
+        <v>1.390377373675927</v>
       </c>
       <c r="J15" t="n">
-        <v>3.554413800000001</v>
+        <v>0.05750711035914247</v>
       </c>
       <c r="K15" t="n">
-        <v>3.888283164499752</v>
+        <v>5.247259490056753</v>
       </c>
       <c r="L15" t="n">
-        <v>13.63928384050074</v>
+        <v>0.3475265716869961</v>
       </c>
       <c r="M15" t="n">
-        <v>19.91312812690344</v>
+        <v>1.411319154541033</v>
       </c>
       <c r="N15" t="n">
-        <v>7.898124974431637</v>
+        <v>10.17440010776729</v>
       </c>
       <c r="O15" t="n">
-        <v>2.593050802918722</v>
+        <v>1.472363289041182</v>
       </c>
       <c r="P15" t="n">
-        <v>3.194579815314773</v>
+        <v>2.782095843705559</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.132035917380248</v>
+        <v>1.610936126320724</v>
       </c>
       <c r="R15" t="n">
-        <v>2.803591633462394</v>
+        <v>0.8951279887878545</v>
       </c>
       <c r="S15" t="n">
-        <v>9.032356003712326</v>
+        <v>2.586197255992797</v>
       </c>
       <c r="T15" t="n">
-        <v>8.184171529362482</v>
+        <v>1.151066447293271</v>
       </c>
       <c r="U15" t="n">
-        <v>4.23985842918857</v>
+        <v>7.843352238568972</v>
       </c>
       <c r="V15" t="n">
-        <v>2.585394379790588</v>
+        <v>1.751969848506103</v>
       </c>
       <c r="W15" t="n">
-        <v>4.884789256807245</v>
+        <v>4.705562996509195</v>
       </c>
       <c r="X15" t="n">
-        <v>5.644907016154399</v>
+        <v>1.743807444919584</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.581263657301794</v>
+        <v>15.30348576251928</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.570807726097789</v>
+        <v>3.752048990781294</v>
       </c>
       <c r="AA15" t="n">
-        <v>5.487833019643034</v>
+        <v>9.834639374539414</v>
       </c>
       <c r="AB15" t="n">
-        <v>6.496554148478382</v>
+        <v>2.974224528763613</v>
       </c>
       <c r="AC15" t="n">
-        <v>4.583140472048645</v>
+        <v>6.49778627533846</v>
       </c>
       <c r="AD15" t="n">
-        <v>4.715924388196302</v>
+        <v>3.89965590586147</v>
       </c>
       <c r="AE15" t="n">
-        <v>7.857796782503506</v>
+        <v>10.55347885836406</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.653140961192967</v>
+        <v>3.648920287428812</v>
       </c>
       <c r="AG15" t="n">
-        <v>5.517755306927209</v>
+        <v>3.173794552710701</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.109027574098107</v>
+        <v>4.897821260664063</v>
       </c>
       <c r="AI15" t="n">
-        <v>5.844135974902231</v>
+        <v>7.030780137661053</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.497119063325159</v>
+        <v>10.29952788192186</v>
       </c>
       <c r="AK15" t="n">
-        <v>4.02059306346268</v>
+        <v>14.84064168769719</v>
       </c>
       <c r="AL15" t="n">
-        <v>3.182064204349326</v>
+        <v>4.457551558190253</v>
       </c>
       <c r="AM15" t="n">
-        <v>5.826524217144684</v>
+        <v>5.402991473159084</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.702843852415689</v>
+        <v>6.215568432664898</v>
       </c>
       <c r="AO15" t="n">
-        <v>3.902472011939627</v>
+        <v>7.773649408953831</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.404449673099096</v>
+        <v>4.587940053244008</v>
       </c>
       <c r="AQ15" t="n">
-        <v>5.193952779888726</v>
+        <v>5.826937864591293</v>
       </c>
       <c r="AR15" t="n">
-        <v>7.956694551409729</v>
+        <v>11.78207891071979</v>
       </c>
       <c r="AS15" t="n">
-        <v>5.33636177549768</v>
+        <v>2.819012136220965</v>
       </c>
       <c r="AT15" t="n">
-        <v>4.44531751850248</v>
+        <v>2.29862061302827</v>
       </c>
       <c r="AU15" t="n">
-        <v>2.438158474905978</v>
+        <v>1.252991578716341</v>
       </c>
       <c r="AV15" t="n">
-        <v>2.21558964568987</v>
+        <v>1.14913226034295</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.48095787260023</v>
+        <v>2.169844826990756</v>
       </c>
       <c r="AX15" t="n">
-        <v>3.216794108424246</v>
+        <v>0.7024557976772541</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>12.7666220615166</v>
+        <v>11.24522374712461</v>
       </c>
       <c r="D16" t="n">
-        <v>8.781252490238257</v>
+        <v>11.72182146337288</v>
       </c>
       <c r="E16" t="n">
-        <v>20.20665047587791</v>
+        <v>11.90897343909032</v>
       </c>
       <c r="F16" t="n">
-        <v>10.51066917736738</v>
+        <v>21.3733131967721</v>
       </c>
       <c r="G16" t="n">
-        <v>25.86992644196291</v>
+        <v>5.105385228093324</v>
       </c>
       <c r="H16" t="n">
-        <v>10.99910290610374</v>
+        <v>4.327887665136556</v>
       </c>
       <c r="I16" t="n">
-        <v>12.22157823741007</v>
+        <v>12.60672243225799</v>
       </c>
       <c r="J16" t="n">
-        <v>31.50789231115108</v>
+        <v>26.82468924312613</v>
       </c>
       <c r="K16" t="n">
-        <v>78.40084914045276</v>
+        <v>99.06210465582575</v>
       </c>
       <c r="L16" t="n">
-        <v>128.358706225672</v>
+        <v>43.14869457879436</v>
       </c>
       <c r="M16" t="n">
-        <v>12.47430084939264</v>
+        <v>59.8157323043124</v>
       </c>
       <c r="N16" t="n">
-        <v>101.8205055992074</v>
+        <v>30.80149976932869</v>
       </c>
       <c r="O16" t="n">
-        <v>84.42500694227643</v>
+        <v>67.4898433085305</v>
       </c>
       <c r="P16" t="n">
-        <v>39.86565776263178</v>
+        <v>55.51709562020935</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.58378754842159</v>
+        <v>96.82888383066589</v>
       </c>
       <c r="R16" t="n">
-        <v>21.00092558583707</v>
+        <v>48.48488891383742</v>
       </c>
       <c r="S16" t="n">
-        <v>218.5352531134148</v>
+        <v>102.8812021409872</v>
       </c>
       <c r="T16" t="n">
-        <v>35.58430295967212</v>
+        <v>124.8028044405119</v>
       </c>
       <c r="U16" t="n">
-        <v>135.6117666747232</v>
+        <v>77.3120406329233</v>
       </c>
       <c r="V16" t="n">
-        <v>45.86283757296307</v>
+        <v>24.40000240182648</v>
       </c>
       <c r="W16" t="n">
-        <v>123.7171548028361</v>
+        <v>37.64328866883713</v>
       </c>
       <c r="X16" t="n">
-        <v>51.02844772050742</v>
+        <v>56.75752546858998</v>
       </c>
       <c r="Y16" t="n">
-        <v>80.4182373988222</v>
+        <v>37.96156818626947</v>
       </c>
       <c r="Z16" t="n">
-        <v>72.32514322135573</v>
+        <v>51.43384967061738</v>
       </c>
       <c r="AA16" t="n">
-        <v>89.18669661912294</v>
+        <v>53.36977299962786</v>
       </c>
       <c r="AB16" t="n">
-        <v>84.28140300000003</v>
+        <v>66.73872112135403</v>
       </c>
       <c r="AC16" t="n">
-        <v>95.341948583818</v>
+        <v>101.0013861151937</v>
       </c>
       <c r="AD16" t="n">
-        <v>184.7704173317312</v>
+        <v>110.5903550545759</v>
       </c>
       <c r="AE16" t="n">
-        <v>37.09724881581268</v>
+        <v>74.33287512133769</v>
       </c>
       <c r="AF16" t="n">
-        <v>37.09933162938256</v>
+        <v>100.8296155122565</v>
       </c>
       <c r="AG16" t="n">
-        <v>67.84968539813408</v>
+        <v>51.48528051020501</v>
       </c>
       <c r="AH16" t="n">
-        <v>74.87465363335689</v>
+        <v>22.58828718964383</v>
       </c>
       <c r="AI16" t="n">
-        <v>88.36509482991892</v>
+        <v>21.35779329603674</v>
       </c>
       <c r="AJ16" t="n">
-        <v>77.33643818862816</v>
+        <v>231.3723711422338</v>
       </c>
       <c r="AK16" t="n">
-        <v>80.79447421437089</v>
+        <v>23.72312843651302</v>
       </c>
       <c r="AL16" t="n">
-        <v>31.11883990323875</v>
+        <v>93.92439781870172</v>
       </c>
       <c r="AM16" t="n">
-        <v>21.11542965509068</v>
+        <v>40.99629770938085</v>
       </c>
       <c r="AN16" t="n">
-        <v>16.02350711113165</v>
+        <v>8.837803327960637</v>
       </c>
       <c r="AO16" t="n">
-        <v>24.30058047886666</v>
+        <v>20.5066666053965</v>
       </c>
       <c r="AP16" t="n">
-        <v>18.37277055719984</v>
+        <v>15.39254948805964</v>
       </c>
       <c r="AQ16" t="n">
-        <v>13.96688469648717</v>
+        <v>18.92406280716149</v>
       </c>
       <c r="AR16" t="n">
-        <v>14.57508124630237</v>
+        <v>24.32646018643574</v>
       </c>
       <c r="AS16" t="n">
-        <v>17.73598204081632</v>
+        <v>9.257319321519217</v>
       </c>
       <c r="AT16" t="n">
-        <v>10.16677966101695</v>
+        <v>17.80522366661891</v>
       </c>
       <c r="AU16" t="n">
-        <v>9.751397679520146</v>
+        <v>15.60335703106687</v>
       </c>
       <c r="AV16" t="n">
-        <v>9.80816862743502</v>
+        <v>14.29616093457192</v>
       </c>
       <c r="AW16" t="n">
-        <v>9.034133825121273</v>
+        <v>10.16521196427162</v>
       </c>
       <c r="AX16" t="n">
-        <v>9.52209509557173</v>
+        <v>6.263317379876082</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>40.96510031745967</v>
+        <v>36.71290197013271</v>
       </c>
       <c r="D17" t="n">
-        <v>20.83153846269861</v>
+        <v>5.601624156038653</v>
       </c>
       <c r="E17" t="n">
-        <v>7.22217307905709</v>
+        <v>5.271087815831166</v>
       </c>
       <c r="F17" t="n">
-        <v>26.05604231121387</v>
+        <v>5.251072135989182</v>
       </c>
       <c r="G17" t="n">
-        <v>128.3564034193332</v>
+        <v>8.533584935660445</v>
       </c>
       <c r="H17" t="n">
-        <v>18.61001185209864</v>
+        <v>61.57842470509563</v>
       </c>
       <c r="I17" t="n">
-        <v>36.32499519685987</v>
+        <v>39.78764991248796</v>
       </c>
       <c r="J17" t="n">
-        <v>87.48609012629693</v>
+        <v>46.91872896873129</v>
       </c>
       <c r="K17" t="n">
-        <v>23.89408716542725</v>
+        <v>30.0388724704797</v>
       </c>
       <c r="L17" t="n">
-        <v>35.50050734808789</v>
+        <v>24.80742533329902</v>
       </c>
       <c r="M17" t="n">
-        <v>3.893891849981511</v>
+        <v>42.05659201001103</v>
       </c>
       <c r="N17" t="n">
-        <v>25.34404593883828</v>
+        <v>47.24246964545255</v>
       </c>
       <c r="O17" t="n">
-        <v>14.85248276086117</v>
+        <v>40.35594607993919</v>
       </c>
       <c r="P17" t="n">
-        <v>67.52575628878014</v>
+        <v>12.83221287746419</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.75445961626892</v>
+        <v>26.37777719338939</v>
       </c>
       <c r="R17" t="n">
-        <v>44.27498691603369</v>
+        <v>12.67077130290403</v>
       </c>
       <c r="S17" t="n">
-        <v>38.65261622793604</v>
+        <v>63.71775994949812</v>
       </c>
       <c r="T17" t="n">
-        <v>36.86088736308857</v>
+        <v>153.9203644231705</v>
       </c>
       <c r="U17" t="n">
-        <v>39.72785465144438</v>
+        <v>84.6554690573056</v>
       </c>
       <c r="V17" t="n">
-        <v>96.48036412515745</v>
+        <v>55.77722917265064</v>
       </c>
       <c r="W17" t="n">
-        <v>98.53030899592412</v>
+        <v>17.59646236886299</v>
       </c>
       <c r="X17" t="n">
-        <v>190.3960144107233</v>
+        <v>61.8336530044356</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.1175344921358</v>
+        <v>28.34876263418944</v>
       </c>
       <c r="Z17" t="n">
-        <v>68.35798993542525</v>
+        <v>100.7611538749217</v>
       </c>
       <c r="AA17" t="n">
-        <v>21.58112572332937</v>
+        <v>38.87323659037593</v>
       </c>
       <c r="AB17" t="n">
-        <v>25.5991208181616</v>
+        <v>53.50815024681273</v>
       </c>
       <c r="AC17" t="n">
-        <v>45.08435940197374</v>
+        <v>48.47248606857573</v>
       </c>
       <c r="AD17" t="n">
-        <v>56.35352115329854</v>
+        <v>28.65636510890143</v>
       </c>
       <c r="AE17" t="n">
-        <v>41.86511120145605</v>
+        <v>57.23376629844582</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.739164786113905</v>
+        <v>14.54238117697275</v>
       </c>
       <c r="AG17" t="n">
-        <v>43.14743628794335</v>
+        <v>58.48366968564024</v>
       </c>
       <c r="AH17" t="n">
-        <v>13.04103922988647</v>
+        <v>48.82757534115179</v>
       </c>
       <c r="AI17" t="n">
-        <v>15.50402215010264</v>
+        <v>10.8367858731046</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>2.571349902770729</v>
       </c>
       <c r="AK17" t="n">
-        <v>19.18015884861197</v>
+        <v>4.811298607566318</v>
       </c>
       <c r="AL17" t="n">
-        <v>69.19302688713881</v>
+        <v>34.14319975706325</v>
       </c>
       <c r="AM17" t="n">
-        <v>1.11420699007623</v>
+        <v>26.52099811956563</v>
       </c>
       <c r="AN17" t="n">
-        <v>18.62524672499678</v>
+        <v>20.22284154062886</v>
       </c>
       <c r="AO17" t="n">
-        <v>30.24555872578717</v>
+        <v>14.00601986993589</v>
       </c>
       <c r="AP17" t="n">
-        <v>25.56859499469394</v>
+        <v>37.02563169261198</v>
       </c>
       <c r="AQ17" t="n">
-        <v>38.82116596136864</v>
+        <v>36.65210756626087</v>
       </c>
       <c r="AR17" t="n">
-        <v>22.99895558598594</v>
+        <v>27.35401149482645</v>
       </c>
       <c r="AS17" t="n">
-        <v>24.35090971428571</v>
+        <v>53.83022802879773</v>
       </c>
       <c r="AT17" t="n">
-        <v>29.93178662050933</v>
+        <v>91.34223401328823</v>
       </c>
       <c r="AU17" t="n">
-        <v>22.37826288471812</v>
+        <v>7.667478070507632</v>
       </c>
       <c r="AV17" t="n">
-        <v>26.3900293642381</v>
+        <v>183.5636975278753</v>
       </c>
       <c r="AW17" t="n">
-        <v>3.159275603707985</v>
+        <v>23.54602774767913</v>
       </c>
       <c r="AX17" t="n">
-        <v>17.54495767268034</v>
+        <v>22.87882307261808</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>2.107180037494344</v>
+        <v>5.86717476970908</v>
       </c>
       <c r="D18" t="n">
-        <v>1.144248845915462</v>
+        <v>2.529553830118579</v>
       </c>
       <c r="E18" t="n">
-        <v>9.715174166429275</v>
+        <v>2.152467753840936</v>
       </c>
       <c r="F18" t="n">
-        <v>2.689291003684641</v>
+        <v>14.48988338417307</v>
       </c>
       <c r="G18" t="n">
-        <v>5.788462362893745</v>
+        <v>3.118146768744719</v>
       </c>
       <c r="H18" t="n">
-        <v>10.67847430688894</v>
+        <v>53.23953461204153</v>
       </c>
       <c r="I18" t="n">
-        <v>4.869443868443625</v>
+        <v>6.838544384476594</v>
       </c>
       <c r="J18" t="n">
-        <v>7.045077</v>
+        <v>3.314857470095704</v>
       </c>
       <c r="K18" t="n">
-        <v>9.827941297327634</v>
+        <v>9.68705083244048</v>
       </c>
       <c r="L18" t="n">
-        <v>7.057444977071356</v>
+        <v>5.446856864509358</v>
       </c>
       <c r="M18" t="n">
-        <v>20.36286765977709</v>
+        <v>5.777539552270232</v>
       </c>
       <c r="N18" t="n">
-        <v>5.998739211381504</v>
+        <v>37.7949588588541</v>
       </c>
       <c r="O18" t="n">
-        <v>22.30447661844807</v>
+        <v>64.9290962261659</v>
       </c>
       <c r="P18" t="n">
-        <v>77.34546788287111</v>
+        <v>5.949845571280457</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.773586253629661</v>
+        <v>37.77798374793586</v>
       </c>
       <c r="R18" t="n">
-        <v>33.98496179224058</v>
+        <v>14.85966190898361</v>
       </c>
       <c r="S18" t="n">
-        <v>14.24013392332119</v>
+        <v>11.82666841416223</v>
       </c>
       <c r="T18" t="n">
-        <v>7.651074470183286</v>
+        <v>29.23059849357974</v>
       </c>
       <c r="U18" t="n">
-        <v>24.49389379746525</v>
+        <v>38.46362923737986</v>
       </c>
       <c r="V18" t="n">
-        <v>14.87481959964764</v>
+        <v>11.12645967569205</v>
       </c>
       <c r="W18" t="n">
-        <v>15.14899030158623</v>
+        <v>14.14477380699307</v>
       </c>
       <c r="X18" t="n">
-        <v>32.69373248250562</v>
+        <v>24.71239663373842</v>
       </c>
       <c r="Y18" t="n">
-        <v>39.65894447993607</v>
+        <v>28.36549260317633</v>
       </c>
       <c r="Z18" t="n">
-        <v>10.80675</v>
+        <v>27.48430680643721</v>
       </c>
       <c r="AA18" t="n">
-        <v>33.39714285714285</v>
+        <v>15.79463367470251</v>
       </c>
       <c r="AB18" t="n">
-        <v>25.17987198230157</v>
+        <v>17.44752748393013</v>
       </c>
       <c r="AC18" t="n">
-        <v>19.33935075860254</v>
+        <v>17.7405220989798</v>
       </c>
       <c r="AD18" t="n">
-        <v>29.87418114915884</v>
+        <v>8.776450646804809</v>
       </c>
       <c r="AE18" t="n">
-        <v>17.44229142857143</v>
+        <v>31.57432846694671</v>
       </c>
       <c r="AF18" t="n">
-        <v>18.79787594193603</v>
+        <v>9.48446770915894</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.124842914184222</v>
+        <v>11.15061123077339</v>
       </c>
       <c r="AH18" t="n">
-        <v>10.17947159588238</v>
+        <v>15.47268429647483</v>
       </c>
       <c r="AI18" t="n">
-        <v>17.77913501066921</v>
+        <v>8.641730023850844</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6.882104489638597</v>
+        <v>5.89978491430977</v>
       </c>
       <c r="AK18" t="n">
-        <v>11.22599977312835</v>
+        <v>14.75091071699149</v>
       </c>
       <c r="AL18" t="n">
-        <v>8.819153558624457</v>
+        <v>2.313427620209299</v>
       </c>
       <c r="AM18" t="n">
-        <v>4.491987057339985</v>
+        <v>2.215815980338332</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.932219222120779</v>
+        <v>4.537608752005625</v>
       </c>
       <c r="AO18" t="n">
-        <v>3.238264334552833</v>
+        <v>4.003853025556589</v>
       </c>
       <c r="AP18" t="n">
-        <v>5.288270349391934</v>
+        <v>2.110186929298463</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.06</v>
+        <v>2.513029926134593</v>
       </c>
       <c r="AR18" t="n">
-        <v>2.67563750600964</v>
+        <v>1.092030876010362</v>
       </c>
       <c r="AS18" t="n">
-        <v>7.738571428571428</v>
+        <v>3.851094850544644</v>
       </c>
       <c r="AT18" t="n">
-        <v>4.403939537344069</v>
+        <v>2.969467382402469</v>
       </c>
       <c r="AU18" t="n">
-        <v>2.632037482864749</v>
+        <v>0.8183315357074963</v>
       </c>
       <c r="AV18" t="n">
-        <v>3.928565623225523</v>
+        <v>0.9103684286744418</v>
       </c>
       <c r="AW18" t="n">
-        <v>2.656263053207131</v>
+        <v>4.465982377754287</v>
       </c>
       <c r="AX18" t="n">
-        <v>3.229654377699174</v>
+        <v>2.892266491011015</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>2.3</v>
+        <v>17.78071301459042</v>
       </c>
       <c r="D19" t="n">
-        <v>1.83</v>
+        <v>30.39602031092242</v>
       </c>
       <c r="E19" t="n">
-        <v>11.32</v>
+        <v>8.71820659002085</v>
       </c>
       <c r="F19" t="n">
-        <v>19.07</v>
+        <v>4.406611601106528</v>
       </c>
       <c r="G19" t="n">
-        <v>15.73</v>
+        <v>8.50782006959809</v>
       </c>
       <c r="H19" t="n">
-        <v>20.47</v>
+        <v>4.871008254609028</v>
       </c>
       <c r="I19" t="n">
-        <v>26.35</v>
+        <v>15.14170336522568</v>
       </c>
       <c r="J19" t="n">
-        <v>8.949999999999999</v>
+        <v>1.919913070770128</v>
       </c>
       <c r="K19" t="n">
-        <v>11.81</v>
+        <v>1.629736485733219</v>
       </c>
       <c r="L19" t="n">
-        <v>30.23</v>
+        <v>6.271919975462398</v>
       </c>
       <c r="M19" t="n">
-        <v>4.6971170798929</v>
+        <v>9.700774989872194</v>
       </c>
       <c r="N19" t="n">
-        <v>23.60711333659766</v>
+        <v>117.1628301493194</v>
       </c>
       <c r="O19" t="n">
-        <v>94.81</v>
+        <v>17.87165977649</v>
       </c>
       <c r="P19" t="n">
-        <v>113.13</v>
+        <v>63.0486904198191</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.299999999999999</v>
+        <v>14.45646590699343</v>
       </c>
       <c r="R19" t="n">
-        <v>54.42</v>
+        <v>4.512792529553176</v>
       </c>
       <c r="S19" t="n">
-        <v>21.9</v>
+        <v>56.43379800967916</v>
       </c>
       <c r="T19" t="n">
-        <v>97.52</v>
+        <v>13.89120533792424</v>
       </c>
       <c r="U19" t="n">
-        <v>53.45</v>
+        <v>2.604545359685407</v>
       </c>
       <c r="V19" t="n">
-        <v>21.9</v>
+        <v>3.671416692918502</v>
       </c>
       <c r="W19" t="n">
-        <v>12.67</v>
+        <v>27.97737360978148</v>
       </c>
       <c r="X19" t="n">
-        <v>4.53</v>
+        <v>4.840895299674055</v>
       </c>
       <c r="Y19" t="n">
-        <v>6</v>
+        <v>13.34034123369747</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.9</v>
+        <v>129.7666297562941</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.68</v>
+        <v>42.44360027065598</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.464862695297827</v>
+        <v>7.19594897460532</v>
       </c>
       <c r="AC19" t="n">
-        <v>18.34</v>
+        <v>10.54831732126667</v>
       </c>
       <c r="AD19" t="n">
-        <v>17.87</v>
+        <v>3.426951158390069</v>
       </c>
       <c r="AE19" t="n">
-        <v>2.65899310985645</v>
+        <v>16.25324466339509</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.87</v>
+        <v>18.67543664611437</v>
       </c>
       <c r="AG19" t="n">
-        <v>21.64</v>
+        <v>8.843581824292764</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.975598492500574</v>
+        <v>9.29423988723179</v>
       </c>
       <c r="AI19" t="n">
-        <v>1.3</v>
+        <v>2.466798611286724</v>
       </c>
       <c r="AJ19" t="n">
-        <v>20.9</v>
+        <v>7.248724674870733</v>
       </c>
       <c r="AK19" t="n">
-        <v>15.74</v>
+        <v>0.2198339699155432</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.12</v>
+        <v>15.52926901131935</v>
       </c>
       <c r="AM19" t="n">
-        <v>6.83</v>
+        <v>9.146782445613267</v>
       </c>
       <c r="AN19" t="n">
-        <v>2.62</v>
+        <v>12.14233126381897</v>
       </c>
       <c r="AO19" t="n">
-        <v>19.66</v>
+        <v>5.238862437658876</v>
       </c>
       <c r="AP19" t="n">
-        <v>8.07</v>
+        <v>2.912291406355333</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.39</v>
+        <v>2.575805092528968</v>
       </c>
       <c r="AR19" t="n">
-        <v>13.7</v>
+        <v>3.082523090831311</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.34831298114219</v>
+        <v>4.252297784583735</v>
       </c>
       <c r="AT19" t="n">
-        <v>14</v>
+        <v>4.257731218725917</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.53</v>
+        <v>4.550060845360126</v>
       </c>
       <c r="AV19" t="n">
-        <v>14.83</v>
+        <v>2.074751666070421</v>
       </c>
       <c r="AW19" t="n">
-        <v>14.6</v>
+        <v>1.106574150068912</v>
       </c>
       <c r="AX19" t="n">
-        <v>1</v>
+        <v>2.373060745615258</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>22.20716971079327</v>
+        <v>25.2123295476898</v>
       </c>
       <c r="D20" t="n">
-        <v>35.41549156953739</v>
+        <v>22.38082250921123</v>
       </c>
       <c r="E20" t="n">
-        <v>23.37147851636758</v>
+        <v>20.44427248800013</v>
       </c>
       <c r="F20" t="n">
-        <v>12.43513384396051</v>
+        <v>16.74592633264163</v>
       </c>
       <c r="G20" t="n">
-        <v>13.14869151828542</v>
+        <v>17.74603568935404</v>
       </c>
       <c r="H20" t="n">
-        <v>29.29764242192735</v>
+        <v>66.89212508784215</v>
       </c>
       <c r="I20" t="n">
-        <v>27.88987872373065</v>
+        <v>89.52351172782346</v>
       </c>
       <c r="J20" t="n">
-        <v>22.52186144174598</v>
+        <v>44.66833060716337</v>
       </c>
       <c r="K20" t="n">
-        <v>13.81809147932568</v>
+        <v>83.45882417387445</v>
       </c>
       <c r="L20" t="n">
-        <v>83.78088758200752</v>
+        <v>49.87787080153549</v>
       </c>
       <c r="M20" t="n">
-        <v>34.6861313257948</v>
+        <v>47.12231913288724</v>
       </c>
       <c r="N20" t="n">
-        <v>88.36580196323497</v>
+        <v>135.7839345644821</v>
       </c>
       <c r="O20" t="n">
-        <v>29.15813552107725</v>
+        <v>127.3523773064601</v>
       </c>
       <c r="P20" t="n">
-        <v>181.1893906572456</v>
+        <v>17.78315871705403</v>
       </c>
       <c r="Q20" t="n">
-        <v>75.54431302692377</v>
+        <v>19.3814086976809</v>
       </c>
       <c r="R20" t="n">
-        <v>69.36428896223863</v>
+        <v>46.76042142253899</v>
       </c>
       <c r="S20" t="n">
-        <v>122.4178210075979</v>
+        <v>40.37411626024317</v>
       </c>
       <c r="T20" t="n">
-        <v>59.76310976615803</v>
+        <v>36.88372593338237</v>
       </c>
       <c r="U20" t="n">
-        <v>43.19543944932789</v>
+        <v>19.63376444417952</v>
       </c>
       <c r="V20" t="n">
-        <v>174.7819444936817</v>
+        <v>67.67725525909105</v>
       </c>
       <c r="W20" t="n">
-        <v>52.68048365570243</v>
+        <v>88.95704451041537</v>
       </c>
       <c r="X20" t="n">
-        <v>218.8415129406727</v>
+        <v>56.09715585935557</v>
       </c>
       <c r="Y20" t="n">
-        <v>57.61390775261862</v>
+        <v>86.21674942956307</v>
       </c>
       <c r="Z20" t="n">
-        <v>57.87690379174295</v>
+        <v>47.57370432797335</v>
       </c>
       <c r="AA20" t="n">
-        <v>119.9737153442587</v>
+        <v>69.5183003513293</v>
       </c>
       <c r="AB20" t="n">
-        <v>105.1921210873227</v>
+        <v>60.43596785850891</v>
       </c>
       <c r="AC20" t="n">
-        <v>111.4400233509283</v>
+        <v>79.50211323343356</v>
       </c>
       <c r="AD20" t="n">
-        <v>90.00268624711669</v>
+        <v>74.31145166938165</v>
       </c>
       <c r="AE20" t="n">
-        <v>131.4767396603809</v>
+        <v>91.33224451096476</v>
       </c>
       <c r="AF20" t="n">
-        <v>112.7134868825446</v>
+        <v>41.12349955187458</v>
       </c>
       <c r="AG20" t="n">
-        <v>126.4721469572554</v>
+        <v>124.2242930602022</v>
       </c>
       <c r="AH20" t="n">
-        <v>102.5336069965073</v>
+        <v>175.8992479751053</v>
       </c>
       <c r="AI20" t="n">
-        <v>112.6497857825374</v>
+        <v>61.78972148364076</v>
       </c>
       <c r="AJ20" t="n">
-        <v>91.35773305799178</v>
+        <v>25.11395920337874</v>
       </c>
       <c r="AK20" t="n">
-        <v>135.0018026586264</v>
+        <v>52.09570284475841</v>
       </c>
       <c r="AL20" t="n">
-        <v>73.95465949339582</v>
+        <v>33.48940678365075</v>
       </c>
       <c r="AM20" t="n">
-        <v>36.98711572598535</v>
+        <v>83.7140924504437</v>
       </c>
       <c r="AN20" t="n">
-        <v>59.26723264727514</v>
+        <v>53.15375324714137</v>
       </c>
       <c r="AO20" t="n">
-        <v>20.96457950179374</v>
+        <v>38.23113539692312</v>
       </c>
       <c r="AP20" t="n">
-        <v>27.72990469804389</v>
+        <v>16.51659184909706</v>
       </c>
       <c r="AQ20" t="n">
-        <v>20.20445816834264</v>
+        <v>16.03599230405964</v>
       </c>
       <c r="AR20" t="n">
-        <v>25.29201908530942</v>
+        <v>33.9917850252903</v>
       </c>
       <c r="AS20" t="n">
-        <v>38.28456258633115</v>
+        <v>20.53978163419445</v>
       </c>
       <c r="AT20" t="n">
-        <v>18.66151893249643</v>
+        <v>35.70681687599365</v>
       </c>
       <c r="AU20" t="n">
-        <v>14.42149574441797</v>
+        <v>25.06875430601754</v>
       </c>
       <c r="AV20" t="n">
-        <v>14.25940344475502</v>
+        <v>18.10485021252008</v>
       </c>
       <c r="AW20" t="n">
-        <v>11.94363125178445</v>
+        <v>23.20915870341663</v>
       </c>
       <c r="AX20" t="n">
-        <v>29.06388408553883</v>
+        <v>19.26751032936486</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>5.779516167816639</v>
+        <v>1.234349587940861</v>
       </c>
       <c r="D21" t="n">
-        <v>3.469565217391305</v>
+        <v>2.907113427971769</v>
       </c>
       <c r="E21" t="n">
-        <v>2.114743641482642</v>
+        <v>3.217409127323332</v>
       </c>
       <c r="F21" t="n">
-        <v>2.938339920948617</v>
+        <v>1.955413467711989</v>
       </c>
       <c r="G21" t="n">
-        <v>4.685781169485147</v>
+        <v>1.151284147532149</v>
       </c>
       <c r="H21" t="n">
-        <v>3.644596430285131</v>
+        <v>10.16171304729083</v>
       </c>
       <c r="I21" t="n">
-        <v>2.921532279021375</v>
+        <v>3.787067234379418</v>
       </c>
       <c r="J21" t="n">
-        <v>3.246923873478317</v>
+        <v>224.5251465034994</v>
       </c>
       <c r="K21" t="n">
-        <v>7.160796051074986</v>
+        <v>4.26634650577738</v>
       </c>
       <c r="L21" t="n">
-        <v>2.621792535745676</v>
+        <v>0.8648257281170094</v>
       </c>
       <c r="M21" t="n">
-        <v>6.082187712228914</v>
+        <v>3.20849746902557</v>
       </c>
       <c r="N21" t="n">
-        <v>6.052239023787873</v>
+        <v>5.132315217710216</v>
       </c>
       <c r="O21" t="n">
-        <v>2.134896944997061</v>
+        <v>2.987256742613678</v>
       </c>
       <c r="P21" t="n">
-        <v>0.5370558547606484</v>
+        <v>1.310125898900742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.17391435054287</v>
+        <v>2.498194988315594</v>
       </c>
       <c r="R21" t="n">
-        <v>2.712867203759836</v>
+        <v>3.409554474737628</v>
       </c>
       <c r="S21" t="n">
-        <v>4.442418223378262</v>
+        <v>1.406770868908729</v>
       </c>
       <c r="T21" t="n">
-        <v>4.384921248913717</v>
+        <v>5.253695378469248</v>
       </c>
       <c r="U21" t="n">
-        <v>4.73855380758727</v>
+        <v>0.6635886196537519</v>
       </c>
       <c r="V21" t="n">
-        <v>2.793614720654531</v>
+        <v>5.097594540011529</v>
       </c>
       <c r="W21" t="n">
-        <v>10.0904378131322</v>
+        <v>6.752335420074354</v>
       </c>
       <c r="X21" t="n">
-        <v>2.596395636914016</v>
+        <v>7.140452783202782</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.470154347255064</v>
+        <v>5.102430109083324</v>
       </c>
       <c r="Z21" t="n">
-        <v>5.124473803865254</v>
+        <v>5.247260152094491</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.7883403476911962</v>
+        <v>1.492395568656421</v>
       </c>
       <c r="AB21" t="n">
-        <v>4.328492000000001</v>
+        <v>7.20064549036806</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.779188871424274</v>
+        <v>5.000179121953297</v>
       </c>
       <c r="AD21" t="n">
-        <v>8.979982285558146</v>
+        <v>6.696945388829262</v>
       </c>
       <c r="AE21" t="n">
-        <v>8.665332664130949</v>
+        <v>3.713207750942629</v>
       </c>
       <c r="AF21" t="n">
-        <v>4.910339811041585</v>
+        <v>4.664494179767198</v>
       </c>
       <c r="AG21" t="n">
-        <v>3.378507819028292</v>
+        <v>5.23986222793482</v>
       </c>
       <c r="AH21" t="n">
-        <v>2.702332577294974</v>
+        <v>6.848899875013466</v>
       </c>
       <c r="AI21" t="n">
-        <v>1.938776304594461</v>
+        <v>6.758956674671342</v>
       </c>
       <c r="AJ21" t="n">
-        <v>5.859903670234834</v>
+        <v>3.952626277224921</v>
       </c>
       <c r="AK21" t="n">
-        <v>4.357497532314923</v>
+        <v>4.793703204939974</v>
       </c>
       <c r="AL21" t="n">
-        <v>3.204779813628856</v>
+        <v>2.873784504021067</v>
       </c>
       <c r="AM21" t="n">
-        <v>3.578004883659083</v>
+        <v>8.836277132183302</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.625349028417419</v>
+        <v>2.638861068486632</v>
       </c>
       <c r="AO21" t="n">
-        <v>3.56815340374384</v>
+        <v>11.23736148286159</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.662218515429525</v>
+        <v>1.951982792093197</v>
       </c>
       <c r="AQ21" t="n">
-        <v>4.210374639769452</v>
+        <v>7.793818338519794</v>
       </c>
       <c r="AR21" t="n">
-        <v>3.686356365985266</v>
+        <v>5.724405289451444</v>
       </c>
       <c r="AS21" t="n">
-        <v>3.631830128084077</v>
+        <v>1.559188632176145</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.328376707592358</v>
+        <v>5.351826774521784</v>
       </c>
       <c r="AU21" t="n">
-        <v>2.483531568802585</v>
+        <v>10.91309168541421</v>
       </c>
       <c r="AV21" t="n">
-        <v>4.61194482010424</v>
+        <v>1.622512170927296</v>
       </c>
       <c r="AW21" t="n">
-        <v>5.013517295553109</v>
+        <v>1.484125149436234</v>
       </c>
       <c r="AX21" t="n">
-        <v>1.945</v>
+        <v>0.8602476187587038</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>9.421118012422358</v>
+        <v>22.37319461556005</v>
       </c>
       <c r="D22" t="n">
-        <v>7.761843158586693</v>
+        <v>9.578975305798883</v>
       </c>
       <c r="E22" t="n">
-        <v>16.01916329960171</v>
+        <v>10.40985910841897</v>
       </c>
       <c r="F22" t="n">
-        <v>75.15101542782826</v>
+        <v>9.067193205770272</v>
       </c>
       <c r="G22" t="n">
-        <v>31.27774641818608</v>
+        <v>2.724305506399537</v>
       </c>
       <c r="H22" t="n">
-        <v>8.204026340545626</v>
+        <v>118.6491636121372</v>
       </c>
       <c r="I22" t="n">
-        <v>25.53507366785212</v>
+        <v>112.8105096983663</v>
       </c>
       <c r="J22" t="n">
-        <v>193.9440870129426</v>
+        <v>91.14705359514393</v>
       </c>
       <c r="K22" t="n">
-        <v>43.79474953682665</v>
+        <v>24.09029755842341</v>
       </c>
       <c r="L22" t="n">
-        <v>131.4855714968508</v>
+        <v>28.78856172162954</v>
       </c>
       <c r="M22" t="n">
-        <v>56.12308368407591</v>
+        <v>78.66596472884042</v>
       </c>
       <c r="N22" t="n">
-        <v>87.80100948180312</v>
+        <v>31.30789774068004</v>
       </c>
       <c r="O22" t="n">
-        <v>62.13112729004501</v>
+        <v>37.43116569705083</v>
       </c>
       <c r="P22" t="n">
-        <v>51.87709779302303</v>
+        <v>59.39012247194265</v>
       </c>
       <c r="Q22" t="n">
-        <v>154.1450335640916</v>
+        <v>84.45044074562755</v>
       </c>
       <c r="R22" t="n">
-        <v>40.13626351477022</v>
+        <v>100.4245422453356</v>
       </c>
       <c r="S22" t="n">
-        <v>75.32641206888371</v>
+        <v>43.02208504694941</v>
       </c>
       <c r="T22" t="n">
-        <v>53.54597980235411</v>
+        <v>139.1838351191781</v>
       </c>
       <c r="U22" t="n">
-        <v>37.14579732523099</v>
+        <v>52.83892788573526</v>
       </c>
       <c r="V22" t="n">
-        <v>59.63299735271386</v>
+        <v>50.08610996910318</v>
       </c>
       <c r="W22" t="n">
-        <v>123.7171548028361</v>
+        <v>49.88637456767844</v>
       </c>
       <c r="X22" t="n">
-        <v>56.71708061663927</v>
+        <v>44.45005995946421</v>
       </c>
       <c r="Y22" t="n">
-        <v>36.18301012165443</v>
+        <v>32.29990692822293</v>
       </c>
       <c r="Z22" t="n">
-        <v>62.78389588289262</v>
+        <v>81.14789579253289</v>
       </c>
       <c r="AA22" t="n">
-        <v>46.11265450881614</v>
+        <v>48.48767520896858</v>
       </c>
       <c r="AB22" t="n">
-        <v>89.51502040168722</v>
+        <v>71.18800840502436</v>
       </c>
       <c r="AC22" t="n">
-        <v>70.73091811414393</v>
+        <v>79.22127652263049</v>
       </c>
       <c r="AD22" t="n">
-        <v>63.5770007318057</v>
+        <v>85.98687884051094</v>
       </c>
       <c r="AE22" t="n">
-        <v>49.1012383396223</v>
+        <v>90.20000631735631</v>
       </c>
       <c r="AF22" t="n">
-        <v>82.00190586688161</v>
+        <v>44.95193679591335</v>
       </c>
       <c r="AG22" t="n">
-        <v>46.45993171779874</v>
+        <v>59.19201941339602</v>
       </c>
       <c r="AH22" t="n">
-        <v>91.6443850071319</v>
+        <v>23.89115880246523</v>
       </c>
       <c r="AI22" t="n">
-        <v>62.67038851722201</v>
+        <v>85.65022352784328</v>
       </c>
       <c r="AJ22" t="n">
-        <v>37.13079277209147</v>
+        <v>46.97844427934024</v>
       </c>
       <c r="AK22" t="n">
-        <v>41.22969920829046</v>
+        <v>73.64693917521362</v>
       </c>
       <c r="AL22" t="n">
-        <v>56.87174488383341</v>
+        <v>46.54879110170243</v>
       </c>
       <c r="AM22" t="n">
-        <v>15.02731469898493</v>
+        <v>54.59312991170017</v>
       </c>
       <c r="AN22" t="n">
-        <v>34.04052180058828</v>
+        <v>14.69823460488549</v>
       </c>
       <c r="AO22" t="n">
-        <v>21.60015392263222</v>
+        <v>19.76251550591003</v>
       </c>
       <c r="AP22" t="n">
-        <v>40.11521362249204</v>
+        <v>16.65057737583558</v>
       </c>
       <c r="AQ22" t="n">
-        <v>12.24533658328815</v>
+        <v>9.053567048927741</v>
       </c>
       <c r="AR22" t="n">
-        <v>19.23178775510204</v>
+        <v>20.7572700093681</v>
       </c>
       <c r="AS22" t="n">
-        <v>8.304389798466204</v>
+        <v>11.79303308880447</v>
       </c>
       <c r="AT22" t="n">
-        <v>31.79898425358908</v>
+        <v>13.62928886510765</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.548916667275332</v>
+        <v>11.99684231284709</v>
       </c>
       <c r="AV22" t="n">
-        <v>11.00478508303758</v>
+        <v>5.323012450973158</v>
       </c>
       <c r="AW22" t="n">
-        <v>6.9755432846606</v>
+        <v>6.675599299823815</v>
       </c>
       <c r="AX22" t="n">
-        <v>4.865315</v>
+        <v>12.05282120105269</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>16.2478134120701</v>
+        <v>16.34194018876903</v>
       </c>
       <c r="D23" t="n">
-        <v>15.11560025245471</v>
+        <v>6.241212423075843</v>
       </c>
       <c r="E23" t="n">
-        <v>16.28993560365769</v>
+        <v>16.87072364824833</v>
       </c>
       <c r="F23" t="n">
-        <v>10.90972385411897</v>
+        <v>24.14228138804591</v>
       </c>
       <c r="G23" t="n">
-        <v>3.409168724541313</v>
+        <v>30.07332151206618</v>
       </c>
       <c r="H23" t="n">
-        <v>58.764314534029</v>
+        <v>2.390636349725865</v>
       </c>
       <c r="I23" t="n">
-        <v>7.968011044537336</v>
+        <v>3.775006561353411</v>
       </c>
       <c r="J23" t="n">
-        <v>19.81933564037317</v>
+        <v>147.9894930804131</v>
       </c>
       <c r="K23" t="n">
-        <v>9.925935982566665</v>
+        <v>18.1379894737085</v>
       </c>
       <c r="L23" t="n">
-        <v>28.82871201200302</v>
+        <v>226.8509886725269</v>
       </c>
       <c r="M23" t="n">
-        <v>38.7335857283722</v>
+        <v>29.22623555827928</v>
       </c>
       <c r="N23" t="n">
-        <v>24.08708906945395</v>
+        <v>26.81511500418085</v>
       </c>
       <c r="O23" t="n">
-        <v>34.12215154014072</v>
+        <v>26.06123167883807</v>
       </c>
       <c r="P23" t="n">
-        <v>67.52575628878014</v>
+        <v>44.65902258269469</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.05315317836596</v>
+        <v>235.7141954063924</v>
       </c>
       <c r="R23" t="n">
-        <v>44.27498691603369</v>
+        <v>69.15455996253071</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>56.13624709904332</v>
       </c>
       <c r="T23" t="n">
-        <v>44.58855315961505</v>
+        <v>81.06979392388627</v>
       </c>
       <c r="U23" t="n">
-        <v>95.37948757760988</v>
+        <v>63.50677721260137</v>
       </c>
       <c r="V23" t="n">
-        <v>88.68080380429899</v>
+        <v>45.13569361096801</v>
       </c>
       <c r="W23" t="n">
-        <v>86.67860698328772</v>
+        <v>57.87948364477898</v>
       </c>
       <c r="X23" t="n">
-        <v>26.74808777176428</v>
+        <v>24.11688720380133</v>
       </c>
       <c r="Y23" t="n">
-        <v>106.435256893338</v>
+        <v>19.52117661110006</v>
       </c>
       <c r="Z23" t="n">
-        <v>50.43219795780146</v>
+        <v>63.57458423273707</v>
       </c>
       <c r="AA23" t="n">
-        <v>23.90408047788362</v>
+        <v>42.64855070005103</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.67371007177119</v>
+        <v>33.42310687564773</v>
       </c>
       <c r="AC23" t="n">
-        <v>43.72472887234125</v>
+        <v>7.890573318337532</v>
       </c>
       <c r="AD23" t="n">
-        <v>26.36939393761234</v>
+        <v>13.59607386958982</v>
       </c>
       <c r="AE23" t="n">
-        <v>38.5871259794973</v>
+        <v>71.17453234821899</v>
       </c>
       <c r="AF23" t="n">
-        <v>28.84718691136748</v>
+        <v>12.50302420072646</v>
       </c>
       <c r="AG23" t="n">
-        <v>19.61716809062465</v>
+        <v>57.90826372165374</v>
       </c>
       <c r="AH23" t="n">
-        <v>33.07133205857943</v>
+        <v>13.96759706454837</v>
       </c>
       <c r="AI23" t="n">
-        <v>15.50402215010264</v>
+        <v>19.18290482661792</v>
       </c>
       <c r="AJ23" t="n">
-        <v>66.88013021711765</v>
+        <v>58.28504199978244</v>
       </c>
       <c r="AK23" t="n">
-        <v>20.13245536869243</v>
+        <v>110.5064520786688</v>
       </c>
       <c r="AL23" t="n">
-        <v>104.6058392979253</v>
+        <v>84.30597444181242</v>
       </c>
       <c r="AM23" t="n">
-        <v>31.67836314964253</v>
+        <v>10.8030526738277</v>
       </c>
       <c r="AN23" t="n">
-        <v>29.81328908184361</v>
+        <v>8.178631968490276</v>
       </c>
       <c r="AO23" t="n">
-        <v>23.54898268703898</v>
+        <v>11.93115463198524</v>
       </c>
       <c r="AP23" t="n">
-        <v>24.17576667672956</v>
+        <v>11.34011339786664</v>
       </c>
       <c r="AQ23" t="n">
-        <v>22.73723427305277</v>
+        <v>23.62336656331969</v>
       </c>
       <c r="AR23" t="n">
-        <v>25.57839118235256</v>
+        <v>18.39112531335969</v>
       </c>
       <c r="AS23" t="n">
-        <v>12.15340955730885</v>
+        <v>9.059414020329687</v>
       </c>
       <c r="AT23" t="n">
-        <v>34.5604080876136</v>
+        <v>23.42807726114806</v>
       </c>
       <c r="AU23" t="n">
-        <v>36.05979778188836</v>
+        <v>6.051225063060522</v>
       </c>
       <c r="AV23" t="n">
-        <v>14.87682882988187</v>
+        <v>5.735505630696581</v>
       </c>
       <c r="AW23" t="n">
-        <v>19.46301455071645</v>
+        <v>12.39659102921583</v>
       </c>
       <c r="AX23" t="n">
-        <v>17.85843835603303</v>
+        <v>15.75596417365487</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>8.445511064944062</v>
+        <v>5.391210383475177</v>
       </c>
       <c r="D24" t="n">
-        <v>1.490166857017587</v>
+        <v>4.553036485152118</v>
       </c>
       <c r="E24" t="n">
-        <v>2.705223048928235</v>
+        <v>4.092541266685873</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9621129498292617</v>
+        <v>1.469842487753752</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6793399302846868</v>
+        <v>11.12431282208916</v>
       </c>
       <c r="H24" t="n">
-        <v>19.2715551194675</v>
+        <v>7.927089898638205</v>
       </c>
       <c r="I24" t="n">
-        <v>62.98359948706634</v>
+        <v>5.481469926821579</v>
       </c>
       <c r="J24" t="n">
-        <v>7.445736777091271</v>
+        <v>23.99901447476251</v>
       </c>
       <c r="K24" t="n">
-        <v>26.08377127640191</v>
+        <v>4.15040298576867</v>
       </c>
       <c r="L24" t="n">
-        <v>37.48654464422012</v>
+        <v>35.25419526588797</v>
       </c>
       <c r="M24" t="n">
-        <v>54.71712292213009</v>
+        <v>13.98225252695327</v>
       </c>
       <c r="N24" t="n">
-        <v>17.8306532758188</v>
+        <v>17.18635777417225</v>
       </c>
       <c r="O24" t="n">
-        <v>78.52708665561889</v>
+        <v>86.18135870468872</v>
       </c>
       <c r="P24" t="n">
-        <v>16.98466593783567</v>
+        <v>37.27117755523042</v>
       </c>
       <c r="Q24" t="n">
-        <v>23.03843463009224</v>
+        <v>65.87070031291879</v>
       </c>
       <c r="R24" t="n">
-        <v>15.16853220936307</v>
+        <v>20.86366713716503</v>
       </c>
       <c r="S24" t="n">
-        <v>33.46105360244345</v>
+        <v>20.59504598343172</v>
       </c>
       <c r="T24" t="n">
-        <v>7.651074470183286</v>
+        <v>32.04475360934039</v>
       </c>
       <c r="U24" t="n">
-        <v>18.04598846176506</v>
+        <v>24.20363646823961</v>
       </c>
       <c r="V24" t="n">
-        <v>16.363149664295</v>
+        <v>134.9030467132372</v>
       </c>
       <c r="W24" t="n">
-        <v>46.49677125886982</v>
+        <v>13.73561787698946</v>
       </c>
       <c r="X24" t="n">
-        <v>22.1456334003654</v>
+        <v>40.35720700373086</v>
       </c>
       <c r="Y24" t="n">
-        <v>30.08005030054312</v>
+        <v>18.81408760650406</v>
       </c>
       <c r="Z24" t="n">
-        <v>16.86281327191321</v>
+        <v>10.30828460907061</v>
       </c>
       <c r="AA24" t="n">
-        <v>15.01125739131494</v>
+        <v>15.84356574329539</v>
       </c>
       <c r="AB24" t="n">
-        <v>14.94152168841408</v>
+        <v>18.59571464802122</v>
       </c>
       <c r="AC24" t="n">
-        <v>20.738725</v>
+        <v>26.66906193637748</v>
       </c>
       <c r="AD24" t="n">
-        <v>11.35072803248276</v>
+        <v>12.92179277196762</v>
       </c>
       <c r="AE24" t="n">
-        <v>13.44879926316127</v>
+        <v>17.32300683828406</v>
       </c>
       <c r="AF24" t="n">
-        <v>16.75827174559986</v>
+        <v>9.233002710727067</v>
       </c>
       <c r="AG24" t="n">
-        <v>31.02353069824231</v>
+        <v>11.93812391947522</v>
       </c>
       <c r="AH24" t="n">
-        <v>10.38672998244127</v>
+        <v>18.54756403785054</v>
       </c>
       <c r="AI24" t="n">
-        <v>3.773976685714286</v>
+        <v>5.174126208802228</v>
       </c>
       <c r="AJ24" t="n">
-        <v>14.07384259976392</v>
+        <v>36.93922888401234</v>
       </c>
       <c r="AK24" t="n">
-        <v>3.697593209937929</v>
+        <v>7.766634839461492</v>
       </c>
       <c r="AL24" t="n">
-        <v>9.624178428137537</v>
+        <v>3.283493991765691</v>
       </c>
       <c r="AM24" t="n">
-        <v>2.693673539812286</v>
+        <v>8.247255612032451</v>
       </c>
       <c r="AN24" t="n">
-        <v>6.154240158718355</v>
+        <v>4.479834018894159</v>
       </c>
       <c r="AO24" t="n">
-        <v>4.726845407542704</v>
+        <v>4.3625876369248</v>
       </c>
       <c r="AP24" t="n">
-        <v>3.872502564140667</v>
+        <v>1.727789139373032</v>
       </c>
       <c r="AQ24" t="n">
-        <v>8.79591394690282</v>
+        <v>4.189915085427269</v>
       </c>
       <c r="AR24" t="n">
-        <v>2.752857142857143</v>
+        <v>1.660022802436601</v>
       </c>
       <c r="AS24" t="n">
-        <v>5.411394168509511</v>
+        <v>4.035435949401637</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.908308265292157</v>
+        <v>0.8411741670677408</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.097482779036968</v>
+        <v>2.68390092636084</v>
       </c>
       <c r="AV24" t="n">
-        <v>1.009112279935739</v>
+        <v>1.21848190893972</v>
       </c>
       <c r="AW24" t="n">
-        <v>2.555919870314146</v>
+        <v>3.820727476475643</v>
       </c>
       <c r="AX24" t="n">
-        <v>3.202052411782986</v>
+        <v>0.9181704844214531</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>11.97034285272037</v>
+        <v>6.673129288149316</v>
       </c>
       <c r="D25" t="n">
-        <v>2.53</v>
+        <v>4.836765963117135</v>
       </c>
       <c r="E25" t="n">
-        <v>9.024895718969459</v>
+        <v>14.46165220286155</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>13.11447288146903</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>30.92117858836983</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>12.0476596882604</v>
       </c>
       <c r="I25" t="n">
-        <v>19.62</v>
+        <v>23.71821663126808</v>
       </c>
       <c r="J25" t="n">
-        <v>1.77</v>
+        <v>4.278408288357501</v>
       </c>
       <c r="K25" t="n">
-        <v>3.995184971428572</v>
+        <v>14.50944540297876</v>
       </c>
       <c r="L25" t="n">
-        <v>9.029588299999995</v>
+        <v>21.11568423868589</v>
       </c>
       <c r="M25" t="n">
-        <v>36.1</v>
+        <v>12.81115119738178</v>
       </c>
       <c r="N25" t="n">
-        <v>31.33</v>
+        <v>11.79798625103069</v>
       </c>
       <c r="O25" t="n">
-        <v>10.61</v>
+        <v>135.791219350995</v>
       </c>
       <c r="P25" t="n">
-        <v>3.3875</v>
+        <v>109.7910111019885</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.08</v>
+        <v>14.20424633091477</v>
       </c>
       <c r="R25" t="n">
-        <v>32.23</v>
+        <v>47.6701392216922</v>
       </c>
       <c r="S25" t="n">
-        <v>10.83</v>
+        <v>51.21392051886465</v>
       </c>
       <c r="T25" t="n">
-        <v>22.81</v>
+        <v>41.44230349563252</v>
       </c>
       <c r="U25" t="n">
-        <v>1.74</v>
+        <v>19.71011555902297</v>
       </c>
       <c r="V25" t="n">
-        <v>40.1</v>
+        <v>5.620883764159697</v>
       </c>
       <c r="W25" t="n">
-        <v>21.4</v>
+        <v>70.19765184685009</v>
       </c>
       <c r="X25" t="n">
-        <v>9.869999999999999</v>
+        <v>27.26002586327542</v>
       </c>
       <c r="Y25" t="n">
-        <v>71.51000000000001</v>
+        <v>5.767160906009087</v>
       </c>
       <c r="Z25" t="n">
-        <v>35.23</v>
+        <v>13.52316968984806</v>
       </c>
       <c r="AA25" t="n">
-        <v>7.04</v>
+        <v>26.01613497900283</v>
       </c>
       <c r="AB25" t="n">
-        <v>11</v>
+        <v>12.55860531157048</v>
       </c>
       <c r="AC25" t="n">
-        <v>4.03</v>
+        <v>1.915987920003978</v>
       </c>
       <c r="AD25" t="n">
-        <v>5.363386976754673</v>
+        <v>10.2152110709411</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.87</v>
+        <v>7.320756008133331</v>
       </c>
       <c r="AF25" t="n">
-        <v>2.14</v>
+        <v>11.04658358326515</v>
       </c>
       <c r="AG25" t="n">
-        <v>8.17</v>
+        <v>8.757631966911624</v>
       </c>
       <c r="AH25" t="n">
-        <v>2.14</v>
+        <v>6.486461379592364</v>
       </c>
       <c r="AI25" t="n">
-        <v>10.08</v>
+        <v>1.845553486781405</v>
       </c>
       <c r="AJ25" t="n">
-        <v>10.97</v>
+        <v>8.510101010494797</v>
       </c>
       <c r="AK25" t="n">
-        <v>3.19</v>
+        <v>0.9519917193824415</v>
       </c>
       <c r="AL25" t="n">
-        <v>19.68</v>
+        <v>11.18250704582683</v>
       </c>
       <c r="AM25" t="n">
-        <v>12.13</v>
+        <v>0.6512699413357084</v>
       </c>
       <c r="AN25" t="n">
-        <v>19.21</v>
+        <v>1.205624951136796</v>
       </c>
       <c r="AO25" t="n">
-        <v>4.85</v>
+        <v>1.251999709868303</v>
       </c>
       <c r="AP25" t="n">
-        <v>8.74</v>
+        <v>3.647289431171666</v>
       </c>
       <c r="AQ25" t="n">
-        <v>9.52</v>
+        <v>6.87456379342304</v>
       </c>
       <c r="AR25" t="n">
-        <v>1</v>
+        <v>6.856194947399309</v>
       </c>
       <c r="AS25" t="n">
-        <v>3.32</v>
+        <v>2.581148194014273</v>
       </c>
       <c r="AT25" t="n">
-        <v>8.17</v>
+        <v>8.264766677724214</v>
       </c>
       <c r="AU25" t="n">
-        <v>11.25</v>
+        <v>25.12212837280133</v>
       </c>
       <c r="AV25" t="n">
-        <v>14.6</v>
+        <v>1.714927991585319</v>
       </c>
       <c r="AW25" t="n">
-        <v>1.93</v>
+        <v>14.82037012922986</v>
       </c>
       <c r="AX25" t="n">
-        <v>2.03</v>
+        <v>0.5936170950025655</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>9.990813524671047</v>
+        <v>27.47259901893774</v>
       </c>
       <c r="D26" t="n">
-        <v>18.07560350599142</v>
+        <v>33.75599443774323</v>
       </c>
       <c r="E26" t="n">
-        <v>25.77085486972216</v>
+        <v>25.86127073501982</v>
       </c>
       <c r="F26" t="n">
-        <v>47.67418576444093</v>
+        <v>30.79206463362956</v>
       </c>
       <c r="G26" t="n">
-        <v>11.45273319805728</v>
+        <v>9.751113252070041</v>
       </c>
       <c r="H26" t="n">
-        <v>21.88700413789768</v>
+        <v>34.49526486958376</v>
       </c>
       <c r="I26" t="n">
-        <v>57.01099784114357</v>
+        <v>29.9169807523809</v>
       </c>
       <c r="J26" t="n">
-        <v>180.1664552863512</v>
+        <v>22.68669886577229</v>
       </c>
       <c r="K26" t="n">
-        <v>38.23208013480325</v>
+        <v>51.24662886186499</v>
       </c>
       <c r="L26" t="n">
-        <v>122.4072222355963</v>
+        <v>42.12074489501373</v>
       </c>
       <c r="M26" t="n">
-        <v>9.842888669096029</v>
+        <v>37.84923129454899</v>
       </c>
       <c r="N26" t="n">
-        <v>94.82082346605442</v>
+        <v>45.51492633049443</v>
       </c>
       <c r="O26" t="n">
-        <v>40.77423371415006</v>
+        <v>45.91135697767503</v>
       </c>
       <c r="P26" t="n">
-        <v>59.13677109386109</v>
+        <v>76.88455682975001</v>
       </c>
       <c r="Q26" t="n">
-        <v>63.25645643546407</v>
+        <v>47.40206312671648</v>
       </c>
       <c r="R26" t="n">
-        <v>201.8941138035749</v>
+        <v>43.01879169853426</v>
       </c>
       <c r="S26" t="n">
-        <v>62.26107379380814</v>
+        <v>52.41213919064668</v>
       </c>
       <c r="T26" t="n">
-        <v>86.00994935314486</v>
+        <v>41.22250006465796</v>
       </c>
       <c r="U26" t="n">
-        <v>37.4022069522805</v>
+        <v>38.35554209216802</v>
       </c>
       <c r="V26" t="n">
-        <v>78.57044825922043</v>
+        <v>65.42331275013063</v>
       </c>
       <c r="W26" t="n">
-        <v>120.5073397342849</v>
+        <v>86.44573351790962</v>
       </c>
       <c r="X26" t="n">
-        <v>42.80821155330595</v>
+        <v>37.52702706707057</v>
       </c>
       <c r="Y26" t="n">
-        <v>55.79984088450894</v>
+        <v>116.8382712775362</v>
       </c>
       <c r="Z26" t="n">
-        <v>97.50048750000001</v>
+        <v>63.32488754648633</v>
       </c>
       <c r="AA26" t="n">
-        <v>61.88295938273338</v>
+        <v>117.9637350871337</v>
       </c>
       <c r="AB26" t="n">
-        <v>117.4568662059627</v>
+        <v>79.08732644850113</v>
       </c>
       <c r="AC26" t="n">
-        <v>103.448775383208</v>
+        <v>98.65919673104629</v>
       </c>
       <c r="AD26" t="n">
-        <v>130.4635562142871</v>
+        <v>136.062585193472</v>
       </c>
       <c r="AE26" t="n">
-        <v>77.24306755095496</v>
+        <v>55.53692439789422</v>
       </c>
       <c r="AF26" t="n">
-        <v>81.19226764210264</v>
+        <v>57.18549221063187</v>
       </c>
       <c r="AG26" t="n">
-        <v>24.76876013603348</v>
+        <v>211.8274242815599</v>
       </c>
       <c r="AH26" t="n">
-        <v>25.25518294401728</v>
+        <v>120.195336629826</v>
       </c>
       <c r="AI26" t="n">
-        <v>55.95105935996686</v>
+        <v>97.95198269383562</v>
       </c>
       <c r="AJ26" t="n">
-        <v>73.85260218792638</v>
+        <v>63.35316647624752</v>
       </c>
       <c r="AK26" t="n">
-        <v>39.49326633116641</v>
+        <v>88.22144864228375</v>
       </c>
       <c r="AL26" t="n">
-        <v>27.54275869157147</v>
+        <v>51.35987866411581</v>
       </c>
       <c r="AM26" t="n">
-        <v>91.4679277397359</v>
+        <v>26.61208664060027</v>
       </c>
       <c r="AN26" t="n">
-        <v>64.76024797260938</v>
+        <v>39.96401750556578</v>
       </c>
       <c r="AO26" t="n">
-        <v>31.76926103062406</v>
+        <v>49.98775108304922</v>
       </c>
       <c r="AP26" t="n">
-        <v>27.72990469804389</v>
+        <v>21.61073152231929</v>
       </c>
       <c r="AQ26" t="n">
-        <v>25.32039219849063</v>
+        <v>19.36883124460248</v>
       </c>
       <c r="AR26" t="n">
-        <v>30.79898467671874</v>
+        <v>23.72129561072204</v>
       </c>
       <c r="AS26" t="n">
-        <v>20.90350967130698</v>
+        <v>16.77823944958831</v>
       </c>
       <c r="AT26" t="n">
-        <v>77.63060479880605</v>
+        <v>22.19380903738777</v>
       </c>
       <c r="AU26" t="n">
-        <v>22.461073306442</v>
+        <v>30.35505984680079</v>
       </c>
       <c r="AV26" t="n">
-        <v>19.92656128168563</v>
+        <v>33.95517057937383</v>
       </c>
       <c r="AW26" t="n">
-        <v>26.23874267303688</v>
+        <v>22.34007386792513</v>
       </c>
       <c r="AX26" t="n">
-        <v>10.15784106789864</v>
+        <v>30.96549669541627</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>4.33015873015873</v>
+        <v>1.220041309029351</v>
       </c>
       <c r="D27" t="n">
-        <v>2.861109960968208</v>
+        <v>4.432808412494854</v>
       </c>
       <c r="E27" t="n">
-        <v>2.937394247038917</v>
+        <v>0.8831612615315223</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0585630589405667</v>
+        <v>6.092974190743357</v>
       </c>
       <c r="G27" t="n">
-        <v>2.610729809404809</v>
+        <v>23.30809628085635</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05501309635181562</v>
+        <v>1.083962976838749</v>
       </c>
       <c r="I27" t="n">
-        <v>4.35688142863432</v>
+        <v>4.235519873700937</v>
       </c>
       <c r="J27" t="n">
-        <v>0.245249670888381</v>
+        <v>4.669260643322244</v>
       </c>
       <c r="K27" t="n">
-        <v>1.958571023153528</v>
+        <v>2.623797304843537</v>
       </c>
       <c r="L27" t="n">
-        <v>1.103443763571279</v>
+        <v>5.648168652941302</v>
       </c>
       <c r="M27" t="n">
-        <v>9.192898356593572</v>
+        <v>2.220742039392481</v>
       </c>
       <c r="N27" t="n">
-        <v>1.930701697340183</v>
+        <v>1.765256930890003</v>
       </c>
       <c r="O27" t="n">
-        <v>1.862939228420283</v>
+        <v>3.979536550058902</v>
       </c>
       <c r="P27" t="n">
-        <v>2.028913082277351</v>
+        <v>8.600503582755371</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.644531418003527</v>
+        <v>9.043613431357832</v>
       </c>
       <c r="R27" t="n">
-        <v>2.576435310201441</v>
+        <v>12.40990775072932</v>
       </c>
       <c r="S27" t="n">
-        <v>3.672676842551733</v>
+        <v>6.026256496455263</v>
       </c>
       <c r="T27" t="n">
-        <v>7.521859308067205</v>
+        <v>12.3402607358916</v>
       </c>
       <c r="U27" t="n">
-        <v>2.798403277926796</v>
+        <v>8.037687708956732</v>
       </c>
       <c r="V27" t="n">
-        <v>4.408434936605686</v>
+        <v>1.273032532728974</v>
       </c>
       <c r="W27" t="n">
-        <v>4.101519821428258</v>
+        <v>1.407278392666264</v>
       </c>
       <c r="X27" t="n">
-        <v>0.3540781665221349</v>
+        <v>5.862432356979244</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.1467147837288</v>
+        <v>11.37415866502335</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.176997839157464</v>
+        <v>2.975135402962529</v>
       </c>
       <c r="AA27" t="n">
-        <v>4.045151455370433</v>
+        <v>4.377082474192738</v>
       </c>
       <c r="AB27" t="n">
-        <v>4.92736586126362</v>
+        <v>4.34197411817935</v>
       </c>
       <c r="AC27" t="n">
-        <v>3.343040276559133</v>
+        <v>4.299283346775366</v>
       </c>
       <c r="AD27" t="n">
-        <v>3.665723695260071</v>
+        <v>4.140578370717384</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.331914114957414</v>
+        <v>5.946125967893418</v>
       </c>
       <c r="AF27" t="n">
-        <v>10.71331126862612</v>
+        <v>5.791219505188926</v>
       </c>
       <c r="AG27" t="n">
-        <v>6.704342809288213</v>
+        <v>12.50117372467775</v>
       </c>
       <c r="AH27" t="n">
-        <v>6.876597659383901</v>
+        <v>5.925214164064462</v>
       </c>
       <c r="AI27" t="n">
-        <v>10.10482838435281</v>
+        <v>3.240156127777333</v>
       </c>
       <c r="AJ27" t="n">
-        <v>4.090210993389478</v>
+        <v>4.303577198024048</v>
       </c>
       <c r="AK27" t="n">
-        <v>6.750364074231477</v>
+        <v>2.336903608090653</v>
       </c>
       <c r="AL27" t="n">
-        <v>2.805688866214143</v>
+        <v>6.994344968495814</v>
       </c>
       <c r="AM27" t="n">
-        <v>4.990648873109963</v>
+        <v>12.26336115112873</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.477578842767734</v>
+        <v>3.539449596341795</v>
       </c>
       <c r="AO27" t="n">
-        <v>2.069074562083398</v>
+        <v>1.208084559310342</v>
       </c>
       <c r="AP27" t="n">
-        <v>5.493788462278398</v>
+        <v>3.253760701978683</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.963350278382958</v>
+        <v>2.516588713937569</v>
       </c>
       <c r="AR27" t="n">
-        <v>3.892318132013503</v>
+        <v>7.851558491944023</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.9035955525485322</v>
+        <v>2.335092521775611</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.311272141706924</v>
+        <v>2.004740543313712</v>
       </c>
       <c r="AU27" t="n">
-        <v>3.381278502809681</v>
+        <v>3.15635111571012</v>
       </c>
       <c r="AV27" t="n">
-        <v>2.932943337187946</v>
+        <v>3.394914046112447</v>
       </c>
       <c r="AW27" t="n">
-        <v>2.810697841071225</v>
+        <v>1.171408071907448</v>
       </c>
       <c r="AX27" t="n">
-        <v>2.997378911938125</v>
+        <v>1.875032021136995</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>8.964193214746668</v>
+        <v>11.68407391108991</v>
       </c>
       <c r="D28" t="n">
-        <v>13.44540760460865</v>
+        <v>6.396290269165426</v>
       </c>
       <c r="E28" t="n">
-        <v>7.66533780348984</v>
+        <v>24.63268079196504</v>
       </c>
       <c r="F28" t="n">
-        <v>15.68798932351503</v>
+        <v>7.440039533913071</v>
       </c>
       <c r="G28" t="n">
-        <v>18.75649447072151</v>
+        <v>47.96072887048604</v>
       </c>
       <c r="H28" t="n">
-        <v>12.78366172471269</v>
+        <v>16.23346814803036</v>
       </c>
       <c r="I28" t="n">
-        <v>9.903677908573822</v>
+        <v>8.024803266450224</v>
       </c>
       <c r="J28" t="n">
-        <v>16.98548683323098</v>
+        <v>165.6866810651422</v>
       </c>
       <c r="K28" t="n">
-        <v>28.67111234396672</v>
+        <v>25.47726666076426</v>
       </c>
       <c r="L28" t="n">
-        <v>11.53609802054938</v>
+        <v>32.79534051572546</v>
       </c>
       <c r="M28" t="n">
-        <v>326.4010496023168</v>
+        <v>61.50015572753159</v>
       </c>
       <c r="N28" t="n">
-        <v>52.29272138296545</v>
+        <v>50.41145058895805</v>
       </c>
       <c r="O28" t="n">
-        <v>74.10788133828865</v>
+        <v>65.00844175374903</v>
       </c>
       <c r="P28" t="n">
-        <v>30.55504128387329</v>
+        <v>105.0749989935994</v>
       </c>
       <c r="Q28" t="n">
-        <v>26.10985584478318</v>
+        <v>27.2364927356067</v>
       </c>
       <c r="R28" t="n">
-        <v>63.7289268476794</v>
+        <v>82.51989077328587</v>
       </c>
       <c r="S28" t="n">
-        <v>70.35284103630657</v>
+        <v>46.04756253587797</v>
       </c>
       <c r="T28" t="n">
-        <v>28.37892540218423</v>
+        <v>49.7086575816397</v>
       </c>
       <c r="U28" t="n">
-        <v>98.27535605152251</v>
+        <v>201.5100545653898</v>
       </c>
       <c r="V28" t="n">
-        <v>38.07333644259009</v>
+        <v>205.0639774255235</v>
       </c>
       <c r="W28" t="n">
-        <v>60.52839108405562</v>
+        <v>58.8452734478943</v>
       </c>
       <c r="X28" t="n">
-        <v>73.77269505222095</v>
+        <v>85.04589145004445</v>
       </c>
       <c r="Y28" t="n">
-        <v>22.57041694767965</v>
+        <v>60.52548837561516</v>
       </c>
       <c r="Z28" t="n">
-        <v>100.9700074977225</v>
+        <v>180.4208693149526</v>
       </c>
       <c r="AA28" t="n">
-        <v>63.78001494811745</v>
+        <v>82.36264847811618</v>
       </c>
       <c r="AB28" t="n">
-        <v>60.53698560070078</v>
+        <v>66.30138013861229</v>
       </c>
       <c r="AC28" t="n">
-        <v>81.24976866699515</v>
+        <v>38.84523629806982</v>
       </c>
       <c r="AD28" t="n">
-        <v>98.51333929861993</v>
+        <v>61.2735590084714</v>
       </c>
       <c r="AE28" t="n">
-        <v>70.55869796063239</v>
+        <v>152.5959072823042</v>
       </c>
       <c r="AF28" t="n">
-        <v>43.57667532467533</v>
+        <v>60.63794468815846</v>
       </c>
       <c r="AG28" t="n">
-        <v>75.2526491052289</v>
+        <v>47.81980087457375</v>
       </c>
       <c r="AH28" t="n">
-        <v>161.1822471526201</v>
+        <v>96.21812954434454</v>
       </c>
       <c r="AI28" t="n">
-        <v>50.1617353194384</v>
+        <v>24.20474345529557</v>
       </c>
       <c r="AJ28" t="n">
-        <v>30.44227996880233</v>
+        <v>43.55100372634849</v>
       </c>
       <c r="AK28" t="n">
-        <v>80.79447421437089</v>
+        <v>32.95390327784099</v>
       </c>
       <c r="AL28" t="n">
-        <v>35.91755963815445</v>
+        <v>26.85113881375183</v>
       </c>
       <c r="AM28" t="n">
-        <v>14.95298296738158</v>
+        <v>19.12254627117955</v>
       </c>
       <c r="AN28" t="n">
-        <v>28.04017857848367</v>
+        <v>20.70779741069522</v>
       </c>
       <c r="AO28" t="n">
-        <v>10.78874593086343</v>
+        <v>14.45960068367672</v>
       </c>
       <c r="AP28" t="n">
-        <v>22.80626543699674</v>
+        <v>15.20641567411119</v>
       </c>
       <c r="AQ28" t="n">
-        <v>20.84667294116532</v>
+        <v>18.48547451808877</v>
       </c>
       <c r="AR28" t="n">
-        <v>16.39506172839506</v>
+        <v>12.62567659245062</v>
       </c>
       <c r="AS28" t="n">
-        <v>9.017831171720019</v>
+        <v>21.32247446061247</v>
       </c>
       <c r="AT28" t="n">
-        <v>11.81333809248868</v>
+        <v>10.76135685792932</v>
       </c>
       <c r="AU28" t="n">
-        <v>18.5149120453099</v>
+        <v>10.43945718177222</v>
       </c>
       <c r="AV28" t="n">
-        <v>5.734482949503922</v>
+        <v>10.0400734037678</v>
       </c>
       <c r="AW28" t="n">
-        <v>13.25412960609911</v>
+        <v>7.497164559354133</v>
       </c>
       <c r="AX28" t="n">
-        <v>11.98437010913949</v>
+        <v>4.61671821958724</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>14.47410938151051</v>
+        <v>26.65903404920317</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>14.19240751061696</v>
       </c>
       <c r="E29" t="n">
-        <v>21.73378234261774</v>
+        <v>76.35628255422893</v>
       </c>
       <c r="F29" t="n">
-        <v>22.47381288299894</v>
+        <v>53.29506051787585</v>
       </c>
       <c r="G29" t="n">
-        <v>38.11846700065387</v>
+        <v>16.48237166305879</v>
       </c>
       <c r="H29" t="n">
-        <v>5.856260640729696</v>
+        <v>10.85883937679466</v>
       </c>
       <c r="I29" t="n">
-        <v>112.6398872691026</v>
+        <v>67.69978492618863</v>
       </c>
       <c r="J29" t="n">
-        <v>17.73938384782133</v>
+        <v>45.26019280900996</v>
       </c>
       <c r="K29" t="n">
-        <v>251.4772296046651</v>
+        <v>7.149574899405626</v>
       </c>
       <c r="L29" t="n">
-        <v>12.20282060087365</v>
+        <v>21.07134541178851</v>
       </c>
       <c r="M29" t="n">
-        <v>51.03573271881436</v>
+        <v>42.45825285714268</v>
       </c>
       <c r="N29" t="n">
-        <v>62.7814356369722</v>
+        <v>13.2953221258005</v>
       </c>
       <c r="O29" t="n">
-        <v>66.42087513194275</v>
+        <v>196.5942031690502</v>
       </c>
       <c r="P29" t="n">
-        <v>107.7512148793502</v>
+        <v>72.51167029372847</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>28.05818379773523</v>
       </c>
       <c r="R29" t="n">
-        <v>79.36122441888951</v>
+        <v>90.00618741926652</v>
       </c>
       <c r="S29" t="n">
-        <v>56.0513552391992</v>
+        <v>62.34674751064367</v>
       </c>
       <c r="T29" t="n">
-        <v>96.2550399628616</v>
+        <v>39.29940422838735</v>
       </c>
       <c r="U29" t="n">
-        <v>31.20942037788738</v>
+        <v>32.73254566531909</v>
       </c>
       <c r="V29" t="n">
-        <v>32.47407219202013</v>
+        <v>9.258427050154031</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>19.75735855959722</v>
       </c>
       <c r="X29" t="n">
-        <v>17.69223538257855</v>
+        <v>57.60974611922884</v>
       </c>
       <c r="Y29" t="n">
-        <v>35.6932174003815</v>
+        <v>17.66702472619345</v>
       </c>
       <c r="Z29" t="n">
-        <v>33.21235520747814</v>
+        <v>28.51760663754213</v>
       </c>
       <c r="AA29" t="n">
-        <v>31.92616455412658</v>
+        <v>15.58612138608495</v>
       </c>
       <c r="AB29" t="n">
-        <v>13.92513949169277</v>
+        <v>16.40686779195466</v>
       </c>
       <c r="AC29" t="n">
-        <v>45.08435940197374</v>
+        <v>42.81282352560592</v>
       </c>
       <c r="AD29" t="n">
-        <v>21.43311473192299</v>
+        <v>28.90414733326165</v>
       </c>
       <c r="AE29" t="n">
-        <v>7.282522956203511</v>
+        <v>18.9649754121692</v>
       </c>
       <c r="AF29" t="n">
-        <v>28.2531997874597</v>
+        <v>36.02892753309425</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>13.48004004736961</v>
       </c>
       <c r="AH29" t="n">
-        <v>22.73400288792793</v>
+        <v>30.9186002485158</v>
       </c>
       <c r="AI29" t="n">
-        <v>22.42117673829648</v>
+        <v>6.875230646839363</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13.8428397521112</v>
+        <v>80.85670245801744</v>
       </c>
       <c r="AK29" t="n">
-        <v>23.30133720322988</v>
+        <v>22.34264124620058</v>
       </c>
       <c r="AL29" t="n">
-        <v>15.04923859105311</v>
+        <v>12.89098860749116</v>
       </c>
       <c r="AM29" t="n">
-        <v>24.57271769125635</v>
+        <v>22.15146749316793</v>
       </c>
       <c r="AN29" t="n">
-        <v>36.03325960302521</v>
+        <v>8.166318942928241</v>
       </c>
       <c r="AO29" t="n">
-        <v>27.76345762591611</v>
+        <v>28.63770346101054</v>
       </c>
       <c r="AP29" t="n">
-        <v>21.22169622807525</v>
+        <v>32.7490288927038</v>
       </c>
       <c r="AQ29" t="n">
-        <v>19.01626927034175</v>
+        <v>19.42789281699523</v>
       </c>
       <c r="AR29" t="n">
-        <v>27.2476699425168</v>
+        <v>25.88226524281538</v>
       </c>
       <c r="AS29" t="n">
-        <v>26.06984111333598</v>
+        <v>17.28183781694251</v>
       </c>
       <c r="AT29" t="n">
-        <v>44.40793172114569</v>
+        <v>62.0064567574891</v>
       </c>
       <c r="AU29" t="n">
-        <v>1.599161342329981</v>
+        <v>26.84781783077567</v>
       </c>
       <c r="AV29" t="n">
-        <v>32.18980204308581</v>
+        <v>11.87993404883931</v>
       </c>
       <c r="AW29" t="n">
-        <v>22.45953116017409</v>
+        <v>13.249967992902</v>
       </c>
       <c r="AX29" t="n">
-        <v>26.29870191924638</v>
+        <v>29.17493802133866</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>8.445511064944062</v>
+        <v>1.00938643830366</v>
       </c>
       <c r="D30" t="n">
-        <v>2.59071138077044</v>
+        <v>2.936930782589587</v>
       </c>
       <c r="E30" t="n">
-        <v>15.3838500230841</v>
+        <v>2.098829104410851</v>
       </c>
       <c r="F30" t="n">
-        <v>4.67164503892714</v>
+        <v>4.001962385589412</v>
       </c>
       <c r="G30" t="n">
-        <v>7.75089356286144</v>
+        <v>8.270074379348163</v>
       </c>
       <c r="H30" t="n">
-        <v>2.250168481093321</v>
+        <v>2.252016071187131</v>
       </c>
       <c r="I30" t="n">
-        <v>8.537046026343672</v>
+        <v>22.04583031960675</v>
       </c>
       <c r="J30" t="n">
-        <v>8.76598143965429</v>
+        <v>9.625434110302981</v>
       </c>
       <c r="K30" t="n">
-        <v>4.858815550408591</v>
+        <v>13.42745429623355</v>
       </c>
       <c r="L30" t="n">
-        <v>4.598320048368483</v>
+        <v>6.589347793687321</v>
       </c>
       <c r="M30" t="n">
-        <v>11.56000696541357</v>
+        <v>46.86540364751813</v>
       </c>
       <c r="N30" t="n">
-        <v>13.65184812948362</v>
+        <v>21.10208921991646</v>
       </c>
       <c r="O30" t="n">
-        <v>39.35024637921845</v>
+        <v>64.14761986890235</v>
       </c>
       <c r="P30" t="n">
-        <v>12.15502739712861</v>
+        <v>16.45404081038786</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.5268902186955</v>
+        <v>14.73577144407658</v>
       </c>
       <c r="R30" t="n">
-        <v>22.1506181634338</v>
+        <v>55.73915839432622</v>
       </c>
       <c r="S30" t="n">
-        <v>9.926422256614153</v>
+        <v>19.53262789389818</v>
       </c>
       <c r="T30" t="n">
-        <v>6.76285226262638</v>
+        <v>24.03962644377051</v>
       </c>
       <c r="U30" t="n">
-        <v>15.07488173156166</v>
+        <v>40.45021069851495</v>
       </c>
       <c r="V30" t="n">
-        <v>21.31009574724693</v>
+        <v>25.46738886107678</v>
       </c>
       <c r="W30" t="n">
-        <v>33.6835939624166</v>
+        <v>20.42584843527919</v>
       </c>
       <c r="X30" t="n">
-        <v>31.51465846879826</v>
+        <v>29.30195322695083</v>
       </c>
       <c r="Y30" t="n">
-        <v>13.69004503315917</v>
+        <v>11.7441287751337</v>
       </c>
       <c r="Z30" t="n">
-        <v>15.72224498828234</v>
+        <v>13.25548816971591</v>
       </c>
       <c r="AA30" t="n">
-        <v>14.93754398296894</v>
+        <v>23.33650980140089</v>
       </c>
       <c r="AB30" t="n">
-        <v>14.777675</v>
+        <v>18.09251950147164</v>
       </c>
       <c r="AC30" t="n">
-        <v>11.61052750321975</v>
+        <v>44.55340571062452</v>
       </c>
       <c r="AD30" t="n">
-        <v>11.80438445602538</v>
+        <v>17.63410276667049</v>
       </c>
       <c r="AE30" t="n">
-        <v>12.44258025782379</v>
+        <v>11.81103177270857</v>
       </c>
       <c r="AF30" t="n">
-        <v>6.718053666865099</v>
+        <v>7.25941271309418</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.10745424321262</v>
+        <v>7.497381532831104</v>
       </c>
       <c r="AH30" t="n">
-        <v>22.78837465139364</v>
+        <v>9.420330821148296</v>
       </c>
       <c r="AI30" t="n">
-        <v>23.35231607870538</v>
+        <v>13.08938713738587</v>
       </c>
       <c r="AJ30" t="n">
-        <v>4.658180299183964</v>
+        <v>12.43131678223085</v>
       </c>
       <c r="AK30" t="n">
-        <v>5.941607067353057</v>
+        <v>4.730815942484854</v>
       </c>
       <c r="AL30" t="n">
-        <v>4.694662638927834</v>
+        <v>14.19784130453971</v>
       </c>
       <c r="AM30" t="n">
-        <v>5.130129028021569</v>
+        <v>1.566558307301947</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.238759605667815</v>
+        <v>2.221854945921608</v>
       </c>
       <c r="AO30" t="n">
-        <v>1.419793181113213</v>
+        <v>3.755223578105955</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.91103119892413</v>
+        <v>1.694461042471327</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.700012364527343</v>
+        <v>6.224671134279073</v>
       </c>
       <c r="AR30" t="n">
-        <v>1.281910257140273</v>
+        <v>0.77020910861505</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.12086075976727</v>
+        <v>0.9639808233754281</v>
       </c>
       <c r="AT30" t="n">
-        <v>4.150784237856475</v>
+        <v>2.117874796740006</v>
       </c>
       <c r="AU30" t="n">
-        <v>2.297440100086939</v>
+        <v>3.00278060349799</v>
       </c>
       <c r="AV30" t="n">
-        <v>2.40816350070347</v>
+        <v>0.1768194708943369</v>
       </c>
       <c r="AW30" t="n">
-        <v>0.751705825</v>
+        <v>0.9039444142987245</v>
       </c>
       <c r="AX30" t="n">
-        <v>2.09807574879458</v>
+        <v>0.4663827026735363</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>25.55</v>
+        <v>2.356606678225943</v>
       </c>
       <c r="D31" t="n">
-        <v>5.63</v>
+        <v>7.838110533228546</v>
       </c>
       <c r="E31" t="n">
-        <v>25.55</v>
+        <v>11.6577749875705</v>
       </c>
       <c r="F31" t="n">
-        <v>3.766022696999999</v>
+        <v>9.736598596796682</v>
       </c>
       <c r="G31" t="n">
-        <v>15.03</v>
+        <v>13.15445868339273</v>
       </c>
       <c r="H31" t="n">
-        <v>28.32</v>
+        <v>39.467015714223</v>
       </c>
       <c r="I31" t="n">
-        <v>20.47</v>
+        <v>1.238254347930716</v>
       </c>
       <c r="J31" t="n">
-        <v>25.78479166666666</v>
+        <v>13.22328608990396</v>
       </c>
       <c r="K31" t="n">
-        <v>3.995184971428572</v>
+        <v>36.30337196202315</v>
       </c>
       <c r="L31" t="n">
-        <v>50.3</v>
+        <v>68.03160411911409</v>
       </c>
       <c r="M31" t="n">
-        <v>32.07</v>
+        <v>6.548677119067674</v>
       </c>
       <c r="N31" t="n">
-        <v>8.029999999999999</v>
+        <v>8.250008845773252</v>
       </c>
       <c r="O31" t="n">
-        <v>17.72580227065452</v>
+        <v>35.67653761103162</v>
       </c>
       <c r="P31" t="n">
-        <v>94.81</v>
+        <v>10.36019363402396</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.28974868594759</v>
+        <v>218.1764840671572</v>
       </c>
       <c r="R31" t="n">
-        <v>87</v>
+        <v>19.16884757325054</v>
       </c>
       <c r="S31" t="n">
-        <v>83.54000000000001</v>
+        <v>23.06109518560309</v>
       </c>
       <c r="T31" t="n">
-        <v>10.83</v>
+        <v>17.34777015999627</v>
       </c>
       <c r="U31" t="n">
-        <v>14.06</v>
+        <v>21.92045087274178</v>
       </c>
       <c r="V31" t="n">
-        <v>9.1</v>
+        <v>31.46861590482723</v>
       </c>
       <c r="W31" t="n">
-        <v>13.06925367109145</v>
+        <v>57.84877922824899</v>
       </c>
       <c r="X31" t="n">
-        <v>71.51000000000001</v>
+        <v>4.912860900057911</v>
       </c>
       <c r="Y31" t="n">
-        <v>20.13</v>
+        <v>0.5360216746649548</v>
       </c>
       <c r="Z31" t="n">
-        <v>39.22</v>
+        <v>41.17950730665067</v>
       </c>
       <c r="AA31" t="n">
-        <v>6.9</v>
+        <v>9.863889169960235</v>
       </c>
       <c r="AB31" t="n">
-        <v>1</v>
+        <v>62.99802590280411</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.74</v>
+        <v>16.0933653801142</v>
       </c>
       <c r="AD31" t="n">
-        <v>1.04</v>
+        <v>11.46954956071309</v>
       </c>
       <c r="AE31" t="n">
-        <v>2</v>
+        <v>2.865354783043149</v>
       </c>
       <c r="AF31" t="n">
-        <v>31.4</v>
+        <v>17.84922468495625</v>
       </c>
       <c r="AG31" t="n">
-        <v>8.57</v>
+        <v>10.05211974558435</v>
       </c>
       <c r="AH31" t="n">
-        <v>3.5</v>
+        <v>36.73801639762355</v>
       </c>
       <c r="AI31" t="n">
-        <v>40.27</v>
+        <v>3.331651417912797</v>
       </c>
       <c r="AJ31" t="n">
-        <v>2.1</v>
+        <v>1.741264478894663</v>
       </c>
       <c r="AK31" t="n">
-        <v>19.68</v>
+        <v>2.018949233994417</v>
       </c>
       <c r="AL31" t="n">
-        <v>10.56</v>
+        <v>0.4807258530262483</v>
       </c>
       <c r="AM31" t="n">
-        <v>1.82</v>
+        <v>1.839919050606063</v>
       </c>
       <c r="AN31" t="n">
-        <v>6.83</v>
+        <v>11.28020910974373</v>
       </c>
       <c r="AO31" t="n">
-        <v>3.79010690633156</v>
+        <v>12.75023421085331</v>
       </c>
       <c r="AP31" t="n">
-        <v>7.43</v>
+        <v>5.446037426076124</v>
       </c>
       <c r="AQ31" t="n">
-        <v>3.358070500927643</v>
+        <v>1.737355188329296</v>
       </c>
       <c r="AR31" t="n">
-        <v>7.11</v>
+        <v>12.52499561810625</v>
       </c>
       <c r="AS31" t="n">
-        <v>4.24</v>
+        <v>3.122833496580558</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.18</v>
+        <v>2.39826470221895</v>
       </c>
       <c r="AU31" t="n">
-        <v>1.45</v>
+        <v>6.190304581197871</v>
       </c>
       <c r="AV31" t="n">
-        <v>2.03</v>
+        <v>11.9985038760279</v>
       </c>
       <c r="AW31" t="n">
-        <v>0</v>
+        <v>4.951372449763041</v>
       </c>
       <c r="AX31" t="n">
-        <v>12.2375</v>
+        <v>31.94200302638683</v>
       </c>
     </row>
   </sheetData>

--- a/escenarios_montecarlo/escenario_007.xlsx
+++ b/escenarios_montecarlo/escenario_007.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>32.92423417150081</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>17.40090376157008</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>16.22441637778389</v>
+        <v>19.51645564237018</v>
       </c>
       <c r="F2" t="n">
-        <v>5.043447434020086</v>
+        <v>53.13022158370452</v>
       </c>
       <c r="G2" t="n">
-        <v>62.44167076100651</v>
+        <v>26.51368943687787</v>
       </c>
       <c r="H2" t="n">
-        <v>22.05181032552154</v>
+        <v>3.848218680247999</v>
       </c>
       <c r="I2" t="n">
-        <v>30.63203650266791</v>
+        <v>48.83188027860142</v>
       </c>
       <c r="J2" t="n">
-        <v>64.1148058542552</v>
+        <v>361.1770745638932</v>
       </c>
       <c r="K2" t="n">
-        <v>176.4196571502132</v>
+        <v>89.3500922900098</v>
       </c>
       <c r="L2" t="n">
-        <v>52.28452188402694</v>
+        <v>153.9862805518603</v>
       </c>
       <c r="M2" t="n">
-        <v>36.93555644673089</v>
+        <v>14.47169347622774</v>
       </c>
       <c r="N2" t="n">
-        <v>114.9301923333806</v>
+        <v>256.0576603872443</v>
       </c>
       <c r="O2" t="n">
-        <v>24.25891175266367</v>
+        <v>37.82752207581799</v>
       </c>
       <c r="P2" t="n">
-        <v>84.13780444919479</v>
+        <v>131.0231214770769</v>
       </c>
       <c r="Q2" t="n">
-        <v>74.67652740321545</v>
+        <v>49.25741609077373</v>
       </c>
       <c r="R2" t="n">
-        <v>76.24385728376939</v>
+        <v>199.0964877030092</v>
       </c>
       <c r="S2" t="n">
-        <v>50.48190293380404</v>
+        <v>55.40962112850737</v>
       </c>
       <c r="T2" t="n">
-        <v>80.271197521582</v>
+        <v>47.66497449069881</v>
       </c>
       <c r="U2" t="n">
-        <v>44.18591425711277</v>
+        <v>43.40133043604023</v>
       </c>
       <c r="V2" t="n">
-        <v>103.7390911094434</v>
+        <v>67.20781388648103</v>
       </c>
       <c r="W2" t="n">
-        <v>185.4091264903907</v>
+        <v>129.5949858964357</v>
       </c>
       <c r="X2" t="n">
-        <v>55.76089509480158</v>
+        <v>58.98870754600075</v>
       </c>
       <c r="Y2" t="n">
-        <v>88.51616351167768</v>
+        <v>48.66423771453358</v>
       </c>
       <c r="Z2" t="n">
-        <v>63.60304899521342</v>
+        <v>68.0541258713386</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.4425283638886</v>
+        <v>68.71417886927509</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.91784142481025</v>
+        <v>68.57732221976309</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.2855056690671</v>
+        <v>91.94992219412778</v>
       </c>
       <c r="AD2" t="n">
-        <v>106.1916292414916</v>
+        <v>201.6448574000923</v>
       </c>
       <c r="AE2" t="n">
-        <v>71.82957860778033</v>
+        <v>72.24278981340977</v>
       </c>
       <c r="AF2" t="n">
-        <v>88.32340442488034</v>
+        <v>154.083475481553</v>
       </c>
       <c r="AG2" t="n">
-        <v>59.20995560629664</v>
+        <v>57.22519413387973</v>
       </c>
       <c r="AH2" t="n">
-        <v>155.574842738212</v>
+        <v>64.66348579647898</v>
       </c>
       <c r="AI2" t="n">
-        <v>42.01911500206146</v>
+        <v>140.9506988563734</v>
       </c>
       <c r="AJ2" t="n">
-        <v>57.38087687911728</v>
+        <v>161.7614093551153</v>
       </c>
       <c r="AK2" t="n">
-        <v>35.24352858710485</v>
+        <v>50.85134108414097</v>
       </c>
       <c r="AL2" t="n">
-        <v>66.08129351672905</v>
+        <v>59.95059149815511</v>
       </c>
       <c r="AM2" t="n">
-        <v>56.52489431900477</v>
+        <v>36.34422773772415</v>
       </c>
       <c r="AN2" t="n">
-        <v>52.08117136254583</v>
+        <v>32.9728907228978</v>
       </c>
       <c r="AO2" t="n">
-        <v>27.27084087443227</v>
+        <v>20.91711271672686</v>
       </c>
       <c r="AP2" t="n">
-        <v>27.66450631207967</v>
+        <v>30.76701637752236</v>
       </c>
       <c r="AQ2" t="n">
-        <v>37.47422242999096</v>
+        <v>10.54587374615452</v>
       </c>
       <c r="AR2" t="n">
-        <v>29.55895658530257</v>
+        <v>21.91524959220359</v>
       </c>
       <c r="AS2" t="n">
-        <v>15.20913206402355</v>
+        <v>36.73033963613866</v>
       </c>
       <c r="AT2" t="n">
-        <v>10.90579417446351</v>
+        <v>27.6692718959211</v>
       </c>
       <c r="AU2" t="n">
-        <v>16.52788411569084</v>
+        <v>11.3833254041602</v>
       </c>
       <c r="AV2" t="n">
-        <v>25.15322264879931</v>
+        <v>19.95635694665233</v>
       </c>
       <c r="AW2" t="n">
-        <v>17.23947109001932</v>
+        <v>21.93372121652752</v>
       </c>
       <c r="AX2" t="n">
-        <v>35.32135945051902</v>
+        <v>24.70506324987183</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3.08045865921362</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.953047177281342</v>
+        <v>3.195229866633197</v>
       </c>
       <c r="E3" t="n">
-        <v>4.637852277384281</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7874734352064335</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5386725144113711</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0933728199359271</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6025577700203035</v>
+        <v>6.314053524889525</v>
       </c>
       <c r="J3" t="n">
-        <v>0.334643795243826</v>
+        <v>2.56099526712977</v>
       </c>
       <c r="K3" t="n">
-        <v>1.378086695855465</v>
+        <v>1.727311844749132</v>
       </c>
       <c r="L3" t="n">
-        <v>2.220645268829347</v>
+        <v>2.743219608883639</v>
       </c>
       <c r="M3" t="n">
-        <v>2.27343713144953</v>
+        <v>2.434001174859254</v>
       </c>
       <c r="N3" t="n">
-        <v>16.64546656391303</v>
+        <v>2.874090565692036</v>
       </c>
       <c r="O3" t="n">
-        <v>5.148859311901431</v>
+        <v>2.589950523496066</v>
       </c>
       <c r="P3" t="n">
-        <v>10.05782363583983</v>
+        <v>1.543385422339675</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.31454442928109</v>
+        <v>5.505777683377802</v>
       </c>
       <c r="R3" t="n">
-        <v>2.313370415457809</v>
+        <v>3.467610308866742</v>
       </c>
       <c r="S3" t="n">
-        <v>6.332205488946717</v>
+        <v>6.888396413157987</v>
       </c>
       <c r="T3" t="n">
-        <v>3.228108634021363</v>
+        <v>2.53714409351918</v>
       </c>
       <c r="U3" t="n">
-        <v>2.552172637306747</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>3.868024682074549</v>
+        <v>3.42351677294327</v>
       </c>
       <c r="W3" t="n">
-        <v>9.057120943156928</v>
+        <v>6.132240370603733</v>
       </c>
       <c r="X3" t="n">
-        <v>5.297352824931562</v>
+        <v>1.88357456273156</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.803491388834418</v>
+        <v>5.164466778442245</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.933381323617963</v>
+        <v>5.850852079732074</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.936366912209569</v>
+        <v>4.263862919202033</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.232015088894486</v>
+        <v>4.069051940602654</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.44908671636692</v>
+        <v>5.644295384586053</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.945534673992529</v>
+        <v>3.603353359378552</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.651991625629435</v>
+        <v>2.948488674369991</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.510541610264008</v>
+        <v>7.165774078373945</v>
       </c>
       <c r="AG3" t="n">
-        <v>3.361881415115096</v>
+        <v>4.041002664879778</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.281097048209117</v>
+        <v>3.104632367634347</v>
       </c>
       <c r="AI3" t="n">
-        <v>7.32408751916833</v>
+        <v>5.98933592609639</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15.21754608578308</v>
+        <v>5.010423617814205</v>
       </c>
       <c r="AK3" t="n">
-        <v>5.173151351094155</v>
+        <v>3.247323389872973</v>
       </c>
       <c r="AL3" t="n">
-        <v>3.639406588668023</v>
+        <v>7.407187325961937</v>
       </c>
       <c r="AM3" t="n">
-        <v>9.082758281091397</v>
+        <v>5.585040255432113</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.34364484037755</v>
+        <v>3.727552970916064</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.869126132886017</v>
+        <v>2.041852804453137</v>
       </c>
       <c r="AP3" t="n">
-        <v>8.688853941403707</v>
+        <v>3.606431127470123</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10.2323064935747</v>
+        <v>4.664920837744493</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.593313500489421</v>
+        <v>5.676839161917476</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.9425607578509758</v>
+        <v>2.524828077738356</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.421971820178333</v>
+        <v>2.93081045330356</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.361848926757338</v>
+        <v>3.039262827130249</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.1636776392100424</v>
+        <v>2.180082292061316</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.788537303870069</v>
+        <v>3.598936462547466</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.308101460748087</v>
+        <v>2.163260465642785</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>17.80205543847746</v>
+        <v>9.326723962425785</v>
       </c>
       <c r="D4" t="n">
-        <v>6.52492359149679</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>12.99175247515225</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.851443585264534</v>
+        <v>22.81242354738952</v>
       </c>
       <c r="G4" t="n">
-        <v>16.75060169497488</v>
+        <v>3.772158245447729</v>
       </c>
       <c r="H4" t="n">
-        <v>31.74726642262207</v>
+        <v>3.953988339979697</v>
       </c>
       <c r="I4" t="n">
-        <v>4.086752752432831</v>
+        <v>13.80621368216134</v>
       </c>
       <c r="J4" t="n">
-        <v>115.1716042645922</v>
+        <v>93.22389446754319</v>
       </c>
       <c r="K4" t="n">
-        <v>4.809095275225456</v>
+        <v>44.30961990512525</v>
       </c>
       <c r="L4" t="n">
-        <v>6.840182053383714</v>
+        <v>62.22261018238333</v>
       </c>
       <c r="M4" t="n">
-        <v>26.24001195470555</v>
+        <v>19.59803927952385</v>
       </c>
       <c r="N4" t="n">
-        <v>114.1379558167563</v>
+        <v>2.382362424643313</v>
       </c>
       <c r="O4" t="n">
-        <v>38.08027888475608</v>
+        <v>119.2276705853693</v>
       </c>
       <c r="P4" t="n">
-        <v>53.80920082226583</v>
+        <v>26.95267512256383</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.19086157131753</v>
+        <v>12.68745658266146</v>
       </c>
       <c r="R4" t="n">
-        <v>33.22203496023091</v>
+        <v>36.43758901503776</v>
       </c>
       <c r="S4" t="n">
-        <v>51.14544869891404</v>
+        <v>66.72724391734174</v>
       </c>
       <c r="T4" t="n">
-        <v>44.85613527137305</v>
+        <v>76.25382955894648</v>
       </c>
       <c r="U4" t="n">
-        <v>27.06850922310533</v>
+        <v>67.03425718621062</v>
       </c>
       <c r="V4" t="n">
-        <v>108.2694952773455</v>
+        <v>263.1209885336283</v>
       </c>
       <c r="W4" t="n">
-        <v>52.58774715885254</v>
+        <v>62.4116788782312</v>
       </c>
       <c r="X4" t="n">
-        <v>66.83785954901342</v>
+        <v>46.75793047217339</v>
       </c>
       <c r="Y4" t="n">
-        <v>101.0814552522801</v>
+        <v>78.60660566549657</v>
       </c>
       <c r="Z4" t="n">
-        <v>93.97081323474491</v>
+        <v>53.89225920147272</v>
       </c>
       <c r="AA4" t="n">
-        <v>39.06148410471614</v>
+        <v>47.87211245501397</v>
       </c>
       <c r="AB4" t="n">
-        <v>60.79223066646905</v>
+        <v>62.74274026615241</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.09519174189782</v>
+        <v>97.6084257172798</v>
       </c>
       <c r="AD4" t="n">
-        <v>34.97262662065145</v>
+        <v>87.91326738261311</v>
       </c>
       <c r="AE4" t="n">
-        <v>80.69370366436796</v>
+        <v>120.9008869440778</v>
       </c>
       <c r="AF4" t="n">
-        <v>39.37889531813705</v>
+        <v>93.5230070045091</v>
       </c>
       <c r="AG4" t="n">
-        <v>28.18221978404123</v>
+        <v>45.29115932090244</v>
       </c>
       <c r="AH4" t="n">
-        <v>60.59998990051346</v>
+        <v>26.34139342759275</v>
       </c>
       <c r="AI4" t="n">
-        <v>82.93255704038725</v>
+        <v>104.8015448222453</v>
       </c>
       <c r="AJ4" t="n">
-        <v>35.758286355878</v>
+        <v>74.284318077507</v>
       </c>
       <c r="AK4" t="n">
-        <v>44.40214553567088</v>
+        <v>34.5656924708939</v>
       </c>
       <c r="AL4" t="n">
-        <v>9.158968975447852</v>
+        <v>49.81491933705602</v>
       </c>
       <c r="AM4" t="n">
-        <v>40.11655376923688</v>
+        <v>48.05192940405464</v>
       </c>
       <c r="AN4" t="n">
-        <v>31.1613590699086</v>
+        <v>20.47660897356534</v>
       </c>
       <c r="AO4" t="n">
-        <v>26.40620080058806</v>
+        <v>10.76048134043683</v>
       </c>
       <c r="AP4" t="n">
-        <v>8.633895219340392</v>
+        <v>15.87957012451689</v>
       </c>
       <c r="AQ4" t="n">
-        <v>21.57873958144291</v>
+        <v>34.6958693202766</v>
       </c>
       <c r="AR4" t="n">
-        <v>17.83873339113406</v>
+        <v>35.20318431736047</v>
       </c>
       <c r="AS4" t="n">
-        <v>11.7017678265883</v>
+        <v>15.47930192477667</v>
       </c>
       <c r="AT4" t="n">
-        <v>21.95939891456799</v>
+        <v>9.116441441377974</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.77173469742714</v>
+        <v>10.03492087420406</v>
       </c>
       <c r="AV4" t="n">
-        <v>26.17869490494728</v>
+        <v>16.07500552844847</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.095772090747221</v>
+        <v>9.370967803435068</v>
       </c>
       <c r="AX4" t="n">
-        <v>7.262733152082376</v>
+        <v>9.228120361174188</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>14.51137024410172</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>15.81668430808526</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50.59506583855683</v>
+        <v>63.86057906048399</v>
       </c>
       <c r="F5" t="n">
-        <v>47.93954639037938</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>15.82204981972927</v>
+        <v>39.97589230117405</v>
       </c>
       <c r="H5" t="n">
-        <v>8.160075714634468</v>
+        <v>102.697845517946</v>
       </c>
       <c r="I5" t="n">
-        <v>11.11464537149427</v>
+        <v>20.65482752917153</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69956207667543</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>32.05576268192922</v>
+        <v>60.98857351059362</v>
       </c>
       <c r="L5" t="n">
-        <v>39.56867190942251</v>
+        <v>131.7049315234783</v>
       </c>
       <c r="M5" t="n">
-        <v>15.51666421078381</v>
+        <v>9.782845150099515</v>
       </c>
       <c r="N5" t="n">
-        <v>49.40578621098627</v>
+        <v>51.30823931752526</v>
       </c>
       <c r="O5" t="n">
-        <v>26.63476612450766</v>
+        <v>59.11815869017166</v>
       </c>
       <c r="P5" t="n">
-        <v>53.02821738748311</v>
+        <v>79.70072268356903</v>
       </c>
       <c r="Q5" t="n">
-        <v>62.63756646334887</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>103.8661013525715</v>
+        <v>43.93728962319969</v>
       </c>
       <c r="S5" t="n">
-        <v>25.89030954928714</v>
+        <v>13.94747572226695</v>
       </c>
       <c r="T5" t="n">
-        <v>49.45938540796583</v>
+        <v>48.56899366296658</v>
       </c>
       <c r="U5" t="n">
-        <v>89.89851396525525</v>
+        <v>49.07560088348695</v>
       </c>
       <c r="V5" t="n">
-        <v>29.55536383112073</v>
+        <v>63.97558034147305</v>
       </c>
       <c r="W5" t="n">
-        <v>12.27326465357975</v>
+        <v>58.29453506369812</v>
       </c>
       <c r="X5" t="n">
-        <v>106.1852953082928</v>
+        <v>21.27706726353876</v>
       </c>
       <c r="Y5" t="n">
-        <v>26.41245071058094</v>
+        <v>170.2083656087524</v>
       </c>
       <c r="Z5" t="n">
-        <v>41.11098804939341</v>
+        <v>28.93114574925764</v>
       </c>
       <c r="AA5" t="n">
-        <v>90.52933223991117</v>
+        <v>81.20739706136588</v>
       </c>
       <c r="AB5" t="n">
-        <v>63.32396358996128</v>
+        <v>39.61792451904013</v>
       </c>
       <c r="AC5" t="n">
-        <v>25.69218451888689</v>
+        <v>87.68050144304945</v>
       </c>
       <c r="AD5" t="n">
-        <v>14.74350801104232</v>
+        <v>10.17932781380438</v>
       </c>
       <c r="AE5" t="n">
-        <v>18.64930953890322</v>
+        <v>26.68721769480067</v>
       </c>
       <c r="AF5" t="n">
-        <v>18.07132987483446</v>
+        <v>61.36041405518235</v>
       </c>
       <c r="AG5" t="n">
-        <v>19.87189283621229</v>
+        <v>60.55879660705065</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.708333132577172</v>
+        <v>13.95328940540475</v>
       </c>
       <c r="AI5" t="n">
-        <v>87.10215188192113</v>
+        <v>38.54334488636857</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15.64713062076003</v>
+        <v>18.62438246761705</v>
       </c>
       <c r="AK5" t="n">
-        <v>63.22416624811496</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>32.63968391916005</v>
+        <v>19.2121925656867</v>
       </c>
       <c r="AM5" t="n">
-        <v>70.05290767738873</v>
+        <v>21.50065017699178</v>
       </c>
       <c r="AN5" t="n">
-        <v>50.75910894406948</v>
+        <v>5.87686342223912</v>
       </c>
       <c r="AO5" t="n">
-        <v>41.42138972545686</v>
+        <v>20.22631431818688</v>
       </c>
       <c r="AP5" t="n">
-        <v>58.12678806028289</v>
+        <v>3.563304970255581</v>
       </c>
       <c r="AQ5" t="n">
-        <v>61.93008554866383</v>
+        <v>28.02908220565473</v>
       </c>
       <c r="AR5" t="n">
-        <v>7.043554813591835</v>
+        <v>47.15520184456408</v>
       </c>
       <c r="AS5" t="n">
-        <v>53.91929513234589</v>
+        <v>3.497517873285098</v>
       </c>
       <c r="AT5" t="n">
-        <v>13.46084097554928</v>
+        <v>2.803535625590304</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.765867070834332</v>
+        <v>26.55914153573599</v>
       </c>
       <c r="AV5" t="n">
-        <v>19.89382822660741</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>29.58253452558654</v>
+        <v>25.38692967418578</v>
       </c>
       <c r="AX5" t="n">
-        <v>8.586416506895823</v>
+        <v>7.149036358423629</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2.108713366811786</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>3.404147129401205</v>
+        <v>2.560956535522953</v>
       </c>
       <c r="E6" t="n">
-        <v>3.40771059295048</v>
+        <v>4.592154839020942</v>
       </c>
       <c r="F6" t="n">
-        <v>2.308702843675458</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5.648711664675669</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>9.923559141312561</v>
+        <v>37.91020208508893</v>
       </c>
       <c r="I6" t="n">
-        <v>2.864381240025401</v>
+        <v>15.24759312200061</v>
       </c>
       <c r="J6" t="n">
-        <v>73.28698386099791</v>
+        <v>17.70590624291934</v>
       </c>
       <c r="K6" t="n">
-        <v>13.51020356831451</v>
+        <v>54.12844779202793</v>
       </c>
       <c r="L6" t="n">
-        <v>15.3871661824305</v>
+        <v>23.58264825927002</v>
       </c>
       <c r="M6" t="n">
-        <v>23.11510081770184</v>
+        <v>13.50269610758177</v>
       </c>
       <c r="N6" t="n">
-        <v>17.09054175449339</v>
+        <v>52.12659080323211</v>
       </c>
       <c r="O6" t="n">
-        <v>19.24214627928752</v>
+        <v>30.66968538372421</v>
       </c>
       <c r="P6" t="n">
-        <v>20.095604638481</v>
+        <v>28.10639311430667</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.169910094854243</v>
+        <v>37.97715777616344</v>
       </c>
       <c r="R6" t="n">
-        <v>7.768385444105495</v>
+        <v>18.99178235759347</v>
       </c>
       <c r="S6" t="n">
-        <v>10.64561275721515</v>
+        <v>27.9306586299296</v>
       </c>
       <c r="T6" t="n">
-        <v>10.91411642445155</v>
+        <v>34.34335588917178</v>
       </c>
       <c r="U6" t="n">
-        <v>23.47247222931495</v>
+        <v>12.4489981204519</v>
       </c>
       <c r="V6" t="n">
-        <v>29.8812597342002</v>
+        <v>21.92106581589755</v>
       </c>
       <c r="W6" t="n">
-        <v>30.95415414525162</v>
+        <v>32.46098511598672</v>
       </c>
       <c r="X6" t="n">
-        <v>11.76403452219546</v>
+        <v>17.0783223150588</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.4230331706046</v>
+        <v>7.506142584072829</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.64954120643201</v>
+        <v>29.67474844821099</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.92979188881882</v>
+        <v>15.14489407587795</v>
       </c>
       <c r="AB6" t="n">
-        <v>19.4089712304003</v>
+        <v>23.74946090541079</v>
       </c>
       <c r="AC6" t="n">
-        <v>26.53999191914981</v>
+        <v>26.12342430060615</v>
       </c>
       <c r="AD6" t="n">
-        <v>26.84819271378698</v>
+        <v>6.915211013150544</v>
       </c>
       <c r="AE6" t="n">
-        <v>43.4994472043395</v>
+        <v>29.54925726356116</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.187625107155529</v>
+        <v>26.45507899684246</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.913775086223763</v>
+        <v>15.08501148778475</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.313031487819041</v>
+        <v>14.22289130112829</v>
       </c>
       <c r="AI6" t="n">
-        <v>9.092450141603486</v>
+        <v>11.0272380492701</v>
       </c>
       <c r="AJ6" t="n">
-        <v>4.090326236036575</v>
+        <v>4.281075121439854</v>
       </c>
       <c r="AK6" t="n">
-        <v>9.947152530356583</v>
+        <v>3.284674109603868</v>
       </c>
       <c r="AL6" t="n">
-        <v>10.02447561639567</v>
+        <v>9.556045931614189</v>
       </c>
       <c r="AM6" t="n">
-        <v>3.883501747723263</v>
+        <v>4.263453604970635</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.446692494649397</v>
+        <v>6.597605216827038</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.068910069734138</v>
+        <v>1.095657356784358</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.304337891847924</v>
+        <v>2.387564183362336</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.847817800524804</v>
+        <v>4.079191492072573</v>
       </c>
       <c r="AR6" t="n">
-        <v>3.942088544328306</v>
+        <v>6.0781747683202</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.734441057369106</v>
+        <v>6.236321710931501</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.610033550376559</v>
+        <v>11.46275698581938</v>
       </c>
       <c r="AU6" t="n">
-        <v>4.292373111550434</v>
+        <v>1.987196554689384</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.780200319419384</v>
+        <v>1.225611732097963</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.830853292150196</v>
+        <v>1.972200759619327</v>
       </c>
       <c r="AX6" t="n">
-        <v>3.208364469523</v>
+        <v>2.66157134234824</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.452001738756935</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.619432056815736</v>
+        <v>6.198961249771979</v>
       </c>
       <c r="E7" t="n">
-        <v>18.42764196623306</v>
+        <v>18.32769437033233</v>
       </c>
       <c r="F7" t="n">
-        <v>14.10455205016178</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6.189329271459015</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>57.9038016249428</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>54.79847391374402</v>
+        <v>7.264357077662737</v>
       </c>
       <c r="J7" t="n">
-        <v>190.726924737657</v>
+        <v>30.23856861208144</v>
       </c>
       <c r="K7" t="n">
-        <v>3.285192457274724</v>
+        <v>32.05940648916324</v>
       </c>
       <c r="L7" t="n">
-        <v>70.41777017234064</v>
+        <v>47.935537725129</v>
       </c>
       <c r="M7" t="n">
-        <v>88.85000863627718</v>
+        <v>24.79142162557255</v>
       </c>
       <c r="N7" t="n">
-        <v>85.34593840510031</v>
+        <v>47.51296082118346</v>
       </c>
       <c r="O7" t="n">
-        <v>87.66736042582212</v>
+        <v>39.70614737396341</v>
       </c>
       <c r="P7" t="n">
-        <v>90.33939103793315</v>
+        <v>25.61072324968294</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.56136209440611</v>
+        <v>121.4120580910257</v>
       </c>
       <c r="R7" t="n">
-        <v>17.66547191978123</v>
+        <v>72.96581446887743</v>
       </c>
       <c r="S7" t="n">
-        <v>32.49668168637935</v>
+        <v>27.12764466839812</v>
       </c>
       <c r="T7" t="n">
-        <v>10.29988669942654</v>
+        <v>39.60485639801783</v>
       </c>
       <c r="U7" t="n">
-        <v>25.16825285214543</v>
+        <v>40.82097176750885</v>
       </c>
       <c r="V7" t="n">
-        <v>14.3363902990336</v>
+        <v>13.73229868415694</v>
       </c>
       <c r="W7" t="n">
-        <v>13.72122794204019</v>
+        <v>7.376057886923664</v>
       </c>
       <c r="X7" t="n">
-        <v>18.78601534857366</v>
+        <v>43.17320730718647</v>
       </c>
       <c r="Y7" t="n">
-        <v>80.31183344069933</v>
+        <v>20.19498663968551</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.15230426340316</v>
+        <v>13.59847252197634</v>
       </c>
       <c r="AA7" t="n">
-        <v>34.2122679780686</v>
+        <v>12.63670250582763</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.024490315148104</v>
+        <v>25.84479217873811</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.18062759071407</v>
+        <v>10.62925774867758</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.077076639531817</v>
+        <v>4.016850145407089</v>
       </c>
       <c r="AE7" t="n">
-        <v>13.84905713286565</v>
+        <v>6.329282079747284</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.053194366156384</v>
+        <v>15.1538541419189</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.25553378245216</v>
+        <v>28.39177250860926</v>
       </c>
       <c r="AH7" t="n">
-        <v>12.96044563275836</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.047660940442292</v>
+        <v>35.19580049379379</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.323218402804129</v>
+        <v>6.234829083413075</v>
       </c>
       <c r="AK7" t="n">
-        <v>6.817082248111968</v>
+        <v>19.60835822418794</v>
       </c>
       <c r="AL7" t="n">
-        <v>13.08832281259861</v>
+        <v>5.542802758297385</v>
       </c>
       <c r="AM7" t="n">
-        <v>11.47697928897887</v>
+        <v>7.027467925567343</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.002928720100503</v>
+        <v>2.559279446731131</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.06988668203826</v>
+        <v>14.78537079122621</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.876812588733191</v>
+        <v>0.7537233706382909</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.75172838547796</v>
+        <v>16.35565005677219</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.9581784803908588</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.524499327484425</v>
+        <v>4.790690903559613</v>
       </c>
       <c r="AT7" t="n">
-        <v>20.92413045619174</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>15.08126335963764</v>
+        <v>5.510664270066602</v>
       </c>
       <c r="AV7" t="n">
-        <v>2.058463955363853</v>
+        <v>1.205172947046608</v>
       </c>
       <c r="AW7" t="n">
-        <v>2.736125287927955</v>
+        <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.7747643969720455</v>
+        <v>4.7207072890867</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>20.11669930280303</v>
+        <v>24.59756106672926</v>
       </c>
       <c r="D8" t="n">
-        <v>11.75204334940369</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>26.10717684168887</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>38.67096082218981</v>
+        <v>22.26019464760738</v>
       </c>
       <c r="G8" t="n">
-        <v>18.97635368406688</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>18.70656194556736</v>
+        <v>28.44517763384847</v>
       </c>
       <c r="I8" t="n">
-        <v>23.9438958569035</v>
+        <v>18.70339900589579</v>
       </c>
       <c r="J8" t="n">
-        <v>69.79540970990783</v>
+        <v>26.19941996928413</v>
       </c>
       <c r="K8" t="n">
-        <v>22.57510360639305</v>
+        <v>38.8013063607975</v>
       </c>
       <c r="L8" t="n">
-        <v>140.8396071680989</v>
+        <v>63.00820824797128</v>
       </c>
       <c r="M8" t="n">
-        <v>39.06221766759504</v>
+        <v>116.7329509824674</v>
       </c>
       <c r="N8" t="n">
-        <v>117.3307026946344</v>
+        <v>118.0592762553181</v>
       </c>
       <c r="O8" t="n">
-        <v>32.84733269001923</v>
+        <v>133.4272640169495</v>
       </c>
       <c r="P8" t="n">
-        <v>50.7612978975617</v>
+        <v>38.38936040838986</v>
       </c>
       <c r="Q8" t="n">
-        <v>189.1076669182072</v>
+        <v>15.41386278127554</v>
       </c>
       <c r="R8" t="n">
-        <v>38.29059894448118</v>
+        <v>39.02930874339352</v>
       </c>
       <c r="S8" t="n">
-        <v>54.65026972459295</v>
+        <v>111.8458154284259</v>
       </c>
       <c r="T8" t="n">
-        <v>73.66063152259751</v>
+        <v>33.06329689103111</v>
       </c>
       <c r="U8" t="n">
-        <v>52.11931308164396</v>
+        <v>35.78566934157823</v>
       </c>
       <c r="V8" t="n">
-        <v>63.53390179057114</v>
+        <v>49.39040084038269</v>
       </c>
       <c r="W8" t="n">
-        <v>83.11685912751474</v>
+        <v>42.70041283902253</v>
       </c>
       <c r="X8" t="n">
-        <v>92.20144822771579</v>
+        <v>107.9790138589486</v>
       </c>
       <c r="Y8" t="n">
-        <v>60.2305623053681</v>
+        <v>71.96028880914066</v>
       </c>
       <c r="Z8" t="n">
-        <v>64.50189243681029</v>
+        <v>101.2528212773926</v>
       </c>
       <c r="AA8" t="n">
-        <v>82.00675210930602</v>
+        <v>114.0142045010418</v>
       </c>
       <c r="AB8" t="n">
-        <v>87.98036272039521</v>
+        <v>55.71759120600568</v>
       </c>
       <c r="AC8" t="n">
-        <v>116.3341017581721</v>
+        <v>122.3958745585188</v>
       </c>
       <c r="AD8" t="n">
-        <v>139.6943081989722</v>
+        <v>100.8385930966346</v>
       </c>
       <c r="AE8" t="n">
-        <v>90.0002698444147</v>
+        <v>7.899961927807279</v>
       </c>
       <c r="AF8" t="n">
-        <v>152.6813359646391</v>
+        <v>139.6594862391358</v>
       </c>
       <c r="AG8" t="n">
-        <v>88.70227794539761</v>
+        <v>43.74209962175766</v>
       </c>
       <c r="AH8" t="n">
-        <v>120.6442568755365</v>
+        <v>74.3604470749641</v>
       </c>
       <c r="AI8" t="n">
-        <v>147.5956516645188</v>
+        <v>99.769588162269</v>
       </c>
       <c r="AJ8" t="n">
-        <v>53.91546923386699</v>
+        <v>51.93690885804338</v>
       </c>
       <c r="AK8" t="n">
-        <v>35.54941452769979</v>
+        <v>35.53132885317234</v>
       </c>
       <c r="AL8" t="n">
-        <v>55.59360424019648</v>
+        <v>59.53811129044388</v>
       </c>
       <c r="AM8" t="n">
-        <v>35.65856798242483</v>
+        <v>104.2114526625398</v>
       </c>
       <c r="AN8" t="n">
-        <v>22.83457702754584</v>
+        <v>34.28084545841136</v>
       </c>
       <c r="AO8" t="n">
-        <v>56.07018704625573</v>
+        <v>33.00829179407642</v>
       </c>
       <c r="AP8" t="n">
-        <v>28.454099104401</v>
+        <v>25.72192599195633</v>
       </c>
       <c r="AQ8" t="n">
-        <v>18.8361339344109</v>
+        <v>36.34676203309846</v>
       </c>
       <c r="AR8" t="n">
-        <v>14.27612459538375</v>
+        <v>26.52953144804281</v>
       </c>
       <c r="AS8" t="n">
-        <v>25.98140321505899</v>
+        <v>23.22299454914022</v>
       </c>
       <c r="AT8" t="n">
-        <v>31.42824027722267</v>
+        <v>19.89016393123583</v>
       </c>
       <c r="AU8" t="n">
-        <v>13.10240234397171</v>
+        <v>26.58281552989226</v>
       </c>
       <c r="AV8" t="n">
-        <v>19.01186678174859</v>
+        <v>9.170690906432968</v>
       </c>
       <c r="AW8" t="n">
-        <v>23.59352488927181</v>
+        <v>28.79012314609998</v>
       </c>
       <c r="AX8" t="n">
-        <v>16.52977180240536</v>
+        <v>21.26276680864435</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9342158700478912</v>
+        <v>1.158737934353125</v>
       </c>
       <c r="D9" t="n">
-        <v>2.143011713278729</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4289656925155385</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.605711662690484</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>18.22156179194544</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>8.162351278954429</v>
+        <v>3.665654453673622</v>
       </c>
       <c r="I9" t="n">
-        <v>3.627917189695152</v>
+        <v>3.585785449359342</v>
       </c>
       <c r="J9" t="n">
-        <v>11.55211240204203</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5337966705659166</v>
+        <v>0.7602456295176928</v>
       </c>
       <c r="L9" t="n">
-        <v>6.132335216631573</v>
+        <v>0.3357037020287071</v>
       </c>
       <c r="M9" t="n">
-        <v>6.762570787131549</v>
+        <v>3.487284437424169</v>
       </c>
       <c r="N9" t="n">
-        <v>2.800304472850193</v>
+        <v>7.585161382654901</v>
       </c>
       <c r="O9" t="n">
-        <v>4.795992420003322</v>
+        <v>8.140481161923951</v>
       </c>
       <c r="P9" t="n">
-        <v>6.440548948999165</v>
+        <v>1.320974611511518</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.489904301957181</v>
+        <v>7.221386139693372</v>
       </c>
       <c r="R9" t="n">
-        <v>2.421029167674568</v>
+        <v>3.666527313285163</v>
       </c>
       <c r="S9" t="n">
-        <v>4.831530383649756</v>
+        <v>4.031493324575158</v>
       </c>
       <c r="T9" t="n">
-        <v>4.934148962004562</v>
+        <v>2.897977088932583</v>
       </c>
       <c r="U9" t="n">
-        <v>0.8709668778520396</v>
+        <v>4.216275080505518</v>
       </c>
       <c r="V9" t="n">
-        <v>18.6729432817849</v>
+        <v>6.074094873246323</v>
       </c>
       <c r="W9" t="n">
-        <v>5.45192127801071</v>
+        <v>1.521548802334724</v>
       </c>
       <c r="X9" t="n">
-        <v>12.26395975903438</v>
+        <v>4.409721635046951</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.921562265183449</v>
+        <v>7.190884675206759</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.559563433090142</v>
+        <v>6.403523897782919</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.122149461620538</v>
+        <v>4.186759730782899</v>
       </c>
       <c r="AB9" t="n">
-        <v>4.734294234633139</v>
+        <v>4.336687828564123</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.356856235794081</v>
+        <v>5.654757505664007</v>
       </c>
       <c r="AD9" t="n">
-        <v>12.83489172447753</v>
+        <v>8.741662658486129</v>
       </c>
       <c r="AE9" t="n">
-        <v>3.734676792526099</v>
+        <v>9.407639417502075</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.608143643320998</v>
+        <v>3.631770181837808</v>
       </c>
       <c r="AG9" t="n">
-        <v>3.726060718313925</v>
+        <v>5.648662599270476</v>
       </c>
       <c r="AH9" t="n">
-        <v>3.113686176323724</v>
+        <v>6.498906052530194</v>
       </c>
       <c r="AI9" t="n">
-        <v>2.31302782554055</v>
+        <v>2.781407826573441</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.974863758562579</v>
+        <v>4.576990522296505</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.999211536388326</v>
+        <v>6.269065031254191</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.051076670818916</v>
+        <v>2.98135511127609</v>
       </c>
       <c r="AM9" t="n">
-        <v>14.13985378910197</v>
+        <v>4.931163538445011</v>
       </c>
       <c r="AN9" t="n">
-        <v>15.09068553144708</v>
+        <v>4.301259736737968</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.882695628811585</v>
+        <v>4.30640132744671</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.323207475567936</v>
+        <v>5.097738533187457</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.392709334652049</v>
+        <v>3.2532623166258</v>
       </c>
       <c r="AR9" t="n">
-        <v>3.019537994720468</v>
+        <v>0.7184560172720456</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.489655558146851</v>
+        <v>5.303728049673617</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.773111897287239</v>
+        <v>3.621448467236336</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.098408420996034</v>
+        <v>3.406892693210666</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.3193179041548662</v>
+        <v>1.938814738386687</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.7256231530778157</v>
+        <v>2.609468984505988</v>
       </c>
       <c r="AX9" t="n">
-        <v>42.31233830988896</v>
+        <v>1.864859423875629</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>9.847147283455715</v>
+        <v>14.16232886294169</v>
       </c>
       <c r="D10" t="n">
-        <v>24.05641886282637</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>7.034763337998343</v>
+        <v>3.668901109009366</v>
       </c>
       <c r="F10" t="n">
-        <v>7.245846348684947</v>
+        <v>14.17617457122096</v>
       </c>
       <c r="G10" t="n">
-        <v>11.72717729033783</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>72.02091734436222</v>
+        <v>13.38877587789676</v>
       </c>
       <c r="I10" t="n">
-        <v>53.62447251633776</v>
+        <v>25.17452486846179</v>
       </c>
       <c r="J10" t="n">
-        <v>5.920989397033988</v>
+        <v>24.46847691031933</v>
       </c>
       <c r="K10" t="n">
-        <v>57.96218497377405</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>60.49559279623529</v>
+        <v>18.30115343451902</v>
       </c>
       <c r="M10" t="n">
-        <v>75.14926535120769</v>
+        <v>39.62018729961367</v>
       </c>
       <c r="N10" t="n">
-        <v>182.2778559755714</v>
+        <v>8.167912458977128</v>
       </c>
       <c r="O10" t="n">
-        <v>145.2743589099564</v>
+        <v>41.14751187868073</v>
       </c>
       <c r="P10" t="n">
-        <v>68.45352615384803</v>
+        <v>36.77845600807578</v>
       </c>
       <c r="Q10" t="n">
-        <v>48.38430960503795</v>
+        <v>18.80878290556201</v>
       </c>
       <c r="R10" t="n">
-        <v>25.72850482672636</v>
+        <v>93.4232182467036</v>
       </c>
       <c r="S10" t="n">
-        <v>21.88946659821062</v>
+        <v>35.71164467345451</v>
       </c>
       <c r="T10" t="n">
-        <v>24.47491341796529</v>
+        <v>135.6165900086355</v>
       </c>
       <c r="U10" t="n">
-        <v>95.32034789331696</v>
+        <v>84.4260869426316</v>
       </c>
       <c r="V10" t="n">
-        <v>37.40551975666338</v>
+        <v>155.2910012230442</v>
       </c>
       <c r="W10" t="n">
-        <v>59.2827977376833</v>
+        <v>28.87986388360099</v>
       </c>
       <c r="X10" t="n">
-        <v>57.43379111161101</v>
+        <v>93.24088076101621</v>
       </c>
       <c r="Y10" t="n">
-        <v>112.9957864083748</v>
+        <v>29.27103196512416</v>
       </c>
       <c r="Z10" t="n">
-        <v>64.16723645541674</v>
+        <v>51.60292281106331</v>
       </c>
       <c r="AA10" t="n">
-        <v>98.9609118921919</v>
+        <v>44.66623724028518</v>
       </c>
       <c r="AB10" t="n">
-        <v>40.23308799931478</v>
+        <v>96.07319399841526</v>
       </c>
       <c r="AC10" t="n">
-        <v>61.9706135101002</v>
+        <v>104.6827552345761</v>
       </c>
       <c r="AD10" t="n">
-        <v>152.7535319838356</v>
+        <v>75.51908413139121</v>
       </c>
       <c r="AE10" t="n">
-        <v>104.1062266142751</v>
+        <v>132.6914120380862</v>
       </c>
       <c r="AF10" t="n">
-        <v>59.31189329811399</v>
+        <v>99.56088692627232</v>
       </c>
       <c r="AG10" t="n">
-        <v>152.5743923024832</v>
+        <v>43.08155335662768</v>
       </c>
       <c r="AH10" t="n">
-        <v>60.77583869091146</v>
+        <v>70.50883942295262</v>
       </c>
       <c r="AI10" t="n">
-        <v>70.88855522962277</v>
+        <v>26.48460326820557</v>
       </c>
       <c r="AJ10" t="n">
-        <v>28.20320111560038</v>
+        <v>24.75280469151227</v>
       </c>
       <c r="AK10" t="n">
-        <v>52.41050282248573</v>
+        <v>52.67171516712488</v>
       </c>
       <c r="AL10" t="n">
-        <v>20.29603914765703</v>
+        <v>9.900639837983393</v>
       </c>
       <c r="AM10" t="n">
-        <v>13.865536100532</v>
+        <v>18.64599984909798</v>
       </c>
       <c r="AN10" t="n">
-        <v>39.06434340893905</v>
+        <v>30.07313211062087</v>
       </c>
       <c r="AO10" t="n">
-        <v>22.58141515450388</v>
+        <v>26.99507118663986</v>
       </c>
       <c r="AP10" t="n">
-        <v>17.67639564174297</v>
+        <v>13.41496200692728</v>
       </c>
       <c r="AQ10" t="n">
-        <v>9.692328683429961</v>
+        <v>24.13669428052256</v>
       </c>
       <c r="AR10" t="n">
-        <v>9.459154881834337</v>
+        <v>15.77845109793547</v>
       </c>
       <c r="AS10" t="n">
-        <v>13.55403986193896</v>
+        <v>7.460423628516297</v>
       </c>
       <c r="AT10" t="n">
-        <v>25.19726789503932</v>
+        <v>11.27978593478422</v>
       </c>
       <c r="AU10" t="n">
-        <v>11.24918423891181</v>
+        <v>7.801680187462217</v>
       </c>
       <c r="AV10" t="n">
-        <v>6.619585551390589</v>
+        <v>16.32427518385531</v>
       </c>
       <c r="AW10" t="n">
-        <v>10.10517653860603</v>
+        <v>8.929854358876414</v>
       </c>
       <c r="AX10" t="n">
-        <v>24.80954323409901</v>
+        <v>6.973118659301768</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>39.39210047355535</v>
+        <v>6.156349019841273</v>
       </c>
       <c r="D11" t="n">
-        <v>16.3870617626999</v>
+        <v>22.33317566632255</v>
       </c>
       <c r="E11" t="n">
-        <v>44.67825129642396</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>18.57692087817629</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>24.29434776025001</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>49.41878647335552</v>
+        <v>3.420512148634224</v>
       </c>
       <c r="I11" t="n">
-        <v>17.63281495212479</v>
+        <v>16.17402493699441</v>
       </c>
       <c r="J11" t="n">
-        <v>9.675541865640463</v>
+        <v>210.9451347389545</v>
       </c>
       <c r="K11" t="n">
-        <v>14.37708190851547</v>
+        <v>11.67951717944958</v>
       </c>
       <c r="L11" t="n">
-        <v>102.0940820095839</v>
+        <v>49.3465735201945</v>
       </c>
       <c r="M11" t="n">
-        <v>409.1900106332819</v>
+        <v>7.052742452091113</v>
       </c>
       <c r="N11" t="n">
-        <v>26.65282064282921</v>
+        <v>60.88439036141299</v>
       </c>
       <c r="O11" t="n">
-        <v>20.29164308209419</v>
+        <v>105.1326293256125</v>
       </c>
       <c r="P11" t="n">
-        <v>6.707623425101255</v>
+        <v>45.12882720930723</v>
       </c>
       <c r="Q11" t="n">
-        <v>70.20677331072197</v>
+        <v>33.43506606650803</v>
       </c>
       <c r="R11" t="n">
-        <v>12.70483096511437</v>
+        <v>103.5443832178577</v>
       </c>
       <c r="S11" t="n">
-        <v>104.1197103829254</v>
+        <v>83.9908681417957</v>
       </c>
       <c r="T11" t="n">
-        <v>19.48734216267838</v>
+        <v>71.35474841547443</v>
       </c>
       <c r="U11" t="n">
-        <v>119.4384962629967</v>
+        <v>40.91238502822048</v>
       </c>
       <c r="V11" t="n">
-        <v>12.35566210214938</v>
+        <v>33.33521297709942</v>
       </c>
       <c r="W11" t="n">
-        <v>108.5568150865195</v>
+        <v>10.53777238706193</v>
       </c>
       <c r="X11" t="n">
-        <v>65.98047436577791</v>
+        <v>31.63129360745298</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.43633701944892</v>
+        <v>47.1433978448614</v>
       </c>
       <c r="Z11" t="n">
-        <v>11.6517109797123</v>
+        <v>36.82161357904908</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.48588937975954</v>
+        <v>16.85464652378373</v>
       </c>
       <c r="AB11" t="n">
-        <v>15.30070494295609</v>
+        <v>41.645103910114</v>
       </c>
       <c r="AC11" t="n">
-        <v>42.1696388697233</v>
+        <v>28.79587918056805</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.63938015622877</v>
+        <v>24.03738624500404</v>
       </c>
       <c r="AE11" t="n">
-        <v>39.35884397211023</v>
+        <v>66.31538736799622</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.710790392904849</v>
+        <v>46.16620199496874</v>
       </c>
       <c r="AG11" t="n">
-        <v>22.6410759402902</v>
+        <v>26.63915004393371</v>
       </c>
       <c r="AH11" t="n">
-        <v>52.2525983051808</v>
+        <v>21.75639105732908</v>
       </c>
       <c r="AI11" t="n">
-        <v>89.34546903778026</v>
+        <v>17.2096914550939</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13.7294385556491</v>
+        <v>3.19469978096554</v>
       </c>
       <c r="AK11" t="n">
-        <v>49.6702845960062</v>
+        <v>53.50990185823063</v>
       </c>
       <c r="AL11" t="n">
-        <v>52.79245004538787</v>
+        <v>26.0120909172562</v>
       </c>
       <c r="AM11" t="n">
-        <v>4.446882432770622</v>
+        <v>41.8713883462462</v>
       </c>
       <c r="AN11" t="n">
-        <v>43.28480317482656</v>
+        <v>9.351137150713569</v>
       </c>
       <c r="AO11" t="n">
-        <v>21.9704257259957</v>
+        <v>38.1493392379567</v>
       </c>
       <c r="AP11" t="n">
-        <v>18.5764082409661</v>
+        <v>19.15443494911717</v>
       </c>
       <c r="AQ11" t="n">
-        <v>11.76830536629953</v>
+        <v>27.11652349428203</v>
       </c>
       <c r="AR11" t="n">
-        <v>8.495649252220668</v>
+        <v>21.73766854528395</v>
       </c>
       <c r="AS11" t="n">
-        <v>7.169719857002654</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>10.00769040118472</v>
+        <v>10.25357469541745</v>
       </c>
       <c r="AU11" t="n">
-        <v>18.51009371229829</v>
+        <v>25.17164420332249</v>
       </c>
       <c r="AV11" t="n">
-        <v>39.01780596571786</v>
+        <v>20.76092304457596</v>
       </c>
       <c r="AW11" t="n">
-        <v>9.597195875231179</v>
+        <v>30.1218594332194</v>
       </c>
       <c r="AX11" t="n">
-        <v>24.1800337789357</v>
+        <v>24.87091411539414</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>16.18828285465525</v>
+        <v>2.115105018773516</v>
       </c>
       <c r="D12" t="n">
-        <v>2.012554786708011</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>11.57016586821069</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3.851736931179473</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.525015983700631</v>
+        <v>13.23142847630272</v>
       </c>
       <c r="H12" t="n">
-        <v>8.856245121826765</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.746191457332792</v>
+        <v>18.86955628366199</v>
       </c>
       <c r="J12" t="n">
-        <v>10.87514029211873</v>
+        <v>35.32623090974546</v>
       </c>
       <c r="K12" t="n">
-        <v>11.01564971882595</v>
+        <v>16.29202161000316</v>
       </c>
       <c r="L12" t="n">
-        <v>10.37544855063959</v>
+        <v>14.44523279455639</v>
       </c>
       <c r="M12" t="n">
-        <v>33.53015193246801</v>
+        <v>60.59516609810408</v>
       </c>
       <c r="N12" t="n">
-        <v>4.510309544202554</v>
+        <v>31.57814771002381</v>
       </c>
       <c r="O12" t="n">
-        <v>41.25522023764405</v>
+        <v>29.69773898158644</v>
       </c>
       <c r="P12" t="n">
-        <v>26.21833587369882</v>
+        <v>79.01673387658904</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.85610578511576</v>
+        <v>10.51630311300231</v>
       </c>
       <c r="R12" t="n">
-        <v>55.27600693429336</v>
+        <v>35.07188224112737</v>
       </c>
       <c r="S12" t="n">
-        <v>16.45375460939687</v>
+        <v>34.03519241133454</v>
       </c>
       <c r="T12" t="n">
-        <v>17.85880850040834</v>
+        <v>13.87793332433447</v>
       </c>
       <c r="U12" t="n">
-        <v>9.528480224776594</v>
+        <v>21.44635531814947</v>
       </c>
       <c r="V12" t="n">
-        <v>39.48305330056466</v>
+        <v>16.93047200819379</v>
       </c>
       <c r="W12" t="n">
-        <v>26.34200258828602</v>
+        <v>30.49199338806034</v>
       </c>
       <c r="X12" t="n">
-        <v>52.08706457923722</v>
+        <v>6.124146072778898</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.86604562348394</v>
+        <v>18.66004014244272</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.31182146456133</v>
+        <v>16.38382208339945</v>
       </c>
       <c r="AA12" t="n">
-        <v>10.37116946841549</v>
+        <v>15.91526541178792</v>
       </c>
       <c r="AB12" t="n">
-        <v>16.29015496655674</v>
+        <v>12.61270163290064</v>
       </c>
       <c r="AC12" t="n">
-        <v>23.58734910871744</v>
+        <v>20.92898628092596</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.74882106037628</v>
+        <v>16.01077851936687</v>
       </c>
       <c r="AE12" t="n">
-        <v>12.80009293181813</v>
+        <v>26.4198460663494</v>
       </c>
       <c r="AF12" t="n">
-        <v>12.34328781406444</v>
+        <v>18.02998968736166</v>
       </c>
       <c r="AG12" t="n">
-        <v>7.81788168420104</v>
+        <v>24.30333063803303</v>
       </c>
       <c r="AH12" t="n">
-        <v>9.801225101859664</v>
+        <v>2.428214035155537</v>
       </c>
       <c r="AI12" t="n">
-        <v>5.557916716270611</v>
+        <v>29.07427746150892</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.950470503342801</v>
+        <v>9.890368747986123</v>
       </c>
       <c r="AK12" t="n">
-        <v>6.194705193106064</v>
+        <v>8.504326375639064</v>
       </c>
       <c r="AL12" t="n">
-        <v>6.076714678525665</v>
+        <v>2.373340392224689</v>
       </c>
       <c r="AM12" t="n">
-        <v>7.07104017393392</v>
+        <v>6.131010184994587</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.517579736044453</v>
+        <v>1.363172359790985</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.690093972852867</v>
+        <v>4.048602399449344</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.465977312819352</v>
+        <v>3.933224961777073</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4.281689454596886</v>
+        <v>9.208696675428214</v>
       </c>
       <c r="AR12" t="n">
-        <v>5.234658785170108</v>
+        <v>2.966648601328548</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.378567356539114</v>
+        <v>1.573343393957253</v>
       </c>
       <c r="AT12" t="n">
-        <v>4.432640431852056</v>
+        <v>6.273315459510966</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.4584560849673218</v>
+        <v>2.534914101124325</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.896789115202872</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.195384354903843</v>
+        <v>1.034535693583033</v>
       </c>
       <c r="AX12" t="n">
-        <v>1.024767428803551</v>
+        <v>3.592220960850393</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>18.99234756112008</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3.937884974331184</v>
+        <v>5.810275135126819</v>
       </c>
       <c r="E13" t="n">
-        <v>5.079647142671737</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>11.69625900507429</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>3.819160518967545</v>
+        <v>0.678043399242231</v>
       </c>
       <c r="H13" t="n">
-        <v>12.96595040532098</v>
+        <v>9.247676362765874</v>
       </c>
       <c r="I13" t="n">
-        <v>2.747765651521199</v>
+        <v>95.45575598502583</v>
       </c>
       <c r="J13" t="n">
-        <v>2.128184361499655</v>
+        <v>31.01938548128789</v>
       </c>
       <c r="K13" t="n">
-        <v>19.45976037036666</v>
+        <v>3.403299888098007</v>
       </c>
       <c r="L13" t="n">
-        <v>4.846904515867326</v>
+        <v>35.11738624804278</v>
       </c>
       <c r="M13" t="n">
-        <v>29.40276582693601</v>
+        <v>42.89315627195683</v>
       </c>
       <c r="N13" t="n">
-        <v>32.10331314423718</v>
+        <v>10.59878621309064</v>
       </c>
       <c r="O13" t="n">
-        <v>16.78034282684302</v>
+        <v>39.21602023002774</v>
       </c>
       <c r="P13" t="n">
-        <v>45.81686692688162</v>
+        <v>25.16436506213726</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.1579331113524</v>
+        <v>62.52284168348266</v>
       </c>
       <c r="R13" t="n">
-        <v>38.85690529740701</v>
+        <v>34.68668190108864</v>
       </c>
       <c r="S13" t="n">
-        <v>17.47772156711591</v>
+        <v>35.49587105560953</v>
       </c>
       <c r="T13" t="n">
-        <v>2.927656266973608</v>
+        <v>12.30535544002814</v>
       </c>
       <c r="U13" t="n">
-        <v>19.17151892910863</v>
+        <v>30.88150788774958</v>
       </c>
       <c r="V13" t="n">
-        <v>27.2191130749541</v>
+        <v>40.73606880183318</v>
       </c>
       <c r="W13" t="n">
-        <v>56.8859000615995</v>
+        <v>12.39820162597774</v>
       </c>
       <c r="X13" t="n">
-        <v>49.59053456733147</v>
+        <v>3.330508235508593</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.14939936012948</v>
+        <v>17.67631831286181</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.9260523519004</v>
+        <v>39.21200001324448</v>
       </c>
       <c r="AA13" t="n">
-        <v>47.25977612274576</v>
+        <v>55.75966642905168</v>
       </c>
       <c r="AB13" t="n">
-        <v>6.407024118652924</v>
+        <v>32.69576939083414</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.862813755251814</v>
+        <v>23.94481655590875</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.46221451071745</v>
+        <v>10.16830247778523</v>
       </c>
       <c r="AE13" t="n">
-        <v>12.25380948453603</v>
+        <v>25.90694166057357</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.466506920769042</v>
+        <v>27.18227393167946</v>
       </c>
       <c r="AG13" t="n">
-        <v>6.471390464375053</v>
+        <v>7.938129084813241</v>
       </c>
       <c r="AH13" t="n">
-        <v>5.002316976330752</v>
+        <v>6.685500810923076</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.668791217518685</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>22.42004757247008</v>
+        <v>6.64879425045581</v>
       </c>
       <c r="AK13" t="n">
-        <v>6.594194582388444</v>
+        <v>10.03079148593507</v>
       </c>
       <c r="AL13" t="n">
-        <v>3.038566981302801</v>
+        <v>1.609553504744296</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.756232545484242</v>
+        <v>12.21730018405936</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.370245726210483</v>
+        <v>2.535316793027855</v>
       </c>
       <c r="AO13" t="n">
-        <v>49.92954055924793</v>
+        <v>11.71482360129551</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.755449526867414</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.864340009925134</v>
+        <v>2.61400478337357</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.596640069545109</v>
+        <v>14.3861232177514</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.179426115112606</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.432385126316925</v>
+        <v>15.25468863532261</v>
       </c>
       <c r="AU13" t="n">
-        <v>24.19498280375785</v>
+        <v>22.53849778278001</v>
       </c>
       <c r="AV13" t="n">
-        <v>12.84954636955711</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>30.8457121810223</v>
+        <v>3.221514099913942</v>
       </c>
       <c r="AX13" t="n">
-        <v>16.8342993389133</v>
+        <v>14.89294206230377</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>11.19603486903227</v>
+        <v>17.7318413621576</v>
       </c>
       <c r="D14" t="n">
-        <v>49.90881877976409</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>21.04791010766405</v>
+        <v>16.64791775709846</v>
       </c>
       <c r="F14" t="n">
-        <v>39.0418479854569</v>
+        <v>19.51758261807986</v>
       </c>
       <c r="G14" t="n">
-        <v>27.87349758811812</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>39.08757514181374</v>
+        <v>9.896564199972717</v>
       </c>
       <c r="I14" t="n">
-        <v>93.55788680693901</v>
+        <v>32.17641224755167</v>
       </c>
       <c r="J14" t="n">
-        <v>25.34448509623729</v>
+        <v>9.508346864888424</v>
       </c>
       <c r="K14" t="n">
-        <v>31.03558042635979</v>
+        <v>78.94876044601895</v>
       </c>
       <c r="L14" t="n">
-        <v>74.59915659036304</v>
+        <v>26.13849421278125</v>
       </c>
       <c r="M14" t="n">
-        <v>47.9463928524693</v>
+        <v>28.60291900929849</v>
       </c>
       <c r="N14" t="n">
-        <v>37.43009572870173</v>
+        <v>85.19065678065115</v>
       </c>
       <c r="O14" t="n">
-        <v>110.5725322300185</v>
+        <v>279.0071359234125</v>
       </c>
       <c r="P14" t="n">
-        <v>204.3820357919882</v>
+        <v>9.333848731519339</v>
       </c>
       <c r="Q14" t="n">
-        <v>93.1038852032848</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>52.45314165747263</v>
+        <v>56.48091422216618</v>
       </c>
       <c r="S14" t="n">
-        <v>86.84805720419999</v>
+        <v>53.16439783227148</v>
       </c>
       <c r="T14" t="n">
-        <v>24.76721135980302</v>
+        <v>56.36640058097107</v>
       </c>
       <c r="U14" t="n">
-        <v>36.9489584954466</v>
+        <v>95.45105223981879</v>
       </c>
       <c r="V14" t="n">
-        <v>48.5064647836923</v>
+        <v>18.77870008724154</v>
       </c>
       <c r="W14" t="n">
-        <v>54.65108147444312</v>
+        <v>51.93428512922185</v>
       </c>
       <c r="X14" t="n">
-        <v>105.9996993791386</v>
+        <v>63.8788510898685</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.35348057403571</v>
+        <v>44.04182438770709</v>
       </c>
       <c r="Z14" t="n">
-        <v>81.53190257765665</v>
+        <v>64.03908154746192</v>
       </c>
       <c r="AA14" t="n">
-        <v>108.2505176226304</v>
+        <v>58.31409217137721</v>
       </c>
       <c r="AB14" t="n">
-        <v>123.2924675464695</v>
+        <v>81.08968899944834</v>
       </c>
       <c r="AC14" t="n">
-        <v>51.32508743019473</v>
+        <v>125.5273160094256</v>
       </c>
       <c r="AD14" t="n">
-        <v>96.54381459531527</v>
+        <v>117.931847764245</v>
       </c>
       <c r="AE14" t="n">
-        <v>80.76460720922474</v>
+        <v>88.5344734109328</v>
       </c>
       <c r="AF14" t="n">
-        <v>96.80273856788335</v>
+        <v>151.3393450266001</v>
       </c>
       <c r="AG14" t="n">
-        <v>44.09792319964647</v>
+        <v>56.26133316512089</v>
       </c>
       <c r="AH14" t="n">
-        <v>140.9784224449639</v>
+        <v>119.0056286974006</v>
       </c>
       <c r="AI14" t="n">
-        <v>90.83116268056899</v>
+        <v>56.66595432093333</v>
       </c>
       <c r="AJ14" t="n">
-        <v>184.7569588113286</v>
+        <v>94.84901128427816</v>
       </c>
       <c r="AK14" t="n">
-        <v>27.47666064061679</v>
+        <v>61.7167542657382</v>
       </c>
       <c r="AL14" t="n">
-        <v>44.01940565214273</v>
+        <v>65.92791802517891</v>
       </c>
       <c r="AM14" t="n">
-        <v>30.09056682777062</v>
+        <v>30.33572940203396</v>
       </c>
       <c r="AN14" t="n">
-        <v>27.45237260682606</v>
+        <v>33.07461240196619</v>
       </c>
       <c r="AO14" t="n">
-        <v>19.91313062605797</v>
+        <v>31.98092570491255</v>
       </c>
       <c r="AP14" t="n">
-        <v>29.4959434882498</v>
+        <v>32.35027251596887</v>
       </c>
       <c r="AQ14" t="n">
-        <v>21.75286272917197</v>
+        <v>21.31440660314784</v>
       </c>
       <c r="AR14" t="n">
-        <v>12.32715282048721</v>
+        <v>24.25746573165545</v>
       </c>
       <c r="AS14" t="n">
-        <v>15.45767241857004</v>
+        <v>46.13489855283093</v>
       </c>
       <c r="AT14" t="n">
-        <v>16.35708887600847</v>
+        <v>12.90287904475313</v>
       </c>
       <c r="AU14" t="n">
-        <v>20.81323026933537</v>
+        <v>31.06749161350424</v>
       </c>
       <c r="AV14" t="n">
-        <v>24.61965676579456</v>
+        <v>29.22212149674637</v>
       </c>
       <c r="AW14" t="n">
-        <v>8.778663309522614</v>
+        <v>17.88836477816031</v>
       </c>
       <c r="AX14" t="n">
-        <v>32.09466560591385</v>
+        <v>41.20156944219638</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>12.97076948802204</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>4.337320114461741</v>
+        <v>3.606439583449145</v>
       </c>
       <c r="E15" t="n">
-        <v>0.158046478990489</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>3.300597512895084</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>5.720183491629909</v>
+        <v>2.220136206057113</v>
       </c>
       <c r="H15" t="n">
-        <v>2.171635008893605</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.390377373675927</v>
+        <v>12.12843324677189</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05750711035914247</v>
+        <v>2.417069304851505</v>
       </c>
       <c r="K15" t="n">
-        <v>5.247259490056753</v>
+        <v>2.068822215965354</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3475265716869961</v>
+        <v>0.5529986674976977</v>
       </c>
       <c r="M15" t="n">
-        <v>1.411319154541033</v>
+        <v>6.311379325638376</v>
       </c>
       <c r="N15" t="n">
-        <v>10.17440010776729</v>
+        <v>1.50875272845872</v>
       </c>
       <c r="O15" t="n">
-        <v>1.472363289041182</v>
+        <v>2.955676509763969</v>
       </c>
       <c r="P15" t="n">
-        <v>2.782095843705559</v>
+        <v>0.5805378980585141</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.610936126320724</v>
+        <v>5.684560085346004</v>
       </c>
       <c r="R15" t="n">
-        <v>0.8951279887878545</v>
+        <v>3.519360820435318</v>
       </c>
       <c r="S15" t="n">
-        <v>2.586197255992797</v>
+        <v>8.64348414708514</v>
       </c>
       <c r="T15" t="n">
-        <v>1.151066447293271</v>
+        <v>2.929508492436502</v>
       </c>
       <c r="U15" t="n">
-        <v>7.843352238568972</v>
+        <v>2.089064727512181</v>
       </c>
       <c r="V15" t="n">
-        <v>1.751969848506103</v>
+        <v>2.800321854031251</v>
       </c>
       <c r="W15" t="n">
-        <v>4.705562996509195</v>
+        <v>3.471494478726799</v>
       </c>
       <c r="X15" t="n">
-        <v>1.743807444919584</v>
+        <v>1.986402559606828</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.30348576251928</v>
+        <v>6.131324407315576</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.752048990781294</v>
+        <v>5.874455224201779</v>
       </c>
       <c r="AA15" t="n">
-        <v>9.834639374539414</v>
+        <v>5.161068668698613</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.974224528763613</v>
+        <v>2.914486269444804</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.49778627533846</v>
+        <v>4.131194579220192</v>
       </c>
       <c r="AD15" t="n">
-        <v>3.89965590586147</v>
+        <v>3.260109466398945</v>
       </c>
       <c r="AE15" t="n">
-        <v>10.55347885836406</v>
+        <v>3.478386461204944</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.648920287428812</v>
+        <v>6.923808810797923</v>
       </c>
       <c r="AG15" t="n">
-        <v>3.173794552710701</v>
+        <v>6.737167632116439</v>
       </c>
       <c r="AH15" t="n">
-        <v>4.897821260664063</v>
+        <v>1.488288098953014</v>
       </c>
       <c r="AI15" t="n">
-        <v>7.030780137661053</v>
+        <v>6.479205316791526</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10.29952788192186</v>
+        <v>7.861062803497433</v>
       </c>
       <c r="AK15" t="n">
-        <v>14.84064168769719</v>
+        <v>1.708724782892054</v>
       </c>
       <c r="AL15" t="n">
-        <v>4.457551558190253</v>
+        <v>6.407668209957327</v>
       </c>
       <c r="AM15" t="n">
-        <v>5.402991473159084</v>
+        <v>5.172267611953511</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.215568432664898</v>
+        <v>6.594998537443596</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.773649408953831</v>
+        <v>2.178468269314305</v>
       </c>
       <c r="AP15" t="n">
-        <v>4.587940053244008</v>
+        <v>3.071948457338852</v>
       </c>
       <c r="AQ15" t="n">
-        <v>5.826937864591293</v>
+        <v>5.611938048482787</v>
       </c>
       <c r="AR15" t="n">
-        <v>11.78207891071979</v>
+        <v>3.954254158568116</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.819012136220965</v>
+        <v>3.186855347601159</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.29862061302827</v>
+        <v>4.792159570115398</v>
       </c>
       <c r="AU15" t="n">
-        <v>1.252991578716341</v>
+        <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>1.14913226034295</v>
+        <v>3.783620379513375</v>
       </c>
       <c r="AW15" t="n">
-        <v>2.169844826990756</v>
+        <v>4.486863109726537</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.7024557976772541</v>
+        <v>3.536264735446904</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>11.24522374712461</v>
+        <v>9.760940486483122</v>
       </c>
       <c r="D16" t="n">
-        <v>11.72182146337288</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>11.90897343909032</v>
+        <v>0.2866234899129427</v>
       </c>
       <c r="F16" t="n">
-        <v>21.3733131967721</v>
+        <v>41.26815897067733</v>
       </c>
       <c r="G16" t="n">
-        <v>5.105385228093324</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.327887665136556</v>
+        <v>5.597585729431406</v>
       </c>
       <c r="I16" t="n">
-        <v>12.60672243225799</v>
+        <v>4.048682242435877</v>
       </c>
       <c r="J16" t="n">
-        <v>26.82468924312613</v>
+        <v>35.58720650261296</v>
       </c>
       <c r="K16" t="n">
-        <v>99.06210465582575</v>
+        <v>82.71400850058028</v>
       </c>
       <c r="L16" t="n">
-        <v>43.14869457879436</v>
+        <v>20.16881858275405</v>
       </c>
       <c r="M16" t="n">
-        <v>59.8157323043124</v>
+        <v>25.35413710662251</v>
       </c>
       <c r="N16" t="n">
-        <v>30.80149976932869</v>
+        <v>130.161164373626</v>
       </c>
       <c r="O16" t="n">
-        <v>67.4898433085305</v>
+        <v>34.42978569885408</v>
       </c>
       <c r="P16" t="n">
-        <v>55.51709562020935</v>
+        <v>165.6779766558192</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.82888383066589</v>
+        <v>167.1713523997308</v>
       </c>
       <c r="R16" t="n">
-        <v>48.48488891383742</v>
+        <v>65.99522062310902</v>
       </c>
       <c r="S16" t="n">
-        <v>102.8812021409872</v>
+        <v>38.17225050825473</v>
       </c>
       <c r="T16" t="n">
-        <v>124.8028044405119</v>
+        <v>54.80916308092324</v>
       </c>
       <c r="U16" t="n">
-        <v>77.3120406329233</v>
+        <v>43.69715900477527</v>
       </c>
       <c r="V16" t="n">
-        <v>24.40000240182648</v>
+        <v>47.80054694953128</v>
       </c>
       <c r="W16" t="n">
-        <v>37.64328866883713</v>
+        <v>55.74601721300562</v>
       </c>
       <c r="X16" t="n">
-        <v>56.75752546858998</v>
+        <v>60.59408295295855</v>
       </c>
       <c r="Y16" t="n">
-        <v>37.96156818626947</v>
+        <v>40.45374051501733</v>
       </c>
       <c r="Z16" t="n">
-        <v>51.43384967061738</v>
+        <v>62.85480295723717</v>
       </c>
       <c r="AA16" t="n">
-        <v>53.36977299962786</v>
+        <v>34.4640225028574</v>
       </c>
       <c r="AB16" t="n">
-        <v>66.73872112135403</v>
+        <v>38.37300208539973</v>
       </c>
       <c r="AC16" t="n">
-        <v>101.0013861151937</v>
+        <v>94.95510545242216</v>
       </c>
       <c r="AD16" t="n">
-        <v>110.5903550545759</v>
+        <v>124.1335569794861</v>
       </c>
       <c r="AE16" t="n">
-        <v>74.33287512133769</v>
+        <v>71.61971430551984</v>
       </c>
       <c r="AF16" t="n">
-        <v>100.8296155122565</v>
+        <v>35.14251089099859</v>
       </c>
       <c r="AG16" t="n">
-        <v>51.48528051020501</v>
+        <v>48.24614355024288</v>
       </c>
       <c r="AH16" t="n">
-        <v>22.58828718964383</v>
+        <v>87.53567330489517</v>
       </c>
       <c r="AI16" t="n">
-        <v>21.35779329603674</v>
+        <v>54.41207705909058</v>
       </c>
       <c r="AJ16" t="n">
-        <v>231.3723711422338</v>
+        <v>44.99291853378603</v>
       </c>
       <c r="AK16" t="n">
-        <v>23.72312843651302</v>
+        <v>53.35914363005383</v>
       </c>
       <c r="AL16" t="n">
-        <v>93.92439781870172</v>
+        <v>42.07065344021117</v>
       </c>
       <c r="AM16" t="n">
-        <v>40.99629770938085</v>
+        <v>5.744681014284321</v>
       </c>
       <c r="AN16" t="n">
-        <v>8.837803327960637</v>
+        <v>25.16958963155686</v>
       </c>
       <c r="AO16" t="n">
-        <v>20.5066666053965</v>
+        <v>26.04430238780626</v>
       </c>
       <c r="AP16" t="n">
-        <v>15.39254948805964</v>
+        <v>11.64329013894632</v>
       </c>
       <c r="AQ16" t="n">
-        <v>18.92406280716149</v>
+        <v>12.69747586674903</v>
       </c>
       <c r="AR16" t="n">
-        <v>24.32646018643574</v>
+        <v>11.64537747733061</v>
       </c>
       <c r="AS16" t="n">
-        <v>9.257319321519217</v>
+        <v>8.00249727688681</v>
       </c>
       <c r="AT16" t="n">
-        <v>17.80522366661891</v>
+        <v>12.28810581729212</v>
       </c>
       <c r="AU16" t="n">
-        <v>15.60335703106687</v>
+        <v>13.46863664272629</v>
       </c>
       <c r="AV16" t="n">
-        <v>14.29616093457192</v>
+        <v>14.6491304254063</v>
       </c>
       <c r="AW16" t="n">
-        <v>10.16521196427162</v>
+        <v>8.959757477289095</v>
       </c>
       <c r="AX16" t="n">
-        <v>6.263317379876082</v>
+        <v>8.420860244754644</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>36.71290197013271</v>
+        <v>21.97159033194798</v>
       </c>
       <c r="D17" t="n">
-        <v>5.601624156038653</v>
+        <v>35.76311272164965</v>
       </c>
       <c r="E17" t="n">
-        <v>5.271087815831166</v>
+        <v>29.10805681860918</v>
       </c>
       <c r="F17" t="n">
-        <v>5.251072135989182</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>8.533584935660445</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>61.57842470509563</v>
+        <v>14.36388399482935</v>
       </c>
       <c r="I17" t="n">
-        <v>39.78764991248796</v>
+        <v>24.58811369064804</v>
       </c>
       <c r="J17" t="n">
-        <v>46.91872896873129</v>
+        <v>11.05295852013927</v>
       </c>
       <c r="K17" t="n">
-        <v>30.0388724704797</v>
+        <v>87.29644472610107</v>
       </c>
       <c r="L17" t="n">
-        <v>24.80742533329902</v>
+        <v>4.117129735546427</v>
       </c>
       <c r="M17" t="n">
-        <v>42.05659201001103</v>
+        <v>300.4395205602783</v>
       </c>
       <c r="N17" t="n">
-        <v>47.24246964545255</v>
+        <v>42.32756584582113</v>
       </c>
       <c r="O17" t="n">
-        <v>40.35594607993919</v>
+        <v>25.54851327974324</v>
       </c>
       <c r="P17" t="n">
-        <v>12.83221287746419</v>
+        <v>11.19186724538216</v>
       </c>
       <c r="Q17" t="n">
-        <v>26.37777719338939</v>
+        <v>10.41215988126621</v>
       </c>
       <c r="R17" t="n">
-        <v>12.67077130290403</v>
+        <v>33.65043920705889</v>
       </c>
       <c r="S17" t="n">
-        <v>63.71775994949812</v>
+        <v>68.25977178694951</v>
       </c>
       <c r="T17" t="n">
-        <v>153.9203644231705</v>
+        <v>46.75916957805795</v>
       </c>
       <c r="U17" t="n">
-        <v>84.6554690573056</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>55.77722917265064</v>
+        <v>83.76591502622021</v>
       </c>
       <c r="W17" t="n">
-        <v>17.59646236886299</v>
+        <v>95.48154065609899</v>
       </c>
       <c r="X17" t="n">
-        <v>61.8336530044356</v>
+        <v>73.23812953983197</v>
       </c>
       <c r="Y17" t="n">
-        <v>28.34876263418944</v>
+        <v>25.23216894915986</v>
       </c>
       <c r="Z17" t="n">
-        <v>100.7611538749217</v>
+        <v>55.50666919370218</v>
       </c>
       <c r="AA17" t="n">
-        <v>38.87323659037593</v>
+        <v>37.93433573667525</v>
       </c>
       <c r="AB17" t="n">
-        <v>53.50815024681273</v>
+        <v>21.91382749864533</v>
       </c>
       <c r="AC17" t="n">
-        <v>48.47248606857573</v>
+        <v>10.80069894748568</v>
       </c>
       <c r="AD17" t="n">
-        <v>28.65636510890143</v>
+        <v>34.05766966024151</v>
       </c>
       <c r="AE17" t="n">
-        <v>57.23376629844582</v>
+        <v>36.01169904782342</v>
       </c>
       <c r="AF17" t="n">
-        <v>14.54238117697275</v>
+        <v>10.7977811656178</v>
       </c>
       <c r="AG17" t="n">
-        <v>58.48366968564024</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>48.82757534115179</v>
+        <v>17.82683869990711</v>
       </c>
       <c r="AI17" t="n">
-        <v>10.8367858731046</v>
+        <v>46.83343804903937</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2.571349902770729</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>4.811298607566318</v>
+        <v>23.14948349192114</v>
       </c>
       <c r="AL17" t="n">
-        <v>34.14319975706325</v>
+        <v>2.251052233641373</v>
       </c>
       <c r="AM17" t="n">
-        <v>26.52099811956563</v>
+        <v>14.20619679869636</v>
       </c>
       <c r="AN17" t="n">
-        <v>20.22284154062886</v>
+        <v>40.11902959461745</v>
       </c>
       <c r="AO17" t="n">
-        <v>14.00601986993589</v>
+        <v>30.52078836532054</v>
       </c>
       <c r="AP17" t="n">
-        <v>37.02563169261198</v>
+        <v>25.92170693514228</v>
       </c>
       <c r="AQ17" t="n">
-        <v>36.65210756626087</v>
+        <v>22.31023627247347</v>
       </c>
       <c r="AR17" t="n">
-        <v>27.35401149482645</v>
+        <v>37.45271520633252</v>
       </c>
       <c r="AS17" t="n">
-        <v>53.83022802879773</v>
+        <v>4.512696758469039</v>
       </c>
       <c r="AT17" t="n">
-        <v>91.34223401328823</v>
+        <v>24.1342718680942</v>
       </c>
       <c r="AU17" t="n">
-        <v>7.667478070507632</v>
+        <v>18.24631979515486</v>
       </c>
       <c r="AV17" t="n">
-        <v>183.5636975278753</v>
+        <v>16.57209589063105</v>
       </c>
       <c r="AW17" t="n">
-        <v>23.54602774767913</v>
+        <v>23.59649335585379</v>
       </c>
       <c r="AX17" t="n">
-        <v>22.87882307261808</v>
+        <v>25.16998822612523</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>5.86717476970908</v>
+        <v>2.9026815855377</v>
       </c>
       <c r="D18" t="n">
-        <v>2.529553830118579</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>2.152467753840936</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>14.48988338417307</v>
+        <v>4.651062916548807</v>
       </c>
       <c r="G18" t="n">
-        <v>3.118146768744719</v>
+        <v>3.319526459415822</v>
       </c>
       <c r="H18" t="n">
-        <v>53.23953461204153</v>
+        <v>6.142831582173359</v>
       </c>
       <c r="I18" t="n">
-        <v>6.838544384476594</v>
+        <v>27.3931063941612</v>
       </c>
       <c r="J18" t="n">
-        <v>3.314857470095704</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>9.68705083244048</v>
+        <v>2.184073226858027</v>
       </c>
       <c r="L18" t="n">
-        <v>5.446856864509358</v>
+        <v>17.51873077247819</v>
       </c>
       <c r="M18" t="n">
-        <v>5.777539552270232</v>
+        <v>14.46480246633925</v>
       </c>
       <c r="N18" t="n">
-        <v>37.7949588588541</v>
+        <v>28.52085750640294</v>
       </c>
       <c r="O18" t="n">
-        <v>64.9290962261659</v>
+        <v>20.78119272748094</v>
       </c>
       <c r="P18" t="n">
-        <v>5.949845571280457</v>
+        <v>13.11096602502866</v>
       </c>
       <c r="Q18" t="n">
-        <v>37.77798374793586</v>
+        <v>17.3179626863759</v>
       </c>
       <c r="R18" t="n">
-        <v>14.85966190898361</v>
+        <v>82.67784856712315</v>
       </c>
       <c r="S18" t="n">
-        <v>11.82666841416223</v>
+        <v>12.03107775294835</v>
       </c>
       <c r="T18" t="n">
-        <v>29.23059849357974</v>
+        <v>12.39908772319424</v>
       </c>
       <c r="U18" t="n">
-        <v>38.46362923737986</v>
+        <v>7.026519156987255</v>
       </c>
       <c r="V18" t="n">
-        <v>11.12645967569205</v>
+        <v>53.98368291944634</v>
       </c>
       <c r="W18" t="n">
-        <v>14.14477380699307</v>
+        <v>10.53873188690544</v>
       </c>
       <c r="X18" t="n">
-        <v>24.71239663373842</v>
+        <v>15.50255358351149</v>
       </c>
       <c r="Y18" t="n">
-        <v>28.36549260317633</v>
+        <v>25.98280551330032</v>
       </c>
       <c r="Z18" t="n">
-        <v>27.48430680643721</v>
+        <v>11.7951673866769</v>
       </c>
       <c r="AA18" t="n">
-        <v>15.79463367470251</v>
+        <v>13.57820304626297</v>
       </c>
       <c r="AB18" t="n">
-        <v>17.44752748393013</v>
+        <v>6.863359143110026</v>
       </c>
       <c r="AC18" t="n">
-        <v>17.7405220989798</v>
+        <v>41.51268239426913</v>
       </c>
       <c r="AD18" t="n">
-        <v>8.776450646804809</v>
+        <v>25.10582200617961</v>
       </c>
       <c r="AE18" t="n">
-        <v>31.57432846694671</v>
+        <v>18.45259782011627</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.48446770915894</v>
+        <v>16.89132241299362</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.15061123077339</v>
+        <v>5.546806522754242</v>
       </c>
       <c r="AH18" t="n">
-        <v>15.47268429647483</v>
+        <v>22.75513902384061</v>
       </c>
       <c r="AI18" t="n">
-        <v>8.641730023850844</v>
+        <v>20.43949175236685</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5.89978491430977</v>
+        <v>5.157415877513405</v>
       </c>
       <c r="AK18" t="n">
-        <v>14.75091071699149</v>
+        <v>5.684341308582431</v>
       </c>
       <c r="AL18" t="n">
-        <v>2.313427620209299</v>
+        <v>3.314843747496623</v>
       </c>
       <c r="AM18" t="n">
-        <v>2.215815980338332</v>
+        <v>5.057694941603089</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.537608752005625</v>
+        <v>2.194635747662761</v>
       </c>
       <c r="AO18" t="n">
-        <v>4.003853025556589</v>
+        <v>2.806414072108409</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.110186929298463</v>
+        <v>4.17915834335289</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.513029926134593</v>
+        <v>4.558543321443996</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.092030876010362</v>
+        <v>4.765981078763014</v>
       </c>
       <c r="AS18" t="n">
-        <v>3.851094850544644</v>
+        <v>3.446179942638781</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.969467382402469</v>
+        <v>0.6867860806011147</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.8183315357074963</v>
+        <v>6.252748453614402</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.9103684286744418</v>
+        <v>0.4861370545050003</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.465982377754287</v>
+        <v>2.934924717533586</v>
       </c>
       <c r="AX18" t="n">
-        <v>2.892266491011015</v>
+        <v>1.635983327692847</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>17.78071301459042</v>
+        <v>23.21367271051084</v>
       </c>
       <c r="D19" t="n">
-        <v>30.39602031092242</v>
+        <v>5.093819257659492</v>
       </c>
       <c r="E19" t="n">
-        <v>8.71820659002085</v>
+        <v>6.032931787956604</v>
       </c>
       <c r="F19" t="n">
-        <v>4.406611601106528</v>
+        <v>33.76252407719426</v>
       </c>
       <c r="G19" t="n">
-        <v>8.50782006959809</v>
+        <v>27.02277597048474</v>
       </c>
       <c r="H19" t="n">
-        <v>4.871008254609028</v>
+        <v>70.4902046676273</v>
       </c>
       <c r="I19" t="n">
-        <v>15.14170336522568</v>
+        <v>18.32674443845637</v>
       </c>
       <c r="J19" t="n">
-        <v>1.919913070770128</v>
+        <v>3.12923155212642</v>
       </c>
       <c r="K19" t="n">
-        <v>1.629736485733219</v>
+        <v>56.73412643127968</v>
       </c>
       <c r="L19" t="n">
-        <v>6.271919975462398</v>
+        <v>68.71467600620775</v>
       </c>
       <c r="M19" t="n">
-        <v>9.700774989872194</v>
+        <v>2.6471838639161</v>
       </c>
       <c r="N19" t="n">
-        <v>117.1628301493194</v>
+        <v>107.314044809224</v>
       </c>
       <c r="O19" t="n">
-        <v>17.87165977649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>63.0486904198191</v>
+        <v>39.67406345582694</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.45646590699343</v>
+        <v>17.46945034616992</v>
       </c>
       <c r="R19" t="n">
-        <v>4.512792529553176</v>
+        <v>33.37475285270485</v>
       </c>
       <c r="S19" t="n">
-        <v>56.43379800967916</v>
+        <v>33.13846055913434</v>
       </c>
       <c r="T19" t="n">
-        <v>13.89120533792424</v>
+        <v>18.75060782323809</v>
       </c>
       <c r="U19" t="n">
-        <v>2.604545359685407</v>
+        <v>32.44370020605623</v>
       </c>
       <c r="V19" t="n">
-        <v>3.671416692918502</v>
+        <v>21.19797283480178</v>
       </c>
       <c r="W19" t="n">
-        <v>27.97737360978148</v>
+        <v>37.80632540105021</v>
       </c>
       <c r="X19" t="n">
-        <v>4.840895299674055</v>
+        <v>24.55632778041146</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.34034123369747</v>
+        <v>1.347992348720425</v>
       </c>
       <c r="Z19" t="n">
-        <v>129.7666297562941</v>
+        <v>10.67157051119513</v>
       </c>
       <c r="AA19" t="n">
-        <v>42.44360027065598</v>
+        <v>5.772621797025251</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.19594897460532</v>
+        <v>30.2411127876508</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.54831732126667</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>3.426951158390069</v>
+        <v>15.98595282038947</v>
       </c>
       <c r="AE19" t="n">
-        <v>16.25324466339509</v>
+        <v>3.402295981404402</v>
       </c>
       <c r="AF19" t="n">
-        <v>18.67543664611437</v>
+        <v>16.39482254867252</v>
       </c>
       <c r="AG19" t="n">
-        <v>8.843581824292764</v>
+        <v>28.48946653835963</v>
       </c>
       <c r="AH19" t="n">
-        <v>9.29423988723179</v>
+        <v>24.52757957318754</v>
       </c>
       <c r="AI19" t="n">
-        <v>2.466798611286724</v>
+        <v>0.06697944570581837</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7.248724674870733</v>
+        <v>11.86588956485524</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.2198339699155432</v>
+        <v>2.106299577542696</v>
       </c>
       <c r="AL19" t="n">
-        <v>15.52926901131935</v>
+        <v>17.68020066939517</v>
       </c>
       <c r="AM19" t="n">
-        <v>9.146782445613267</v>
+        <v>71.87216726682398</v>
       </c>
       <c r="AN19" t="n">
-        <v>12.14233126381897</v>
+        <v>5.215040859158897</v>
       </c>
       <c r="AO19" t="n">
-        <v>5.238862437658876</v>
+        <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>2.912291406355333</v>
+        <v>0.5469809741270995</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.575805092528968</v>
+        <v>1.881251176261194</v>
       </c>
       <c r="AR19" t="n">
-        <v>3.082523090831311</v>
+        <v>8.70901254013167</v>
       </c>
       <c r="AS19" t="n">
-        <v>4.252297784583735</v>
+        <v>8.077482338570199</v>
       </c>
       <c r="AT19" t="n">
-        <v>4.257731218725917</v>
+        <v>0.1084599139026844</v>
       </c>
       <c r="AU19" t="n">
-        <v>4.550060845360126</v>
+        <v>2.778139567122348</v>
       </c>
       <c r="AV19" t="n">
-        <v>2.074751666070421</v>
+        <v>7.097179747712397</v>
       </c>
       <c r="AW19" t="n">
-        <v>1.106574150068912</v>
+        <v>5.709860323297631</v>
       </c>
       <c r="AX19" t="n">
-        <v>2.373060745615258</v>
+        <v>25.27977161290972</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>25.2123295476898</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>22.38082250921123</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>20.44427248800013</v>
+        <v>3.64981808259315</v>
       </c>
       <c r="F20" t="n">
-        <v>16.74592633264163</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>17.74603568935404</v>
+        <v>60.93005592492086</v>
       </c>
       <c r="H20" t="n">
-        <v>66.89212508784215</v>
+        <v>51.80822665789898</v>
       </c>
       <c r="I20" t="n">
-        <v>89.52351172782346</v>
+        <v>13.54744308903975</v>
       </c>
       <c r="J20" t="n">
-        <v>44.66833060716337</v>
+        <v>7.278922125032118</v>
       </c>
       <c r="K20" t="n">
-        <v>83.45882417387445</v>
+        <v>38.68145596078274</v>
       </c>
       <c r="L20" t="n">
-        <v>49.87787080153549</v>
+        <v>20.72120806564072</v>
       </c>
       <c r="M20" t="n">
-        <v>47.12231913288724</v>
+        <v>30.53422726646075</v>
       </c>
       <c r="N20" t="n">
-        <v>135.7839345644821</v>
+        <v>70.16724854753689</v>
       </c>
       <c r="O20" t="n">
-        <v>127.3523773064601</v>
+        <v>47.16634612400743</v>
       </c>
       <c r="P20" t="n">
-        <v>17.78315871705403</v>
+        <v>55.02349331696866</v>
       </c>
       <c r="Q20" t="n">
-        <v>19.3814086976809</v>
+        <v>47.89722855259172</v>
       </c>
       <c r="R20" t="n">
-        <v>46.76042142253899</v>
+        <v>53.63261457197944</v>
       </c>
       <c r="S20" t="n">
-        <v>40.37411626024317</v>
+        <v>71.54803400337741</v>
       </c>
       <c r="T20" t="n">
-        <v>36.88372593338237</v>
+        <v>60.70731245793525</v>
       </c>
       <c r="U20" t="n">
-        <v>19.63376444417952</v>
+        <v>45.36508972305141</v>
       </c>
       <c r="V20" t="n">
-        <v>67.67725525909105</v>
+        <v>81.62879245797919</v>
       </c>
       <c r="W20" t="n">
-        <v>88.95704451041537</v>
+        <v>55.18610683791495</v>
       </c>
       <c r="X20" t="n">
-        <v>56.09715585935557</v>
+        <v>184.0714409829686</v>
       </c>
       <c r="Y20" t="n">
-        <v>86.21674942956307</v>
+        <v>51.40402056383082</v>
       </c>
       <c r="Z20" t="n">
-        <v>47.57370432797335</v>
+        <v>127.4284600115177</v>
       </c>
       <c r="AA20" t="n">
-        <v>69.5183003513293</v>
+        <v>72.12814815221607</v>
       </c>
       <c r="AB20" t="n">
-        <v>60.43596785850891</v>
+        <v>87.10950211926087</v>
       </c>
       <c r="AC20" t="n">
-        <v>79.50211323343356</v>
+        <v>64.43446377633194</v>
       </c>
       <c r="AD20" t="n">
-        <v>74.31145166938165</v>
+        <v>175.0994798354867</v>
       </c>
       <c r="AE20" t="n">
-        <v>91.33224451096476</v>
+        <v>97.22480128789817</v>
       </c>
       <c r="AF20" t="n">
-        <v>41.12349955187458</v>
+        <v>50.06410550746894</v>
       </c>
       <c r="AG20" t="n">
-        <v>124.2242930602022</v>
+        <v>100.1683161312451</v>
       </c>
       <c r="AH20" t="n">
-        <v>175.8992479751053</v>
+        <v>45.02835151613527</v>
       </c>
       <c r="AI20" t="n">
-        <v>61.78972148364076</v>
+        <v>52.18523638666893</v>
       </c>
       <c r="AJ20" t="n">
-        <v>25.11395920337874</v>
+        <v>50.46377632334882</v>
       </c>
       <c r="AK20" t="n">
-        <v>52.09570284475841</v>
+        <v>15.72901109854735</v>
       </c>
       <c r="AL20" t="n">
-        <v>33.48940678365075</v>
+        <v>39.74638897744642</v>
       </c>
       <c r="AM20" t="n">
-        <v>83.7140924504437</v>
+        <v>66.95907951140479</v>
       </c>
       <c r="AN20" t="n">
-        <v>53.15375324714137</v>
+        <v>53.74000485993926</v>
       </c>
       <c r="AO20" t="n">
-        <v>38.23113539692312</v>
+        <v>21.37361504467975</v>
       </c>
       <c r="AP20" t="n">
-        <v>16.51659184909706</v>
+        <v>18.48016873821203</v>
       </c>
       <c r="AQ20" t="n">
-        <v>16.03599230405964</v>
+        <v>26.95630517977746</v>
       </c>
       <c r="AR20" t="n">
-        <v>33.9917850252903</v>
+        <v>29.40312456510462</v>
       </c>
       <c r="AS20" t="n">
-        <v>20.53978163419445</v>
+        <v>20.38406927793683</v>
       </c>
       <c r="AT20" t="n">
-        <v>35.70681687599365</v>
+        <v>15.30363568283191</v>
       </c>
       <c r="AU20" t="n">
-        <v>25.06875430601754</v>
+        <v>26.81946733914871</v>
       </c>
       <c r="AV20" t="n">
-        <v>18.10485021252008</v>
+        <v>24.56942315639562</v>
       </c>
       <c r="AW20" t="n">
-        <v>23.20915870341663</v>
+        <v>31.14869618245601</v>
       </c>
       <c r="AX20" t="n">
-        <v>19.26751032936486</v>
+        <v>17.29782488970036</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1.234349587940861</v>
+        <v>3.725903140060772</v>
       </c>
       <c r="D21" t="n">
-        <v>2.907113427971769</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>3.217409127323332</v>
+        <v>2.480909435784658</v>
       </c>
       <c r="F21" t="n">
-        <v>1.955413467711989</v>
+        <v>2.251248722336749</v>
       </c>
       <c r="G21" t="n">
-        <v>1.151284147532149</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>10.16171304729083</v>
+        <v>1.577903211758259</v>
       </c>
       <c r="I21" t="n">
-        <v>3.787067234379418</v>
+        <v>3.183200661256738</v>
       </c>
       <c r="J21" t="n">
-        <v>224.5251465034994</v>
+        <v>15.91556149706823</v>
       </c>
       <c r="K21" t="n">
-        <v>4.26634650577738</v>
+        <v>0.4975508241597394</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8648257281170094</v>
+        <v>5.808272425391755</v>
       </c>
       <c r="M21" t="n">
-        <v>3.20849746902557</v>
+        <v>3.080991929644814</v>
       </c>
       <c r="N21" t="n">
-        <v>5.132315217710216</v>
+        <v>5.488498566576395</v>
       </c>
       <c r="O21" t="n">
-        <v>2.987256742613678</v>
+        <v>6.487715666515808</v>
       </c>
       <c r="P21" t="n">
-        <v>1.310125898900742</v>
+        <v>10.19212482428902</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.498194988315594</v>
+        <v>8.230058442360017</v>
       </c>
       <c r="R21" t="n">
-        <v>3.409554474737628</v>
+        <v>2.044033344339346</v>
       </c>
       <c r="S21" t="n">
-        <v>1.406770868908729</v>
+        <v>2.840729822780606</v>
       </c>
       <c r="T21" t="n">
-        <v>5.253695378469248</v>
+        <v>7.491617619756926</v>
       </c>
       <c r="U21" t="n">
-        <v>0.6635886196537519</v>
+        <v>4.718659890125782</v>
       </c>
       <c r="V21" t="n">
-        <v>5.097594540011529</v>
+        <v>2.870007842568604</v>
       </c>
       <c r="W21" t="n">
-        <v>6.752335420074354</v>
+        <v>11.30870316141731</v>
       </c>
       <c r="X21" t="n">
-        <v>7.140452783202782</v>
+        <v>4.60352244659527</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.102430109083324</v>
+        <v>5.345851850865474</v>
       </c>
       <c r="Z21" t="n">
-        <v>5.247260152094491</v>
+        <v>3.285040829967875</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.492395568656421</v>
+        <v>2.008657066145178</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.20064549036806</v>
+        <v>2.430618867413875</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.000179121953297</v>
+        <v>2.239553880299176</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.696945388829262</v>
+        <v>6.235906461018998</v>
       </c>
       <c r="AE21" t="n">
-        <v>3.713207750942629</v>
+        <v>6.264264296990244</v>
       </c>
       <c r="AF21" t="n">
-        <v>4.664494179767198</v>
+        <v>6.407702807790206</v>
       </c>
       <c r="AG21" t="n">
-        <v>5.23986222793482</v>
+        <v>3.666338169540202</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.848899875013466</v>
+        <v>9.870678826930058</v>
       </c>
       <c r="AI21" t="n">
-        <v>6.758956674671342</v>
+        <v>3.166462618855531</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3.952626277224921</v>
+        <v>6.914451457698647</v>
       </c>
       <c r="AK21" t="n">
-        <v>4.793703204939974</v>
+        <v>3.740723073181329</v>
       </c>
       <c r="AL21" t="n">
-        <v>2.873784504021067</v>
+        <v>2.147391351300614</v>
       </c>
       <c r="AM21" t="n">
-        <v>8.836277132183302</v>
+        <v>4.72856553115526</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.638861068486632</v>
+        <v>3.52510395920468</v>
       </c>
       <c r="AO21" t="n">
-        <v>11.23736148286159</v>
+        <v>4.327238317138668</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.951982792093197</v>
+        <v>3.541872639905286</v>
       </c>
       <c r="AQ21" t="n">
-        <v>7.793818338519794</v>
+        <v>1.883987355765184</v>
       </c>
       <c r="AR21" t="n">
-        <v>5.724405289451444</v>
+        <v>3.772200447181934</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.559188632176145</v>
+        <v>2.597797646562438</v>
       </c>
       <c r="AT21" t="n">
-        <v>5.351826774521784</v>
+        <v>5.714400536721116</v>
       </c>
       <c r="AU21" t="n">
-        <v>10.91309168541421</v>
+        <v>2.910870341670936</v>
       </c>
       <c r="AV21" t="n">
-        <v>1.622512170927296</v>
+        <v>0</v>
       </c>
       <c r="AW21" t="n">
-        <v>1.484125149436234</v>
+        <v>4.281429224358821</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.8602476187587038</v>
+        <v>2.575320473591963</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>22.37319461556005</v>
+        <v>7.861365785530039</v>
       </c>
       <c r="D22" t="n">
-        <v>9.578975305798883</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>10.40985910841897</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>9.067193205770272</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.724305506399537</v>
+        <v>1.825569090026064</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6491636121372</v>
+        <v>11.04021272376257</v>
       </c>
       <c r="I22" t="n">
-        <v>112.8105096983663</v>
+        <v>127.2030823535175</v>
       </c>
       <c r="J22" t="n">
-        <v>91.14705359514393</v>
+        <v>141.6710450109589</v>
       </c>
       <c r="K22" t="n">
-        <v>24.09029755842341</v>
+        <v>150.312980056431</v>
       </c>
       <c r="L22" t="n">
-        <v>28.78856172162954</v>
+        <v>12.64500912078251</v>
       </c>
       <c r="M22" t="n">
-        <v>78.66596472884042</v>
+        <v>10.42612449921703</v>
       </c>
       <c r="N22" t="n">
-        <v>31.30789774068004</v>
+        <v>37.76428970572991</v>
       </c>
       <c r="O22" t="n">
-        <v>37.43116569705083</v>
+        <v>42.74376040738095</v>
       </c>
       <c r="P22" t="n">
-        <v>59.39012247194265</v>
+        <v>68.91221304311142</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.45044074562755</v>
+        <v>25.12956256406387</v>
       </c>
       <c r="R22" t="n">
-        <v>100.4245422453356</v>
+        <v>5.86071432827004</v>
       </c>
       <c r="S22" t="n">
-        <v>43.02208504694941</v>
+        <v>34.92624798849786</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1838351191781</v>
+        <v>22.66669843761799</v>
       </c>
       <c r="U22" t="n">
-        <v>52.83892788573526</v>
+        <v>77.60995529959327</v>
       </c>
       <c r="V22" t="n">
-        <v>50.08610996910318</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>49.88637456767844</v>
+        <v>94.28335225268823</v>
       </c>
       <c r="X22" t="n">
-        <v>44.45005995946421</v>
+        <v>132.8835596705947</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.29990692822293</v>
+        <v>44.62805039689083</v>
       </c>
       <c r="Z22" t="n">
-        <v>81.14789579253289</v>
+        <v>59.36421910172892</v>
       </c>
       <c r="AA22" t="n">
-        <v>48.48767520896858</v>
+        <v>39.1332407122194</v>
       </c>
       <c r="AB22" t="n">
-        <v>71.18800840502436</v>
+        <v>54.89555882722266</v>
       </c>
       <c r="AC22" t="n">
-        <v>79.22127652263049</v>
+        <v>55.75113411271929</v>
       </c>
       <c r="AD22" t="n">
-        <v>85.98687884051094</v>
+        <v>70.88713593736753</v>
       </c>
       <c r="AE22" t="n">
-        <v>90.20000631735631</v>
+        <v>51.74177948146951</v>
       </c>
       <c r="AF22" t="n">
-        <v>44.95193679591335</v>
+        <v>102.7618627474053</v>
       </c>
       <c r="AG22" t="n">
-        <v>59.19201941339602</v>
+        <v>29.02179366708135</v>
       </c>
       <c r="AH22" t="n">
-        <v>23.89115880246523</v>
+        <v>48.23421934642832</v>
       </c>
       <c r="AI22" t="n">
-        <v>85.65022352784328</v>
+        <v>36.44420674909623</v>
       </c>
       <c r="AJ22" t="n">
-        <v>46.97844427934024</v>
+        <v>39.95901623204889</v>
       </c>
       <c r="AK22" t="n">
-        <v>73.64693917521362</v>
+        <v>6.285293122889797</v>
       </c>
       <c r="AL22" t="n">
-        <v>46.54879110170243</v>
+        <v>55.34167289298487</v>
       </c>
       <c r="AM22" t="n">
-        <v>54.59312991170017</v>
+        <v>31.672606730782</v>
       </c>
       <c r="AN22" t="n">
-        <v>14.69823460488549</v>
+        <v>18.76670371176847</v>
       </c>
       <c r="AO22" t="n">
-        <v>19.76251550591003</v>
+        <v>22.31998176897358</v>
       </c>
       <c r="AP22" t="n">
-        <v>16.65057737583558</v>
+        <v>18.83229766103994</v>
       </c>
       <c r="AQ22" t="n">
-        <v>9.053567048927741</v>
+        <v>9.311215491199642</v>
       </c>
       <c r="AR22" t="n">
-        <v>20.7572700093681</v>
+        <v>17.83229637717567</v>
       </c>
       <c r="AS22" t="n">
-        <v>11.79303308880447</v>
+        <v>11.38741899121978</v>
       </c>
       <c r="AT22" t="n">
-        <v>13.62928886510765</v>
+        <v>4.633260469259323</v>
       </c>
       <c r="AU22" t="n">
-        <v>11.99684231284709</v>
+        <v>7.5697800355891</v>
       </c>
       <c r="AV22" t="n">
-        <v>5.323012450973158</v>
+        <v>15.66486464467566</v>
       </c>
       <c r="AW22" t="n">
-        <v>6.675599299823815</v>
+        <v>11.81712475817824</v>
       </c>
       <c r="AX22" t="n">
-        <v>12.05282120105269</v>
+        <v>8.687428257430955</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>16.34194018876903</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>6.241212423075843</v>
+        <v>15.37290680134747</v>
       </c>
       <c r="E23" t="n">
-        <v>16.87072364824833</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>24.14228138804591</v>
+        <v>35.65486124781977</v>
       </c>
       <c r="G23" t="n">
-        <v>30.07332151206618</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.390636349725865</v>
+        <v>24.34677066861856</v>
       </c>
       <c r="I23" t="n">
-        <v>3.775006561353411</v>
+        <v>118.2176535451109</v>
       </c>
       <c r="J23" t="n">
-        <v>147.9894930804131</v>
+        <v>36.06213951141586</v>
       </c>
       <c r="K23" t="n">
-        <v>18.1379894737085</v>
+        <v>26.47323493844539</v>
       </c>
       <c r="L23" t="n">
-        <v>226.8509886725269</v>
+        <v>106.0221164042525</v>
       </c>
       <c r="M23" t="n">
-        <v>29.22623555827928</v>
+        <v>45.61421058472398</v>
       </c>
       <c r="N23" t="n">
-        <v>26.81511500418085</v>
+        <v>52.39777664126208</v>
       </c>
       <c r="O23" t="n">
-        <v>26.06123167883807</v>
+        <v>76.67649595768613</v>
       </c>
       <c r="P23" t="n">
-        <v>44.65902258269469</v>
+        <v>41.88454311062645</v>
       </c>
       <c r="Q23" t="n">
-        <v>235.7141954063924</v>
+        <v>75.73822640160327</v>
       </c>
       <c r="R23" t="n">
-        <v>69.15455996253071</v>
+        <v>109.2566312988764</v>
       </c>
       <c r="S23" t="n">
-        <v>56.13624709904332</v>
+        <v>38.97077365511839</v>
       </c>
       <c r="T23" t="n">
-        <v>81.06979392388627</v>
+        <v>87.54538491053943</v>
       </c>
       <c r="U23" t="n">
-        <v>63.50677721260137</v>
+        <v>84.80939310490761</v>
       </c>
       <c r="V23" t="n">
-        <v>45.13569361096801</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>57.87948364477898</v>
+        <v>51.91075601302107</v>
       </c>
       <c r="X23" t="n">
-        <v>24.11688720380133</v>
+        <v>112.3221302723562</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.52117661110006</v>
+        <v>60.60438012974072</v>
       </c>
       <c r="Z23" t="n">
-        <v>63.57458423273707</v>
+        <v>38.46770418864475</v>
       </c>
       <c r="AA23" t="n">
-        <v>42.64855070005103</v>
+        <v>29.00720268864344</v>
       </c>
       <c r="AB23" t="n">
-        <v>33.42310687564773</v>
+        <v>33.29928085933609</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.890573318337532</v>
+        <v>41.19840416524477</v>
       </c>
       <c r="AD23" t="n">
-        <v>13.59607386958982</v>
+        <v>30.88064797775968</v>
       </c>
       <c r="AE23" t="n">
-        <v>71.17453234821899</v>
+        <v>37.06384478229867</v>
       </c>
       <c r="AF23" t="n">
-        <v>12.50302420072646</v>
+        <v>45.97118882614063</v>
       </c>
       <c r="AG23" t="n">
-        <v>57.90826372165374</v>
+        <v>63.23623399706945</v>
       </c>
       <c r="AH23" t="n">
-        <v>13.96759706454837</v>
+        <v>20.306921319969</v>
       </c>
       <c r="AI23" t="n">
-        <v>19.18290482661792</v>
+        <v>13.24889237317872</v>
       </c>
       <c r="AJ23" t="n">
-        <v>58.28504199978244</v>
+        <v>13.23233615940423</v>
       </c>
       <c r="AK23" t="n">
-        <v>110.5064520786688</v>
+        <v>49.19776993278357</v>
       </c>
       <c r="AL23" t="n">
-        <v>84.30597444181242</v>
+        <v>23.2928969638509</v>
       </c>
       <c r="AM23" t="n">
-        <v>10.8030526738277</v>
+        <v>45.53384572850825</v>
       </c>
       <c r="AN23" t="n">
-        <v>8.178631968490276</v>
+        <v>32.52781024894858</v>
       </c>
       <c r="AO23" t="n">
-        <v>11.93115463198524</v>
+        <v>51.06501738253026</v>
       </c>
       <c r="AP23" t="n">
-        <v>11.34011339786664</v>
+        <v>26.85692140001804</v>
       </c>
       <c r="AQ23" t="n">
-        <v>23.62336656331969</v>
+        <v>19.72411613531435</v>
       </c>
       <c r="AR23" t="n">
-        <v>18.39112531335969</v>
+        <v>30.00143367136089</v>
       </c>
       <c r="AS23" t="n">
-        <v>9.059414020329687</v>
+        <v>39.70396372072869</v>
       </c>
       <c r="AT23" t="n">
-        <v>23.42807726114806</v>
+        <v>9.366076213186869</v>
       </c>
       <c r="AU23" t="n">
-        <v>6.051225063060522</v>
+        <v>9.497868482195823</v>
       </c>
       <c r="AV23" t="n">
-        <v>5.735505630696581</v>
+        <v>28.69125967735902</v>
       </c>
       <c r="AW23" t="n">
-        <v>12.39659102921583</v>
+        <v>9.914004019204445</v>
       </c>
       <c r="AX23" t="n">
-        <v>15.75596417365487</v>
+        <v>11.70169922711378</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>5.391210383475177</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>4.553036485152118</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>4.092541266685873</v>
+        <v>6.591299123038215</v>
       </c>
       <c r="F24" t="n">
-        <v>1.469842487753752</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>11.12431282208916</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>7.927089898638205</v>
+        <v>26.59006812412808</v>
       </c>
       <c r="I24" t="n">
-        <v>5.481469926821579</v>
+        <v>14.55096683611345</v>
       </c>
       <c r="J24" t="n">
-        <v>23.99901447476251</v>
+        <v>9.317448869423202</v>
       </c>
       <c r="K24" t="n">
-        <v>4.15040298576867</v>
+        <v>35.30566648031974</v>
       </c>
       <c r="L24" t="n">
-        <v>35.25419526588797</v>
+        <v>38.56940977466098</v>
       </c>
       <c r="M24" t="n">
-        <v>13.98225252695327</v>
+        <v>53.03433176389027</v>
       </c>
       <c r="N24" t="n">
-        <v>17.18635777417225</v>
+        <v>24.16293992548208</v>
       </c>
       <c r="O24" t="n">
-        <v>86.18135870468872</v>
+        <v>20.79645618215217</v>
       </c>
       <c r="P24" t="n">
-        <v>37.27117755523042</v>
+        <v>58.53835316663082</v>
       </c>
       <c r="Q24" t="n">
-        <v>65.87070031291879</v>
+        <v>11.81055325289132</v>
       </c>
       <c r="R24" t="n">
-        <v>20.86366713716503</v>
+        <v>9.066532876648957</v>
       </c>
       <c r="S24" t="n">
-        <v>20.59504598343172</v>
+        <v>36.30325809733618</v>
       </c>
       <c r="T24" t="n">
-        <v>32.04475360934039</v>
+        <v>75.66660021366152</v>
       </c>
       <c r="U24" t="n">
-        <v>24.20363646823961</v>
+        <v>18.62711621400008</v>
       </c>
       <c r="V24" t="n">
-        <v>134.9030467132372</v>
+        <v>10.91552993654509</v>
       </c>
       <c r="W24" t="n">
-        <v>13.73561787698946</v>
+        <v>25.71221399035641</v>
       </c>
       <c r="X24" t="n">
-        <v>40.35720700373086</v>
+        <v>9.472507955108053</v>
       </c>
       <c r="Y24" t="n">
-        <v>18.81408760650406</v>
+        <v>20.09032476470376</v>
       </c>
       <c r="Z24" t="n">
-        <v>10.30828460907061</v>
+        <v>31.00116646022008</v>
       </c>
       <c r="AA24" t="n">
-        <v>15.84356574329539</v>
+        <v>12.99023892581343</v>
       </c>
       <c r="AB24" t="n">
-        <v>18.59571464802122</v>
+        <v>14.67775371672313</v>
       </c>
       <c r="AC24" t="n">
-        <v>26.66906193637748</v>
+        <v>15.84663096945726</v>
       </c>
       <c r="AD24" t="n">
-        <v>12.92179277196762</v>
+        <v>18.66564538415105</v>
       </c>
       <c r="AE24" t="n">
-        <v>17.32300683828406</v>
+        <v>8.148859622523393</v>
       </c>
       <c r="AF24" t="n">
-        <v>9.233002710727067</v>
+        <v>14.79596342516813</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.93812391947522</v>
+        <v>2.951405922923545</v>
       </c>
       <c r="AH24" t="n">
-        <v>18.54756403785054</v>
+        <v>4.182746752567382</v>
       </c>
       <c r="AI24" t="n">
-        <v>5.174126208802228</v>
+        <v>14.69149872313799</v>
       </c>
       <c r="AJ24" t="n">
-        <v>36.93922888401234</v>
+        <v>4.176640178463832</v>
       </c>
       <c r="AK24" t="n">
-        <v>7.766634839461492</v>
+        <v>17.88668795148558</v>
       </c>
       <c r="AL24" t="n">
-        <v>3.283493991765691</v>
+        <v>3.025296096804603</v>
       </c>
       <c r="AM24" t="n">
-        <v>8.247255612032451</v>
+        <v>6.330354796403149</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.479834018894159</v>
+        <v>5.315175190841605</v>
       </c>
       <c r="AO24" t="n">
-        <v>4.3625876369248</v>
+        <v>1.008708680990353</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.727789139373032</v>
+        <v>0.5929370054279841</v>
       </c>
       <c r="AQ24" t="n">
-        <v>4.189915085427269</v>
+        <v>4.371279519576084</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.660022802436601</v>
+        <v>2.027244658673487</v>
       </c>
       <c r="AS24" t="n">
-        <v>4.035435949401637</v>
+        <v>2.297849518140063</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.8411741670677408</v>
+        <v>2.363729263888099</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.68390092636084</v>
+        <v>2.040150952790883</v>
       </c>
       <c r="AV24" t="n">
-        <v>1.21848190893972</v>
+        <v>4.601959349361656</v>
       </c>
       <c r="AW24" t="n">
-        <v>3.820727476475643</v>
+        <v>4.791580960512421</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.9181704844214531</v>
+        <v>2.723243717293462</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.673129288149316</v>
+        <v>20.00829653380039</v>
       </c>
       <c r="D25" t="n">
-        <v>4.836765963117135</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>14.46165220286155</v>
+        <v>14.7027634109479</v>
       </c>
       <c r="F25" t="n">
-        <v>13.11447288146903</v>
+        <v>15.00723316842438</v>
       </c>
       <c r="G25" t="n">
-        <v>30.92117858836983</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>12.0476596882604</v>
+        <v>3.096623626426037</v>
       </c>
       <c r="I25" t="n">
-        <v>23.71821663126808</v>
+        <v>39.56478133498938</v>
       </c>
       <c r="J25" t="n">
-        <v>4.278408288357501</v>
+        <v>1.945842068641096</v>
       </c>
       <c r="K25" t="n">
-        <v>14.50944540297876</v>
+        <v>31.5045163198892</v>
       </c>
       <c r="L25" t="n">
-        <v>21.11568423868589</v>
+        <v>0.4271657679780492</v>
       </c>
       <c r="M25" t="n">
-        <v>12.81115119738178</v>
+        <v>7.935215786397522</v>
       </c>
       <c r="N25" t="n">
-        <v>11.79798625103069</v>
+        <v>42.26804947654625</v>
       </c>
       <c r="O25" t="n">
-        <v>135.791219350995</v>
+        <v>43.37669370655253</v>
       </c>
       <c r="P25" t="n">
-        <v>109.7910111019885</v>
+        <v>78.67447595676404</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.20424633091477</v>
+        <v>22.67399786729022</v>
       </c>
       <c r="R25" t="n">
-        <v>47.6701392216922</v>
+        <v>24.49685564808578</v>
       </c>
       <c r="S25" t="n">
-        <v>51.21392051886465</v>
+        <v>8.555455239282798</v>
       </c>
       <c r="T25" t="n">
-        <v>41.44230349563252</v>
+        <v>35.9527443257597</v>
       </c>
       <c r="U25" t="n">
-        <v>19.71011555902297</v>
+        <v>32.45659840176811</v>
       </c>
       <c r="V25" t="n">
-        <v>5.620883764159697</v>
+        <v>32.2884406865053</v>
       </c>
       <c r="W25" t="n">
-        <v>70.19765184685009</v>
+        <v>5.560903678074508</v>
       </c>
       <c r="X25" t="n">
-        <v>27.26002586327542</v>
+        <v>34.29725607281863</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.767160906009087</v>
+        <v>34.1029019325419</v>
       </c>
       <c r="Z25" t="n">
-        <v>13.52316968984806</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>26.01613497900283</v>
+        <v>22.24052680738239</v>
       </c>
       <c r="AB25" t="n">
-        <v>12.55860531157048</v>
+        <v>14.46717942872869</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.915987920003978</v>
+        <v>8.685796435474279</v>
       </c>
       <c r="AD25" t="n">
-        <v>10.2152110709411</v>
+        <v>8.055928494246716</v>
       </c>
       <c r="AE25" t="n">
-        <v>7.320756008133331</v>
+        <v>6.280493377521423</v>
       </c>
       <c r="AF25" t="n">
-        <v>11.04658358326515</v>
+        <v>3.159531455813966</v>
       </c>
       <c r="AG25" t="n">
-        <v>8.757631966911624</v>
+        <v>29.22569148088582</v>
       </c>
       <c r="AH25" t="n">
-        <v>6.486461379592364</v>
+        <v>10.80969089244487</v>
       </c>
       <c r="AI25" t="n">
-        <v>1.845553486781405</v>
+        <v>21.58468315637561</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8.510101010494797</v>
+        <v>4.710497157898556</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.9519917193824415</v>
+        <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>11.18250704582683</v>
+        <v>15.58582156915981</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.6512699413357084</v>
+        <v>7.050264253142355</v>
       </c>
       <c r="AN25" t="n">
-        <v>1.205624951136796</v>
+        <v>3.632109620855176</v>
       </c>
       <c r="AO25" t="n">
-        <v>1.251999709868303</v>
+        <v>19.86272229952929</v>
       </c>
       <c r="AP25" t="n">
-        <v>3.647289431171666</v>
+        <v>5.163600715514185</v>
       </c>
       <c r="AQ25" t="n">
-        <v>6.87456379342304</v>
+        <v>17.77203696589386</v>
       </c>
       <c r="AR25" t="n">
-        <v>6.856194947399309</v>
+        <v>4.957653570813436</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.581148194014273</v>
+        <v>0</v>
       </c>
       <c r="AT25" t="n">
-        <v>8.264766677724214</v>
+        <v>0.3031141567365676</v>
       </c>
       <c r="AU25" t="n">
-        <v>25.12212837280133</v>
+        <v>1.132224460461203</v>
       </c>
       <c r="AV25" t="n">
-        <v>1.714927991585319</v>
+        <v>0.06906457078266337</v>
       </c>
       <c r="AW25" t="n">
-        <v>14.82037012922986</v>
+        <v>0.49430915835817</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.5936170950025655</v>
+        <v>57.51586825196232</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>27.47259901893774</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>33.75599443774323</v>
+        <v>25.53125523298157</v>
       </c>
       <c r="E26" t="n">
-        <v>25.86127073501982</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>30.79206463362956</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>9.751113252070041</v>
+        <v>24.23460243376422</v>
       </c>
       <c r="H26" t="n">
-        <v>34.49526486958376</v>
+        <v>29.31582963424171</v>
       </c>
       <c r="I26" t="n">
-        <v>29.9169807523809</v>
+        <v>46.51057082675531</v>
       </c>
       <c r="J26" t="n">
-        <v>22.68669886577229</v>
+        <v>205.1456821349796</v>
       </c>
       <c r="K26" t="n">
-        <v>51.24662886186499</v>
+        <v>29.05889489451412</v>
       </c>
       <c r="L26" t="n">
-        <v>42.12074489501373</v>
+        <v>31.28360919172037</v>
       </c>
       <c r="M26" t="n">
-        <v>37.84923129454899</v>
+        <v>204.0234630186856</v>
       </c>
       <c r="N26" t="n">
-        <v>45.51492633049443</v>
+        <v>47.22344706710697</v>
       </c>
       <c r="O26" t="n">
-        <v>45.91135697767503</v>
+        <v>45.55374321707027</v>
       </c>
       <c r="P26" t="n">
-        <v>76.88455682975001</v>
+        <v>63.6926442724889</v>
       </c>
       <c r="Q26" t="n">
-        <v>47.40206312671648</v>
+        <v>121.470580434636</v>
       </c>
       <c r="R26" t="n">
-        <v>43.01879169853426</v>
+        <v>49.71777919840058</v>
       </c>
       <c r="S26" t="n">
-        <v>52.41213919064668</v>
+        <v>72.01223763123593</v>
       </c>
       <c r="T26" t="n">
-        <v>41.22250006465796</v>
+        <v>180.9682926861849</v>
       </c>
       <c r="U26" t="n">
-        <v>38.35554209216802</v>
+        <v>48.86237822723389</v>
       </c>
       <c r="V26" t="n">
-        <v>65.42331275013063</v>
+        <v>80.0991123886586</v>
       </c>
       <c r="W26" t="n">
-        <v>86.44573351790962</v>
+        <v>58.73653326309516</v>
       </c>
       <c r="X26" t="n">
-        <v>37.52702706707057</v>
+        <v>84.1282214761394</v>
       </c>
       <c r="Y26" t="n">
-        <v>116.8382712775362</v>
+        <v>58.50315156309433</v>
       </c>
       <c r="Z26" t="n">
-        <v>63.32488754648633</v>
+        <v>37.62520484389194</v>
       </c>
       <c r="AA26" t="n">
-        <v>117.9637350871337</v>
+        <v>115.6562825437516</v>
       </c>
       <c r="AB26" t="n">
-        <v>79.08732644850113</v>
+        <v>125.1205662399242</v>
       </c>
       <c r="AC26" t="n">
-        <v>98.65919673104629</v>
+        <v>88.07127843274171</v>
       </c>
       <c r="AD26" t="n">
-        <v>136.062585193472</v>
+        <v>133.9210308658717</v>
       </c>
       <c r="AE26" t="n">
-        <v>55.53692439789422</v>
+        <v>83.66335584052445</v>
       </c>
       <c r="AF26" t="n">
-        <v>57.18549221063187</v>
+        <v>114.2067914073564</v>
       </c>
       <c r="AG26" t="n">
-        <v>211.8274242815599</v>
+        <v>92.88220968332577</v>
       </c>
       <c r="AH26" t="n">
-        <v>120.195336629826</v>
+        <v>119.4293509797706</v>
       </c>
       <c r="AI26" t="n">
-        <v>97.95198269383562</v>
+        <v>71.86824629602859</v>
       </c>
       <c r="AJ26" t="n">
-        <v>63.35316647624752</v>
+        <v>146.0098360663522</v>
       </c>
       <c r="AK26" t="n">
-        <v>88.22144864228375</v>
+        <v>124.7469077883725</v>
       </c>
       <c r="AL26" t="n">
-        <v>51.35987866411581</v>
+        <v>31.0035057755343</v>
       </c>
       <c r="AM26" t="n">
-        <v>26.61208664060027</v>
+        <v>24.42658884415372</v>
       </c>
       <c r="AN26" t="n">
-        <v>39.96401750556578</v>
+        <v>38.97925772939874</v>
       </c>
       <c r="AO26" t="n">
-        <v>49.98775108304922</v>
+        <v>29.24393576635998</v>
       </c>
       <c r="AP26" t="n">
-        <v>21.61073152231929</v>
+        <v>31.17094968946452</v>
       </c>
       <c r="AQ26" t="n">
-        <v>19.36883124460248</v>
+        <v>20.59174699785452</v>
       </c>
       <c r="AR26" t="n">
-        <v>23.72129561072204</v>
+        <v>18.24644497282253</v>
       </c>
       <c r="AS26" t="n">
-        <v>16.77823944958831</v>
+        <v>25.76820357542727</v>
       </c>
       <c r="AT26" t="n">
-        <v>22.19380903738777</v>
+        <v>19.09824167490042</v>
       </c>
       <c r="AU26" t="n">
-        <v>30.35505984680079</v>
+        <v>14.58333688424062</v>
       </c>
       <c r="AV26" t="n">
-        <v>33.95517057937383</v>
+        <v>12.54126467753136</v>
       </c>
       <c r="AW26" t="n">
-        <v>22.34007386792513</v>
+        <v>10.08860828108285</v>
       </c>
       <c r="AX26" t="n">
-        <v>30.96549669541627</v>
+        <v>16.67753115270027</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>1.220041309029351</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>4.432808412494854</v>
+        <v>3.640780521702096</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8831612615315223</v>
+        <v>2.094340643569265</v>
       </c>
       <c r="F27" t="n">
-        <v>6.092974190743357</v>
+        <v>3.333368370444642</v>
       </c>
       <c r="G27" t="n">
-        <v>23.30809628085635</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.083962976838749</v>
+        <v>3.383167833628998</v>
       </c>
       <c r="I27" t="n">
-        <v>4.235519873700937</v>
+        <v>1.531263237597186</v>
       </c>
       <c r="J27" t="n">
-        <v>4.669260643322244</v>
+        <v>3.863819457780441</v>
       </c>
       <c r="K27" t="n">
-        <v>2.623797304843537</v>
+        <v>4.314017667309678</v>
       </c>
       <c r="L27" t="n">
-        <v>5.648168652941302</v>
+        <v>2.597202876497816</v>
       </c>
       <c r="M27" t="n">
-        <v>2.220742039392481</v>
+        <v>1.818724458316928</v>
       </c>
       <c r="N27" t="n">
-        <v>1.765256930890003</v>
+        <v>5.174107320055963</v>
       </c>
       <c r="O27" t="n">
-        <v>3.979536550058902</v>
+        <v>2.011419114817711</v>
       </c>
       <c r="P27" t="n">
-        <v>8.600503582755371</v>
+        <v>6.60851884081388</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.043613431357832</v>
+        <v>4.198318299288162</v>
       </c>
       <c r="R27" t="n">
-        <v>12.40990775072932</v>
+        <v>2.898041799444842</v>
       </c>
       <c r="S27" t="n">
-        <v>6.026256496455263</v>
+        <v>10.86861313685784</v>
       </c>
       <c r="T27" t="n">
-        <v>12.3402607358916</v>
+        <v>1.146431512073498</v>
       </c>
       <c r="U27" t="n">
-        <v>8.037687708956732</v>
+        <v>4.597527474681987</v>
       </c>
       <c r="V27" t="n">
-        <v>1.273032532728974</v>
+        <v>2.437294885466</v>
       </c>
       <c r="W27" t="n">
-        <v>1.407278392666264</v>
+        <v>2.5778909619174</v>
       </c>
       <c r="X27" t="n">
-        <v>5.862432356979244</v>
+        <v>2.563969749939115</v>
       </c>
       <c r="Y27" t="n">
-        <v>11.37415866502335</v>
+        <v>4.90205806482132</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.975135402962529</v>
+        <v>2.84213481852492</v>
       </c>
       <c r="AA27" t="n">
-        <v>4.377082474192738</v>
+        <v>2.231317797683268</v>
       </c>
       <c r="AB27" t="n">
-        <v>4.34197411817935</v>
+        <v>4.881423687111533</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.299283346775366</v>
+        <v>5.904223196119698</v>
       </c>
       <c r="AD27" t="n">
-        <v>4.140578370717384</v>
+        <v>6.705914723144446</v>
       </c>
       <c r="AE27" t="n">
-        <v>5.946125967893418</v>
+        <v>8.742524322511134</v>
       </c>
       <c r="AF27" t="n">
-        <v>5.791219505188926</v>
+        <v>6.698575769895847</v>
       </c>
       <c r="AG27" t="n">
-        <v>12.50117372467775</v>
+        <v>7.385490063515715</v>
       </c>
       <c r="AH27" t="n">
-        <v>5.925214164064462</v>
+        <v>4.344465993311807</v>
       </c>
       <c r="AI27" t="n">
-        <v>3.240156127777333</v>
+        <v>7.451606189191477</v>
       </c>
       <c r="AJ27" t="n">
-        <v>4.303577198024048</v>
+        <v>4.043240328502693</v>
       </c>
       <c r="AK27" t="n">
-        <v>2.336903608090653</v>
+        <v>6.73166734877085</v>
       </c>
       <c r="AL27" t="n">
-        <v>6.994344968495814</v>
+        <v>6.051277032887474</v>
       </c>
       <c r="AM27" t="n">
-        <v>12.26336115112873</v>
+        <v>3.730883561729246</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.539449596341795</v>
+        <v>8.584872728427801</v>
       </c>
       <c r="AO27" t="n">
-        <v>1.208084559310342</v>
+        <v>5.35000961658484</v>
       </c>
       <c r="AP27" t="n">
-        <v>3.253760701978683</v>
+        <v>5.376764920660524</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.516588713937569</v>
+        <v>5.814573391771162</v>
       </c>
       <c r="AR27" t="n">
-        <v>7.851558491944023</v>
+        <v>3.284008084999534</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.335092521775611</v>
+        <v>4.5497059034812</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.004740543313712</v>
+        <v>1.49472805079235</v>
       </c>
       <c r="AU27" t="n">
-        <v>3.15635111571012</v>
+        <v>4.431828189528437</v>
       </c>
       <c r="AV27" t="n">
-        <v>3.394914046112447</v>
+        <v>7.396839421322666</v>
       </c>
       <c r="AW27" t="n">
-        <v>1.171408071907448</v>
+        <v>5.093610304421934</v>
       </c>
       <c r="AX27" t="n">
-        <v>1.875032021136995</v>
+        <v>4.131908967154693</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>11.68407391108991</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>6.396290269165426</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>24.63268079196504</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>7.440039533913071</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>47.96072887048604</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>16.23346814803036</v>
+        <v>17.13716542569865</v>
       </c>
       <c r="I28" t="n">
-        <v>8.024803266450224</v>
+        <v>142.2528283763979</v>
       </c>
       <c r="J28" t="n">
-        <v>165.6866810651422</v>
+        <v>4.458473913661335</v>
       </c>
       <c r="K28" t="n">
-        <v>25.47726666076426</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>32.79534051572546</v>
+        <v>44.66207490240195</v>
       </c>
       <c r="M28" t="n">
-        <v>61.50015572753159</v>
+        <v>142.7047285399109</v>
       </c>
       <c r="N28" t="n">
-        <v>50.41145058895805</v>
+        <v>31.51855348472332</v>
       </c>
       <c r="O28" t="n">
-        <v>65.00844175374903</v>
+        <v>86.90299616876895</v>
       </c>
       <c r="P28" t="n">
-        <v>105.0749989935994</v>
+        <v>75.1740933833652</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.2364927356067</v>
+        <v>49.5244809449833</v>
       </c>
       <c r="R28" t="n">
-        <v>82.51989077328587</v>
+        <v>43.22939622521022</v>
       </c>
       <c r="S28" t="n">
-        <v>46.04756253587797</v>
+        <v>77.89982759778545</v>
       </c>
       <c r="T28" t="n">
-        <v>49.7086575816397</v>
+        <v>45.15049992723263</v>
       </c>
       <c r="U28" t="n">
-        <v>201.5100545653898</v>
+        <v>64.30599307265641</v>
       </c>
       <c r="V28" t="n">
-        <v>205.0639774255235</v>
+        <v>69.26470499474698</v>
       </c>
       <c r="W28" t="n">
-        <v>58.8452734478943</v>
+        <v>53.47957135655248</v>
       </c>
       <c r="X28" t="n">
-        <v>85.04589145004445</v>
+        <v>65.76108623735958</v>
       </c>
       <c r="Y28" t="n">
-        <v>60.52548837561516</v>
+        <v>63.15200672446255</v>
       </c>
       <c r="Z28" t="n">
-        <v>180.4208693149526</v>
+        <v>52.68471659467774</v>
       </c>
       <c r="AA28" t="n">
-        <v>82.36264847811618</v>
+        <v>59.5922902158124</v>
       </c>
       <c r="AB28" t="n">
-        <v>66.30138013861229</v>
+        <v>88.69926785397624</v>
       </c>
       <c r="AC28" t="n">
-        <v>38.84523629806982</v>
+        <v>71.06151673898141</v>
       </c>
       <c r="AD28" t="n">
-        <v>61.2735590084714</v>
+        <v>91.12450880980836</v>
       </c>
       <c r="AE28" t="n">
-        <v>152.5959072823042</v>
+        <v>146.7277364300626</v>
       </c>
       <c r="AF28" t="n">
-        <v>60.63794468815846</v>
+        <v>54.34814637960918</v>
       </c>
       <c r="AG28" t="n">
-        <v>47.81980087457375</v>
+        <v>57.61583339205895</v>
       </c>
       <c r="AH28" t="n">
-        <v>96.21812954434454</v>
+        <v>13.53454169704427</v>
       </c>
       <c r="AI28" t="n">
-        <v>24.20474345529557</v>
+        <v>104.1348041216232</v>
       </c>
       <c r="AJ28" t="n">
-        <v>43.55100372634849</v>
+        <v>78.30048778161549</v>
       </c>
       <c r="AK28" t="n">
-        <v>32.95390327784099</v>
+        <v>16.60941861600323</v>
       </c>
       <c r="AL28" t="n">
-        <v>26.85113881375183</v>
+        <v>31.33424917897008</v>
       </c>
       <c r="AM28" t="n">
-        <v>19.12254627117955</v>
+        <v>34.45682549242764</v>
       </c>
       <c r="AN28" t="n">
-        <v>20.70779741069522</v>
+        <v>28.14636046993799</v>
       </c>
       <c r="AO28" t="n">
-        <v>14.45960068367672</v>
+        <v>43.52171273137044</v>
       </c>
       <c r="AP28" t="n">
-        <v>15.20641567411119</v>
+        <v>22.84242725540853</v>
       </c>
       <c r="AQ28" t="n">
-        <v>18.48547451808877</v>
+        <v>19.65584467467421</v>
       </c>
       <c r="AR28" t="n">
-        <v>12.62567659245062</v>
+        <v>16.1705976920064</v>
       </c>
       <c r="AS28" t="n">
-        <v>21.32247446061247</v>
+        <v>11.4209604188259</v>
       </c>
       <c r="AT28" t="n">
-        <v>10.76135685792932</v>
+        <v>14.09151631503386</v>
       </c>
       <c r="AU28" t="n">
-        <v>10.43945718177222</v>
+        <v>18.3754905231683</v>
       </c>
       <c r="AV28" t="n">
-        <v>10.0400734037678</v>
+        <v>2.581489412312146</v>
       </c>
       <c r="AW28" t="n">
-        <v>7.497164559354133</v>
+        <v>6.35819267725395</v>
       </c>
       <c r="AX28" t="n">
-        <v>4.61671821958724</v>
+        <v>12.24582999901711</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>26.65903404920317</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>14.19240751061696</v>
+        <v>10.05292886954354</v>
       </c>
       <c r="E29" t="n">
-        <v>76.35628255422893</v>
+        <v>48.73769091394298</v>
       </c>
       <c r="F29" t="n">
-        <v>53.29506051787585</v>
+        <v>24.38552325999533</v>
       </c>
       <c r="G29" t="n">
-        <v>16.48237166305879</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>10.85883937679466</v>
+        <v>69.19699076875962</v>
       </c>
       <c r="I29" t="n">
-        <v>67.69978492618863</v>
+        <v>88.22551298267879</v>
       </c>
       <c r="J29" t="n">
-        <v>45.26019280900996</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>7.149574899405626</v>
+        <v>3.33875686877922</v>
       </c>
       <c r="L29" t="n">
-        <v>21.07134541178851</v>
+        <v>39.92823336362035</v>
       </c>
       <c r="M29" t="n">
-        <v>42.45825285714268</v>
+        <v>34.01513465316486</v>
       </c>
       <c r="N29" t="n">
-        <v>13.2953221258005</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>196.5942031690502</v>
+        <v>168.2644860320129</v>
       </c>
       <c r="P29" t="n">
-        <v>72.51167029372847</v>
+        <v>214.1196514008297</v>
       </c>
       <c r="Q29" t="n">
-        <v>28.05818379773523</v>
+        <v>105.6899653994308</v>
       </c>
       <c r="R29" t="n">
-        <v>90.00618741926652</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.34674751064367</v>
+        <v>99.76730285409022</v>
       </c>
       <c r="T29" t="n">
-        <v>39.29940422838735</v>
+        <v>49.91410813472524</v>
       </c>
       <c r="U29" t="n">
-        <v>32.73254566531909</v>
+        <v>45.73673861237745</v>
       </c>
       <c r="V29" t="n">
-        <v>9.258427050154031</v>
+        <v>28.29415516481913</v>
       </c>
       <c r="W29" t="n">
-        <v>19.75735855959722</v>
+        <v>2.09770877459305</v>
       </c>
       <c r="X29" t="n">
-        <v>57.60974611922884</v>
+        <v>35.29473753617366</v>
       </c>
       <c r="Y29" t="n">
-        <v>17.66702472619345</v>
+        <v>163.0130903020919</v>
       </c>
       <c r="Z29" t="n">
-        <v>28.51760663754213</v>
+        <v>8.191239529427399</v>
       </c>
       <c r="AA29" t="n">
-        <v>15.58612138608495</v>
+        <v>36.93787541729167</v>
       </c>
       <c r="AB29" t="n">
-        <v>16.40686779195466</v>
+        <v>15.7138188629816</v>
       </c>
       <c r="AC29" t="n">
-        <v>42.81282352560592</v>
+        <v>53.4757964235077</v>
       </c>
       <c r="AD29" t="n">
-        <v>28.90414733326165</v>
+        <v>28.93113792910933</v>
       </c>
       <c r="AE29" t="n">
-        <v>18.9649754121692</v>
+        <v>23.95020143723486</v>
       </c>
       <c r="AF29" t="n">
-        <v>36.02892753309425</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>13.48004004736961</v>
+        <v>19.42807524563706</v>
       </c>
       <c r="AH29" t="n">
-        <v>30.9186002485158</v>
+        <v>40.59337951472563</v>
       </c>
       <c r="AI29" t="n">
-        <v>6.875230646839363</v>
+        <v>37.69078550369187</v>
       </c>
       <c r="AJ29" t="n">
-        <v>80.85670245801744</v>
+        <v>32.35170912145923</v>
       </c>
       <c r="AK29" t="n">
-        <v>22.34264124620058</v>
+        <v>36.58410612221864</v>
       </c>
       <c r="AL29" t="n">
-        <v>12.89098860749116</v>
+        <v>14.6640996631825</v>
       </c>
       <c r="AM29" t="n">
-        <v>22.15146749316793</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>8.166318942928241</v>
+        <v>42.55291903197833</v>
       </c>
       <c r="AO29" t="n">
-        <v>28.63770346101054</v>
+        <v>29.07409816340798</v>
       </c>
       <c r="AP29" t="n">
-        <v>32.7490288927038</v>
+        <v>22.01606422291817</v>
       </c>
       <c r="AQ29" t="n">
-        <v>19.42789281699523</v>
+        <v>22.738920819514</v>
       </c>
       <c r="AR29" t="n">
-        <v>25.88226524281538</v>
+        <v>1.980947747471311</v>
       </c>
       <c r="AS29" t="n">
-        <v>17.28183781694251</v>
+        <v>27.53577530794881</v>
       </c>
       <c r="AT29" t="n">
-        <v>62.0064567574891</v>
+        <v>17.07532078934395</v>
       </c>
       <c r="AU29" t="n">
-        <v>26.84781783077567</v>
+        <v>34.2929465318561</v>
       </c>
       <c r="AV29" t="n">
-        <v>11.87993404883931</v>
+        <v>1.056617365000848</v>
       </c>
       <c r="AW29" t="n">
-        <v>13.249967992902</v>
+        <v>2.257241156825256</v>
       </c>
       <c r="AX29" t="n">
-        <v>29.17493802133866</v>
+        <v>11.89853810425018</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>1.00938643830366</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2.936930782589587</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>2.098829104410851</v>
+        <v>0.7133519599196259</v>
       </c>
       <c r="F30" t="n">
-        <v>4.001962385589412</v>
+        <v>4.316676388405471</v>
       </c>
       <c r="G30" t="n">
-        <v>8.270074379348163</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2.252016071187131</v>
+        <v>3.75555663268513</v>
       </c>
       <c r="I30" t="n">
-        <v>22.04583031960675</v>
+        <v>9.573497207180466</v>
       </c>
       <c r="J30" t="n">
-        <v>9.625434110302981</v>
+        <v>12.17607679168817</v>
       </c>
       <c r="K30" t="n">
-        <v>13.42745429623355</v>
+        <v>4.368526947675081</v>
       </c>
       <c r="L30" t="n">
-        <v>6.589347793687321</v>
+        <v>40.4856524270443</v>
       </c>
       <c r="M30" t="n">
-        <v>46.86540364751813</v>
+        <v>26.7187933265478</v>
       </c>
       <c r="N30" t="n">
-        <v>21.10208921991646</v>
+        <v>60.59041069559828</v>
       </c>
       <c r="O30" t="n">
-        <v>64.14761986890235</v>
+        <v>28.99431731393813</v>
       </c>
       <c r="P30" t="n">
-        <v>16.45404081038786</v>
+        <v>28.16213848983305</v>
       </c>
       <c r="Q30" t="n">
-        <v>14.73577144407658</v>
+        <v>70.43184045672072</v>
       </c>
       <c r="R30" t="n">
-        <v>55.73915839432622</v>
+        <v>21.27527103304943</v>
       </c>
       <c r="S30" t="n">
-        <v>19.53262789389818</v>
+        <v>57.03926509181714</v>
       </c>
       <c r="T30" t="n">
-        <v>24.03962644377051</v>
+        <v>4.079078423259707</v>
       </c>
       <c r="U30" t="n">
-        <v>40.45021069851495</v>
+        <v>25.34013848381533</v>
       </c>
       <c r="V30" t="n">
-        <v>25.46738886107678</v>
+        <v>3.597862615875378</v>
       </c>
       <c r="W30" t="n">
-        <v>20.42584843527919</v>
+        <v>25.08262100647896</v>
       </c>
       <c r="X30" t="n">
-        <v>29.30195322695083</v>
+        <v>16.83580490757155</v>
       </c>
       <c r="Y30" t="n">
-        <v>11.7441287751337</v>
+        <v>13.05637137905051</v>
       </c>
       <c r="Z30" t="n">
-        <v>13.25548816971591</v>
+        <v>12.70258139329139</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.33650980140089</v>
+        <v>16.35520219171079</v>
       </c>
       <c r="AB30" t="n">
-        <v>18.09251950147164</v>
+        <v>19.50693560247851</v>
       </c>
       <c r="AC30" t="n">
-        <v>44.55340571062452</v>
+        <v>16.96739512077975</v>
       </c>
       <c r="AD30" t="n">
-        <v>17.63410276667049</v>
+        <v>9.739351766725246</v>
       </c>
       <c r="AE30" t="n">
-        <v>11.81103177270857</v>
+        <v>9.874291532251176</v>
       </c>
       <c r="AF30" t="n">
-        <v>7.25941271309418</v>
+        <v>17.23994712729142</v>
       </c>
       <c r="AG30" t="n">
-        <v>7.497381532831104</v>
+        <v>15.56324805298179</v>
       </c>
       <c r="AH30" t="n">
-        <v>9.420330821148296</v>
+        <v>5.766953447354046</v>
       </c>
       <c r="AI30" t="n">
-        <v>13.08938713738587</v>
+        <v>11.34740396370076</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12.43131678223085</v>
+        <v>14.7528163363975</v>
       </c>
       <c r="AK30" t="n">
-        <v>4.730815942484854</v>
+        <v>4.430007748591152</v>
       </c>
       <c r="AL30" t="n">
-        <v>14.19784130453971</v>
+        <v>10.65904162085038</v>
       </c>
       <c r="AM30" t="n">
-        <v>1.566558307301947</v>
+        <v>3.144619666202853</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.221854945921608</v>
+        <v>6.120968251525881</v>
       </c>
       <c r="AO30" t="n">
-        <v>3.755223578105955</v>
+        <v>6.16400863251177</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.694461042471327</v>
+        <v>2.425451456596452</v>
       </c>
       <c r="AQ30" t="n">
-        <v>6.224671134279073</v>
+        <v>3.468667885079773</v>
       </c>
       <c r="AR30" t="n">
-        <v>0.77020910861505</v>
+        <v>2.161367187518054</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.9639808233754281</v>
+        <v>2.470185433480173</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.117874796740006</v>
+        <v>0.299360655344025</v>
       </c>
       <c r="AU30" t="n">
-        <v>3.00278060349799</v>
+        <v>0.03653100557976519</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.1768194708943369</v>
+        <v>2.015227787970543</v>
       </c>
       <c r="AW30" t="n">
-        <v>0.9039444142987245</v>
+        <v>7.163553783935686</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.4663827026735363</v>
+        <v>0.3110444805205016</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>2.356606678225943</v>
+        <v>21.77285027495142</v>
       </c>
       <c r="D31" t="n">
-        <v>7.838110533228546</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>11.6577749875705</v>
+        <v>4.73408751131895</v>
       </c>
       <c r="F31" t="n">
-        <v>9.736598596796682</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>13.15445868339273</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>39.467015714223</v>
+        <v>21.06901489959196</v>
       </c>
       <c r="I31" t="n">
-        <v>1.238254347930716</v>
+        <v>46.48816210449313</v>
       </c>
       <c r="J31" t="n">
-        <v>13.22328608990396</v>
+        <v>28.85914140281513</v>
       </c>
       <c r="K31" t="n">
-        <v>36.30337196202315</v>
+        <v>23.65817774159504</v>
       </c>
       <c r="L31" t="n">
-        <v>68.03160411911409</v>
+        <v>22.09958416690549</v>
       </c>
       <c r="M31" t="n">
-        <v>6.548677119067674</v>
+        <v>14.42491257111447</v>
       </c>
       <c r="N31" t="n">
-        <v>8.250008845773252</v>
+        <v>103.4093500253878</v>
       </c>
       <c r="O31" t="n">
-        <v>35.67653761103162</v>
+        <v>14.84009741891203</v>
       </c>
       <c r="P31" t="n">
-        <v>10.36019363402396</v>
+        <v>58.01677492058367</v>
       </c>
       <c r="Q31" t="n">
-        <v>218.1764840671572</v>
+        <v>53.00834881291992</v>
       </c>
       <c r="R31" t="n">
-        <v>19.16884757325054</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>23.06109518560309</v>
+        <v>14.4831215019415</v>
       </c>
       <c r="T31" t="n">
-        <v>17.34777015999627</v>
+        <v>21.01748404089439</v>
       </c>
       <c r="U31" t="n">
-        <v>21.92045087274178</v>
+        <v>16.8766180413805</v>
       </c>
       <c r="V31" t="n">
-        <v>31.46861590482723</v>
+        <v>46.25193368060259</v>
       </c>
       <c r="W31" t="n">
-        <v>57.84877922824899</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>4.912860900057911</v>
+        <v>32.24327612942741</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.5360216746649548</v>
+        <v>41.66083977003237</v>
       </c>
       <c r="Z31" t="n">
-        <v>41.17950730665067</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>9.863889169960235</v>
+        <v>21.43741827705378</v>
       </c>
       <c r="AB31" t="n">
-        <v>62.99802590280411</v>
+        <v>33.16971626949648</v>
       </c>
       <c r="AC31" t="n">
-        <v>16.0933653801142</v>
+        <v>3.494463268556847</v>
       </c>
       <c r="AD31" t="n">
-        <v>11.46954956071309</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>2.865354783043149</v>
+        <v>6.534153010735833</v>
       </c>
       <c r="AF31" t="n">
-        <v>17.84922468495625</v>
+        <v>26.65014047297463</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.05211974558435</v>
+        <v>37.4741742738977</v>
       </c>
       <c r="AH31" t="n">
-        <v>36.73801639762355</v>
+        <v>5.469073932829971</v>
       </c>
       <c r="AI31" t="n">
-        <v>3.331651417912797</v>
+        <v>4.7111301507937</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1.741264478894663</v>
+        <v>3.839044056436502</v>
       </c>
       <c r="AK31" t="n">
-        <v>2.018949233994417</v>
+        <v>6.50575158454784</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.4807258530262483</v>
+        <v>7.587155553512137</v>
       </c>
       <c r="AM31" t="n">
-        <v>1.839919050606063</v>
+        <v>4.496150546543703</v>
       </c>
       <c r="AN31" t="n">
-        <v>11.28020910974373</v>
+        <v>3.398102918334424</v>
       </c>
       <c r="AO31" t="n">
-        <v>12.75023421085331</v>
+        <v>6.763996656925009</v>
       </c>
       <c r="AP31" t="n">
-        <v>5.446037426076124</v>
+        <v>23.31179261047554</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.737355188329296</v>
+        <v>18.37112294529297</v>
       </c>
       <c r="AR31" t="n">
-        <v>12.52499561810625</v>
+        <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>3.122833496580558</v>
+        <v>8.599347345292982</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.39826470221895</v>
+        <v>21.24712090261578</v>
       </c>
       <c r="AU31" t="n">
-        <v>6.190304581197871</v>
+        <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>11.9985038760279</v>
+        <v>5.193713606874313</v>
       </c>
       <c r="AW31" t="n">
-        <v>4.951372449763041</v>
+        <v>0.1570368952406695</v>
       </c>
       <c r="AX31" t="n">
-        <v>31.94200302638683</v>
+        <v>9.821372997886071</v>
       </c>
     </row>
   </sheetData>
